--- a/Карта рынка.xlsx
+++ b/Карта рынка.xlsx
@@ -340,14 +340,14 @@
           <t xml:space="preserve">18'000</t>
         </is>
       </c>
-      <c r="F3" s="66">
-        <v>100.15</v>
+      <c t="n" r="F3">
+        <v>100.1</v>
       </c>
       <c r="H3" s="66">
-        <v>22.97</v>
+        <v>22.98</v>
       </c>
       <c r="I3" s="66">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="J3" s="66">
         <v>23.00</v>
@@ -411,10 +411,10 @@
         </is>
       </c>
       <c r="F4" s="66">
-        <v>100.17</v>
-      </c>
-      <c r="H4" s="66">
-        <v>24.36</v>
+        <v>100.43</v>
+      </c>
+      <c t="n" r="H4">
+        <v>24.3</v>
       </c>
       <c r="I4" s="66">
         <v>1.93</v>
@@ -473,11 +473,11 @@
       <c r="E5" s="65">
         <v>400</v>
       </c>
-      <c r="F5" s="65">
-        <v>100</v>
-      </c>
-      <c r="H5" s="65">
-        <v>27</v>
+      <c r="F5" s="66">
+        <v>100.14</v>
+      </c>
+      <c r="H5" s="66">
+        <v>26.96</v>
       </c>
       <c r="I5" s="66">
         <v>1.92</v>
@@ -537,13 +537,13 @@
         <v>350</v>
       </c>
       <c t="n" r="F6">
-        <v>100.9</v>
+        <v>101.2</v>
       </c>
       <c r="H6" s="66">
-        <v>26.76</v>
+        <v>26.68</v>
       </c>
       <c r="I6" s="66">
-        <v>3.89</v>
+        <v>3.88</v>
       </c>
       <c r="J6" s="66">
         <v>27.00</v>
@@ -596,14 +596,14 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c r="F7" s="65">
-        <v>100</v>
-      </c>
-      <c t="n" r="H7">
-        <v>23.5</v>
+      <c r="F7" s="66">
+        <v>100.05</v>
+      </c>
+      <c r="H7" s="66">
+        <v>23.49</v>
       </c>
       <c r="I7" s="66">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="J7" s="66">
         <v>23.50</v>
@@ -661,14 +661,14 @@
           <t xml:space="preserve">4'800</t>
         </is>
       </c>
-      <c t="n" r="F8">
-        <v>101.7</v>
+      <c r="F8" s="66">
+        <v>102.33</v>
       </c>
       <c r="H8" s="66">
-        <v>24.58</v>
+        <v>24.43</v>
       </c>
       <c r="I8" s="66">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="J8" s="66">
         <v>25.00</v>
@@ -725,13 +725,13 @@
         <v>677</v>
       </c>
       <c r="F9" s="66">
-        <v>101.57</v>
+        <v>101.48</v>
       </c>
       <c r="H9" s="66">
-        <v>22.79</v>
+        <v>22.81</v>
       </c>
       <c r="I9" s="66">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="J9" s="66">
         <v>23.15</v>
@@ -789,11 +789,11 @@
           <t xml:space="preserve">5'000</t>
         </is>
       </c>
-      <c r="F10" s="65">
-        <v>100</v>
-      </c>
-      <c r="H10" s="65">
-        <v>23</v>
+      <c t="n" r="F10">
+        <v>99.9</v>
+      </c>
+      <c r="H10" s="66">
+        <v>23.02</v>
       </c>
       <c r="I10" s="66">
         <v>0.36</v>
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="F11" s="66">
-        <v>99.95</v>
-      </c>
-      <c r="H11" s="66">
-        <v>23.01</v>
+        <v>100.01</v>
+      </c>
+      <c r="H11" s="65">
+        <v>23</v>
       </c>
       <c r="I11" s="66">
         <v>0.36</v>
@@ -930,13 +930,13 @@
         </is>
       </c>
       <c r="F12" s="66">
-        <v>100.18</v>
-      </c>
-      <c t="n" r="H12">
-        <v>27.7</v>
+        <v>100.01</v>
+      </c>
+      <c r="H12" s="66">
+        <v>27.75</v>
       </c>
       <c r="I12" s="66">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="J12" s="66">
         <v>27.75</v>
@@ -998,10 +998,10 @@
         <v>600</v>
       </c>
       <c r="F13" s="66">
-        <v>101.45</v>
+        <v>101.39</v>
       </c>
       <c r="H13" s="66">
-        <v>27.11</v>
+        <v>27.12</v>
       </c>
       <c r="I13" s="66">
         <v>1.82</v>
@@ -1060,14 +1060,14 @@
       <c r="E14" s="65">
         <v>100</v>
       </c>
-      <c r="F14" s="66">
-        <v>100.51</v>
+      <c t="n" r="F14">
+        <v>100.3</v>
       </c>
       <c r="H14" s="66">
-        <v>27.86</v>
+        <v>27.92</v>
       </c>
       <c r="I14" s="66">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J14" s="66">
         <v>28.00</v>
@@ -1130,14 +1130,14 @@
           <t xml:space="preserve">7'000</t>
         </is>
       </c>
-      <c t="n" r="F15">
-        <v>102.7</v>
+      <c r="F15" s="65">
+        <v>103</v>
       </c>
       <c r="H15" s="66">
-        <v>25.32</v>
+        <v>25.24</v>
       </c>
       <c r="I15" s="66">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J15" s="66">
         <v>26.00</v>
@@ -1195,14 +1195,14 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c t="n" r="F16">
-        <v>101.1</v>
+      <c r="F16" s="66">
+        <v>101.15</v>
       </c>
       <c r="H16" s="66">
-        <v>23.24</v>
+        <v>23.23</v>
       </c>
       <c r="I16" s="66">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="J16" s="66">
         <v>23.50</v>
@@ -1258,11 +1258,11 @@
       <c r="E17" s="65">
         <v>500</v>
       </c>
-      <c r="F17" s="66">
-        <v>99.22</v>
-      </c>
-      <c t="n" r="H17">
-        <v>25.2</v>
+      <c r="F17" s="65">
+        <v>95</v>
+      </c>
+      <c r="H17" s="66">
+        <v>26.32</v>
       </c>
       <c r="I17" s="66">
         <v>0.84</v>
@@ -1329,13 +1329,13 @@
         </is>
       </c>
       <c r="F18" s="66">
-        <v>102.55</v>
+        <v>102.61</v>
       </c>
       <c r="H18" s="66">
-        <v>23.31</v>
+        <v>23.29</v>
       </c>
       <c r="I18" s="66">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J18" s="66">
         <v>23.90</v>
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="F19" s="66">
-        <v>104.98</v>
+        <v>103.35</v>
       </c>
       <c r="H19" s="66">
-        <v>25.72</v>
+        <v>26.12</v>
       </c>
       <c r="I19" s="66">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J19" s="66">
         <v>27.00</v>
@@ -1458,14 +1458,14 @@
           <t xml:space="preserve">1'000</t>
         </is>
       </c>
-      <c t="n" r="F20">
-        <v>101.3</v>
+      <c r="F20" s="66">
+        <v>101.07</v>
       </c>
       <c r="H20" s="66">
-        <v>26.65</v>
-      </c>
-      <c r="I20" s="66">
-        <v>1.81</v>
+        <v>26.71</v>
+      </c>
+      <c t="n" r="I20">
+        <v>1.8</v>
       </c>
       <c r="J20" s="66">
         <v>27.00</v>
@@ -1528,14 +1528,14 @@
           <t xml:space="preserve">5'000</t>
         </is>
       </c>
-      <c t="n" r="F21">
-        <v>100.5</v>
+      <c r="F21" s="66">
+        <v>100.49</v>
       </c>
       <c r="H21" s="66">
         <v>24.88</v>
       </c>
       <c r="I21" s="66">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="J21" s="66">
         <v>25.00</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c t="inlineStr" r="O21">
         <is>
-          <t xml:space="preserve">К: 15-12-2025</t>
+          <t xml:space="preserve">П: 15-12-2025</t>
         </is>
       </c>
       <c t="inlineStr" r="P21">
@@ -1599,13 +1599,13 @@
         </is>
       </c>
       <c r="F22" s="66">
-        <v>101.48</v>
-      </c>
-      <c t="n" r="H22">
-        <v>23.4</v>
-      </c>
-      <c r="I22" s="66">
-        <v>1.81</v>
+        <v>101.26</v>
+      </c>
+      <c r="H22" s="66">
+        <v>23.45</v>
+      </c>
+      <c t="n" r="I22">
+        <v>1.8</v>
       </c>
       <c r="J22" s="66">
         <v>23.75</v>
@@ -1661,14 +1661,14 @@
       <c r="E23" s="65">
         <v>150</v>
       </c>
-      <c r="F23" s="65">
-        <v>106</v>
+      <c t="n" r="F23">
+        <v>104.9</v>
       </c>
       <c r="H23" s="66">
-        <v>25.94</v>
-      </c>
-      <c t="n" r="I23">
-        <v>2.3</v>
+        <v>26.22</v>
+      </c>
+      <c r="I23" s="66">
+        <v>2.29</v>
       </c>
       <c r="J23" s="66">
         <v>27.50</v>
@@ -1730,16 +1730,16 @@
         <v>100.12</v>
       </c>
       <c t="n" r="G24">
-        <v>215.1</v>
+        <v>215.7</v>
       </c>
       <c r="H24" s="66">
-        <v>22.74</v>
-      </c>
-      <c t="n" r="I24">
-        <v>1.8</v>
+        <v>22.76</v>
+      </c>
+      <c r="I24" s="66">
+        <v>1.79</v>
       </c>
       <c r="J24" s="66">
-        <v>22.77</v>
+        <v>22.79</v>
       </c>
       <c t="inlineStr" r="K24">
         <is>
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="F25" s="66">
-        <v>99.43</v>
+        <v>99.33</v>
       </c>
       <c r="H25" s="66">
-        <v>26.65</v>
-      </c>
-      <c t="n" r="I25">
-        <v>1.8</v>
+        <v>26.68</v>
+      </c>
+      <c r="I25" s="66">
+        <v>1.79</v>
       </c>
       <c r="J25" s="66">
         <v>26.50</v>
@@ -1860,13 +1860,13 @@
         </is>
       </c>
       <c r="F26" s="66">
-        <v>102.75</v>
+        <v>102.85</v>
       </c>
       <c r="H26" s="66">
-        <v>24.82</v>
+        <v>24.79</v>
       </c>
       <c r="I26" s="66">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="J26" s="66">
         <v>25.50</v>
@@ -1925,10 +1925,10 @@
         </is>
       </c>
       <c r="F27" s="66">
-        <v>104.86</v>
-      </c>
-      <c r="H27" s="66">
-        <v>24.79</v>
+        <v>104.01</v>
+      </c>
+      <c r="H27" s="65">
+        <v>25</v>
       </c>
       <c r="I27" s="66">
         <v>1.81</v>
@@ -1990,13 +1990,13 @@
         </is>
       </c>
       <c r="F28" s="66">
-        <v>101.72</v>
+        <v>101.36</v>
       </c>
       <c r="H28" s="66">
-        <v>23.84</v>
+        <v>23.92</v>
       </c>
       <c r="I28" s="66">
-        <v>2.44</v>
+        <v>2.43</v>
       </c>
       <c r="J28" s="66">
         <v>24.25</v>
@@ -2055,13 +2055,13 @@
         </is>
       </c>
       <c r="F29" s="66">
-        <v>102.28</v>
-      </c>
-      <c r="H29" s="66">
-        <v>24.44</v>
+        <v>102.02</v>
+      </c>
+      <c t="n" r="H29">
+        <v>24.5</v>
       </c>
       <c r="I29" s="66">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="J29" s="66">
         <v>25.00</v>
@@ -2120,13 +2120,13 @@
         </is>
       </c>
       <c r="F30" s="66">
-        <v>103.44</v>
+        <v>103.17</v>
       </c>
       <c r="H30" s="66">
-        <v>24.17</v>
+        <v>24.23</v>
       </c>
       <c r="I30" s="66">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="J30" s="66">
         <v>25.00</v>
@@ -2185,13 +2185,13 @@
         </is>
       </c>
       <c r="F31" s="66">
-        <v>102.16</v>
-      </c>
-      <c r="H31" s="66">
-        <v>22.61</v>
+        <v>101.78</v>
+      </c>
+      <c t="n" r="H31">
+        <v>22.7</v>
       </c>
       <c r="I31" s="66">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J31" s="66">
         <v>23.10</v>
@@ -2248,13 +2248,13 @@
         <v>700</v>
       </c>
       <c r="F32" s="66">
-        <v>100.15</v>
-      </c>
-      <c r="H32" s="66">
-        <v>26.96</v>
+        <v>100.39</v>
+      </c>
+      <c t="n" r="H32">
+        <v>26.9</v>
       </c>
       <c r="I32" s="66">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="J32" s="66">
         <v>27.00</v>
@@ -2308,16 +2308,16 @@
         </is>
       </c>
       <c r="E33" s="65">
-        <v>19</v>
-      </c>
-      <c t="n" r="F33">
-        <v>100.2</v>
+        <v>21</v>
+      </c>
+      <c r="F33" s="66">
+        <v>100.02</v>
       </c>
       <c r="H33" s="66">
-        <v>28.94</v>
+        <v>28.99</v>
       </c>
       <c r="I33" s="66">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="J33" s="66">
         <v>29.00</v>
@@ -2379,13 +2379,13 @@
         <v>31</v>
       </c>
       <c r="F34" s="66">
-        <v>99.75</v>
+        <v>98.06</v>
       </c>
       <c r="H34" s="66">
-        <v>29.07</v>
+        <v>29.57</v>
       </c>
       <c r="I34" s="66">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="J34" s="66">
         <v>29.00</v>
@@ -2449,23 +2449,23 @@
         </is>
       </c>
       <c r="F35" s="66">
-        <v>100.15</v>
+        <v>100.06</v>
       </c>
       <c t="n" r="G35">
-        <v>-58.8</v>
+        <v>-68.5</v>
       </c>
       <c r="H35" s="66">
-        <v>20.78</v>
+        <v>20.79</v>
       </c>
       <c r="I35" s="66">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="J35" s="66">
-        <v>20.81</v>
+        <v>20.80</v>
       </c>
       <c t="inlineStr" r="K35">
         <is>
-          <t xml:space="preserve">21-02-2025</t>
+          <t xml:space="preserve">23-05-2025</t>
         </is>
       </c>
       <c r="L35" s="65">
@@ -2517,20 +2517,20 @@
         </is>
       </c>
       <c r="F36" s="66">
-        <v>100.48</v>
+        <v>100.49</v>
       </c>
       <c r="H36" s="66">
         <v>22.89</v>
       </c>
       <c r="I36" s="66">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="J36" s="66">
         <v>23.00</v>
       </c>
       <c t="inlineStr" r="K36">
         <is>
-          <t xml:space="preserve">20-02-2025</t>
+          <t xml:space="preserve">22-03-2025</t>
         </is>
       </c>
       <c r="L36" s="65">
@@ -2587,20 +2587,20 @@
         </is>
       </c>
       <c r="F37" s="66">
-        <v>100.45</v>
+        <v>100.27</v>
       </c>
       <c r="H37" s="66">
-        <v>25.88</v>
+        <v>25.93</v>
       </c>
       <c r="I37" s="66">
-        <v>2.72</v>
+        <v>2.71</v>
       </c>
       <c r="J37" s="66">
         <v>26.00</v>
       </c>
       <c t="inlineStr" r="K37">
         <is>
-          <t xml:space="preserve">20-02-2025</t>
+          <t xml:space="preserve">22-03-2025</t>
         </is>
       </c>
       <c r="L37" s="65">
@@ -2652,13 +2652,13 @@
         </is>
       </c>
       <c r="F38" s="66">
-        <v>101.11</v>
+        <v>100.36</v>
       </c>
       <c r="H38" s="66">
-        <v>25.22</v>
-      </c>
-      <c r="I38" s="66">
-        <v>1.71</v>
+        <v>25.41</v>
+      </c>
+      <c t="n" r="I38">
+        <v>1.7</v>
       </c>
       <c r="J38" s="66">
         <v>25.50</v>
@@ -2716,14 +2716,14 @@
           <t xml:space="preserve">40'000</t>
         </is>
       </c>
-      <c t="n" r="F39">
-        <v>100.2</v>
+      <c r="F39" s="66">
+        <v>100.15</v>
       </c>
       <c r="H39" s="66">
-        <v>22.95</v>
-      </c>
-      <c r="I39" s="66">
-        <v>1.71</v>
+        <v>22.97</v>
+      </c>
+      <c t="n" r="I39">
+        <v>1.7</v>
       </c>
       <c r="J39" s="66">
         <v>23.00</v>
@@ -2781,11 +2781,11 @@
           <t xml:space="preserve">1'000</t>
         </is>
       </c>
-      <c t="n" r="F40">
-        <v>101.4</v>
+      <c r="F40" s="66">
+        <v>100.68</v>
       </c>
       <c r="H40" s="66">
-        <v>23.67</v>
+        <v>23.84</v>
       </c>
       <c r="I40" s="66">
         <v>2.72</v>
@@ -2845,13 +2845,13 @@
         <v>185</v>
       </c>
       <c r="F41" s="66">
-        <v>98.35</v>
+        <v>97.99</v>
       </c>
       <c r="H41" s="66">
-        <v>25.17</v>
+        <v>25.26</v>
       </c>
       <c r="I41" s="66">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="J41" s="66">
         <v>24.75</v>
@@ -2909,11 +2909,11 @@
           <t xml:space="preserve">23'000</t>
         </is>
       </c>
-      <c t="n" r="F42">
-        <v>99.2</v>
+      <c r="F42" s="66">
+        <v>98.02</v>
       </c>
       <c r="H42" s="66">
-        <v>22.38</v>
+        <v>22.65</v>
       </c>
       <c r="I42" s="66">
         <v>1.67</v>
@@ -2975,13 +2975,13 @@
         </is>
       </c>
       <c r="F43" s="66">
-        <v>98.35</v>
-      </c>
-      <c r="H43" s="66">
-        <v>23.13</v>
+        <v>98.05</v>
+      </c>
+      <c t="n" r="H43">
+        <v>23.2</v>
       </c>
       <c r="I43" s="66">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="J43" s="66">
         <v>22.75</v>
@@ -3037,11 +3037,11 @@
       <c r="E44" s="65">
         <v>10</v>
       </c>
-      <c r="F44" s="66">
-        <v>99.04</v>
+      <c t="n" r="F44">
+        <v>99.4</v>
       </c>
       <c r="H44" s="66">
-        <v>26.25</v>
+        <v>26.16</v>
       </c>
       <c r="I44" s="66">
         <v>2.68</v>
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="F45" s="66">
-        <v>99.93</v>
+        <v>100.05</v>
       </c>
       <c r="H45" s="66">
-        <v>22.32</v>
+        <v>22.29</v>
       </c>
       <c r="I45" s="66">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="J45" s="66">
         <v>22.30</v>
@@ -3168,13 +3168,13 @@
         </is>
       </c>
       <c t="n" r="F46">
-        <v>93.2</v>
+        <v>93.3</v>
       </c>
       <c r="H46" s="66">
-        <v>26.29</v>
+        <v>26.26</v>
       </c>
       <c r="I46" s="66">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="J46" s="66">
         <v>24.50</v>
@@ -3232,11 +3232,11 @@
           <t xml:space="preserve">5'000</t>
         </is>
       </c>
-      <c t="n" r="F47">
-        <v>97.9</v>
+      <c r="F47" s="66">
+        <v>97.99</v>
       </c>
       <c r="H47" s="66">
-        <v>23.24</v>
+        <v>23.22</v>
       </c>
       <c r="I47" s="66">
         <v>1.65</v>
@@ -3298,13 +3298,13 @@
         </is>
       </c>
       <c t="n" r="F48">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="H48" s="66">
-        <v>23.54</v>
+        <v>23.59</v>
       </c>
       <c r="I48" s="66">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="J48" s="66">
         <v>23.00</v>
@@ -3360,21 +3360,21 @@
       <c r="E49" s="65">
         <v>3</v>
       </c>
-      <c t="n" r="F49">
-        <v>104.9</v>
+      <c r="F49" s="66">
+        <v>97.02</v>
       </c>
       <c r="H49" s="66">
-        <v>21.93</v>
+        <v>23.71</v>
       </c>
       <c r="I49" s="66">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="J49" s="66">
         <v>23.00</v>
       </c>
       <c t="inlineStr" r="K49">
         <is>
-          <t xml:space="preserve">21-02-2025</t>
+          <t xml:space="preserve">23-03-2025</t>
         </is>
       </c>
       <c r="L49" s="65">
@@ -3431,20 +3431,20 @@
         </is>
       </c>
       <c r="F50" s="66">
-        <v>98.26</v>
-      </c>
-      <c r="H50" s="66">
-        <v>22.64</v>
+        <v>98.47</v>
+      </c>
+      <c t="n" r="H50">
+        <v>22.6</v>
       </c>
       <c r="I50" s="66">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="J50" s="66">
         <v>22.25</v>
       </c>
       <c t="inlineStr" r="K50">
         <is>
-          <t xml:space="preserve">20-02-2025</t>
+          <t xml:space="preserve">22-03-2025</t>
         </is>
       </c>
       <c r="L50" s="65">
@@ -3496,13 +3496,13 @@
         </is>
       </c>
       <c r="F51" s="66">
-        <v>101.15</v>
-      </c>
-      <c r="H51" s="65">
-        <v>22</v>
+        <v>101.91</v>
+      </c>
+      <c r="H51" s="66">
+        <v>21.83</v>
       </c>
       <c r="I51" s="66">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="J51" s="66">
         <v>22.25</v>
@@ -3561,20 +3561,20 @@
         </is>
       </c>
       <c r="F52" s="66">
-        <v>98.02</v>
+        <v>98.18</v>
       </c>
       <c r="H52" s="66">
-        <v>22.55</v>
+        <v>22.51</v>
       </c>
       <c r="I52" s="66">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="J52" s="66">
         <v>22.10</v>
       </c>
       <c t="inlineStr" r="K52">
         <is>
-          <t xml:space="preserve">19-02-2025</t>
+          <t xml:space="preserve">21-03-2025</t>
         </is>
       </c>
       <c r="L52" s="65">
@@ -3631,13 +3631,13 @@
         </is>
       </c>
       <c r="F53" s="66">
-        <v>93.06</v>
+        <v>92.57</v>
       </c>
       <c r="H53" s="66">
-        <v>25.79</v>
+        <v>25.93</v>
       </c>
       <c r="I53" s="66">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="J53" s="66">
         <v>24.00</v>
@@ -3695,11 +3695,11 @@
           <t xml:space="preserve">17'000</t>
         </is>
       </c>
-      <c t="n" r="F54">
-        <v>99.7</v>
-      </c>
-      <c r="H54" s="66">
-        <v>22.57</v>
+      <c r="F54" s="66">
+        <v>99.99</v>
+      </c>
+      <c t="n" r="H54">
+        <v>22.5</v>
       </c>
       <c r="I54" s="66">
         <v>2.65</v>
@@ -3709,7 +3709,7 @@
       </c>
       <c t="inlineStr" r="K54">
         <is>
-          <t xml:space="preserve">19-02-2025</t>
+          <t xml:space="preserve">22-03-2025</t>
         </is>
       </c>
       <c r="L54" s="65">
@@ -3759,13 +3759,13 @@
         <v>82</v>
       </c>
       <c r="F55" s="66">
-        <v>97.29</v>
+        <v>97.28</v>
       </c>
       <c r="H55" s="66">
         <v>24.41</v>
       </c>
       <c r="I55" s="66">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="J55" s="66">
         <v>23.75</v>
@@ -3821,14 +3821,14 @@
       <c r="E56" s="65">
         <v>300</v>
       </c>
-      <c t="n" r="F56">
-        <v>98.9</v>
+      <c r="F56" s="66">
+        <v>99.73</v>
       </c>
       <c r="H56" s="66">
-        <v>26.29</v>
+        <v>26.07</v>
       </c>
       <c r="I56" s="66">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="J56" s="66">
         <v>26.00</v>
@@ -3887,10 +3887,10 @@
         </is>
       </c>
       <c r="F57" s="66">
-        <v>98.14</v>
+        <v>98.26</v>
       </c>
       <c r="H57" s="66">
-        <v>22.72</v>
+        <v>22.69</v>
       </c>
       <c r="I57" s="66">
         <v>2.15</v>
@@ -3951,11 +3951,11 @@
           <t xml:space="preserve">8'000</t>
         </is>
       </c>
-      <c t="n" r="F58">
-        <v>89.2</v>
+      <c r="F58" s="65">
+        <v>89</v>
       </c>
       <c r="H58" s="66">
-        <v>26.91</v>
+        <v>26.97</v>
       </c>
       <c r="I58" s="66">
         <v>2.61</v>
@@ -4017,13 +4017,13 @@
         </is>
       </c>
       <c r="F59" s="66">
-        <v>99.68</v>
+        <v>99.48</v>
       </c>
       <c r="H59" s="66">
-        <v>22.21</v>
+        <v>22.26</v>
       </c>
       <c r="I59" s="66">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="J59" s="66">
         <v>22.14</v>
@@ -4080,13 +4080,13 @@
         <v>290</v>
       </c>
       <c r="F60" s="66">
-        <v>97.11</v>
+        <v>97.12</v>
       </c>
       <c r="H60" s="66">
-        <v>25.49</v>
-      </c>
-      <c t="n" r="I60">
-        <v>2.6</v>
+        <v>25.48</v>
+      </c>
+      <c r="I60" s="66">
+        <v>2.59</v>
       </c>
       <c r="J60" s="66">
         <v>24.75</v>
@@ -4144,14 +4144,14 @@
           <t xml:space="preserve">5'000</t>
         </is>
       </c>
-      <c t="n" r="F61">
-        <v>100.1</v>
+      <c r="F61" s="66">
+        <v>100.14</v>
       </c>
       <c r="H61" s="66">
-        <v>22.12</v>
+        <v>22.11</v>
       </c>
       <c r="I61" s="66">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="J61" s="66">
         <v>22.14</v>
@@ -4208,13 +4208,13 @@
         <v>112</v>
       </c>
       <c r="F62" s="66">
-        <v>80.43</v>
+        <v>80.75</v>
       </c>
       <c r="H62" s="66">
-        <v>33.57</v>
+        <v>33.44</v>
       </c>
       <c r="I62" s="66">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="J62" s="66">
         <v>27.00</v>
@@ -4273,13 +4273,13 @@
         </is>
       </c>
       <c r="F63" s="66">
-        <v>110.63</v>
+        <v>110.91</v>
       </c>
       <c r="H63" s="66">
-        <v>20.34</v>
+        <v>20.29</v>
       </c>
       <c r="I63" s="66">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="J63" s="66">
         <v>22.50</v>
@@ -4338,13 +4338,13 @@
         </is>
       </c>
       <c r="F64" s="66">
-        <v>92.68</v>
+        <v>91.93</v>
       </c>
       <c r="H64" s="66">
-        <v>26.97</v>
-      </c>
-      <c t="n" r="I64">
-        <v>2.6</v>
+        <v>27.19</v>
+      </c>
+      <c r="I64" s="66">
+        <v>2.59</v>
       </c>
       <c r="J64" s="66">
         <v>25.00</v>
@@ -4402,14 +4402,14 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c r="F65" s="65">
-        <v>96</v>
+      <c t="n" r="F65">
+        <v>95.8</v>
       </c>
       <c r="H65" s="66">
-        <v>23.44</v>
+        <v>23.49</v>
       </c>
       <c r="I65" s="66">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="J65" s="66">
         <v>22.50</v>
@@ -4472,14 +4472,14 @@
           <t xml:space="preserve">5'000</t>
         </is>
       </c>
-      <c r="F66" s="66">
-        <v>95.72</v>
+      <c t="n" r="F66">
+        <v>95.8</v>
       </c>
       <c r="H66" s="66">
-        <v>24.81</v>
-      </c>
-      <c t="n" r="I66">
-        <v>1.6</v>
+        <v>24.79</v>
+      </c>
+      <c r="I66" s="66">
+        <v>1.59</v>
       </c>
       <c r="J66" s="66">
         <v>23.75</v>
@@ -4542,17 +4542,17 @@
           <t xml:space="preserve">25'000</t>
         </is>
       </c>
-      <c r="F67" s="66">
-        <v>100.04</v>
+      <c t="n" r="F67">
+        <v>99.5</v>
       </c>
       <c t="n" r="G67">
-        <v>160.3</v>
-      </c>
-      <c r="H67" s="66">
-        <v>21.98</v>
-      </c>
-      <c t="n" r="I67">
-        <v>3.7</v>
+        <v>184.1</v>
+      </c>
+      <c t="n" r="H67">
+        <v>22.1</v>
+      </c>
+      <c r="I67" s="66">
+        <v>3.69</v>
       </c>
       <c r="J67" s="66">
         <v>21.99</v>
@@ -4611,13 +4611,13 @@
         </is>
       </c>
       <c r="F68" s="66">
-        <v>98.35</v>
+        <v>98.36</v>
       </c>
       <c r="H68" s="66">
         <v>23.89</v>
       </c>
       <c r="I68" s="66">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="J68" s="66">
         <v>23.50</v>
@@ -4685,7 +4685,7 @@
         <v>22.35</v>
       </c>
       <c r="I69" s="66">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="J69" s="66">
         <v>22.13</v>
@@ -4743,14 +4743,14 @@
           <t xml:space="preserve">2'500</t>
         </is>
       </c>
-      <c r="F70" s="66">
-        <v>84.14</v>
-      </c>
-      <c r="H70" s="66">
-        <v>28.82</v>
+      <c t="n" r="F70">
+        <v>84.5</v>
+      </c>
+      <c t="n" r="H70">
+        <v>28.7</v>
       </c>
       <c r="I70" s="66">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="J70" s="66">
         <v>24.25</v>
@@ -4806,21 +4806,21 @@
       <c r="E71" s="65">
         <v>500</v>
       </c>
-      <c r="F71" s="66">
-        <v>92.41</v>
-      </c>
-      <c r="H71" s="66">
-        <v>25.97</v>
+      <c t="n" r="F71">
+        <v>92.3</v>
+      </c>
+      <c r="H71" s="65">
+        <v>26</v>
       </c>
       <c r="I71" s="66">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="J71" s="66">
         <v>24.00</v>
       </c>
       <c t="inlineStr" r="K71">
         <is>
-          <t xml:space="preserve">21-02-2025</t>
+          <t xml:space="preserve">23-03-2025</t>
         </is>
       </c>
       <c r="L71" s="65">
@@ -4872,13 +4872,13 @@
         </is>
       </c>
       <c r="F72" s="66">
-        <v>98.97</v>
+        <v>98.95</v>
       </c>
       <c r="H72" s="66">
-        <v>22.53</v>
+        <v>22.54</v>
       </c>
       <c r="I72" s="66">
-        <v>4.69</v>
+        <v>4.68</v>
       </c>
       <c r="J72" s="66">
         <v>22.30</v>
@@ -4937,20 +4937,20 @@
         </is>
       </c>
       <c r="F73" s="66">
-        <v>97.56</v>
+        <v>97.47</v>
       </c>
       <c r="H73" s="66">
-        <v>22.76</v>
+        <v>22.78</v>
       </c>
       <c r="I73" s="66">
-        <v>3.54</v>
+        <v>3.53</v>
       </c>
       <c r="J73" s="66">
         <v>22.20</v>
       </c>
       <c t="inlineStr" r="K73">
         <is>
-          <t xml:space="preserve">20-02-2025</t>
+          <t xml:space="preserve">22-03-2025</t>
         </is>
       </c>
       <c r="L73" s="65">
@@ -5001,14 +5001,14 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c t="n" r="F74">
-        <v>93.7</v>
+      <c r="F74" s="66">
+        <v>92.62</v>
       </c>
       <c r="H74" s="66">
-        <v>24.87</v>
+        <v>25.16</v>
       </c>
       <c r="I74" s="66">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="J74" s="66">
         <v>23.30</v>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c t="n" r="F75">
-        <v>97.1</v>
+        <v>96.5</v>
       </c>
       <c r="H75" s="66">
-        <v>24.46</v>
+        <v>24.61</v>
       </c>
       <c r="I75" s="66">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="J75" s="66">
         <v>23.75</v>
@@ -5137,13 +5137,13 @@
         </is>
       </c>
       <c t="n" r="F76">
-        <v>99.9</v>
+        <v>99.5</v>
       </c>
       <c r="H76" s="66">
-        <v>22.22</v>
+        <v>22.31</v>
       </c>
       <c r="I76" s="66">
-        <v>3.04</v>
+        <v>3.03</v>
       </c>
       <c r="J76" s="66">
         <v>22.20</v>
@@ -5206,14 +5206,14 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c r="F77" s="66">
-        <v>97.11</v>
+      <c t="n" r="F77">
+        <v>96.5</v>
       </c>
       <c r="H77" s="66">
-        <v>24.46</v>
+        <v>24.61</v>
       </c>
       <c r="I77" s="66">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="J77" s="66">
         <v>23.75</v>
@@ -5267,23 +5267,23 @@
         </is>
       </c>
       <c r="E78" s="65">
-        <v>718</v>
-      </c>
-      <c t="n" r="F78">
-        <v>99.8</v>
-      </c>
-      <c r="H78" s="66">
-        <v>21.04</v>
+        <v>723</v>
+      </c>
+      <c r="F78" s="66">
+        <v>99.99</v>
+      </c>
+      <c r="H78" s="65">
+        <v>21</v>
       </c>
       <c r="I78" s="66">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="J78" s="66">
         <v>21.00</v>
       </c>
       <c t="inlineStr" r="K78">
         <is>
-          <t xml:space="preserve">19-02-2025</t>
+          <t xml:space="preserve">19-03-2025</t>
         </is>
       </c>
       <c r="L78" s="65">
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="F79" s="66">
-        <v>99.66</v>
+        <v>99.65</v>
       </c>
       <c r="H79" s="66">
         <v>22.18</v>
@@ -5399,14 +5399,14 @@
           <t xml:space="preserve">8'000</t>
         </is>
       </c>
-      <c r="F80" s="66">
-        <v>95.68</v>
+      <c t="n" r="F80">
+        <v>95.3</v>
       </c>
       <c r="H80" s="66">
-        <v>23.52</v>
+        <v>23.61</v>
       </c>
       <c r="I80" s="66">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="J80" s="66">
         <v>22.50</v>
@@ -5463,13 +5463,13 @@
         <v>200</v>
       </c>
       <c r="F81" s="66">
-        <v>97.67</v>
+        <v>97.72</v>
       </c>
       <c r="H81" s="66">
-        <v>25.85</v>
+        <v>25.84</v>
       </c>
       <c r="I81" s="66">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="J81" s="66">
         <v>25.25</v>
@@ -5539,7 +5539,7 @@
         <v>21.24</v>
       </c>
       <c r="I82" s="66">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="J82" s="66">
         <v>21.23</v>
@@ -5597,11 +5597,11 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c r="F83" s="66">
-        <v>95.71</v>
+      <c t="n" r="F83">
+        <v>95.2</v>
       </c>
       <c r="H83" s="66">
-        <v>24.29</v>
+        <v>24.42</v>
       </c>
       <c r="I83" s="66">
         <v>2.04</v>
@@ -5663,13 +5663,13 @@
         </is>
       </c>
       <c r="F84" s="66">
-        <v>95.93</v>
-      </c>
-      <c t="n" r="H84">
-        <v>24.5</v>
-      </c>
-      <c r="I84" s="66">
-        <v>4.51</v>
+        <v>95.18</v>
+      </c>
+      <c r="H84" s="66">
+        <v>24.69</v>
+      </c>
+      <c t="n" r="I84">
+        <v>4.5</v>
       </c>
       <c r="J84" s="66">
         <v>23.50</v>
@@ -5734,7 +5734,7 @@
         <v>22.65</v>
       </c>
       <c r="I85" s="66">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="J85" s="66">
         <v>22.20</v>
@@ -5793,10 +5793,10 @@
         </is>
       </c>
       <c t="n" r="F86">
-        <v>94.1</v>
-      </c>
-      <c r="H86" s="66">
-        <v>24.97</v>
+        <v>92.9</v>
+      </c>
+      <c t="n" r="H86">
+        <v>25.3</v>
       </c>
       <c r="I86" s="66">
         <v>2.52</v>
@@ -5858,13 +5858,13 @@
         </is>
       </c>
       <c r="F87" s="66">
-        <v>92.25</v>
+        <v>93.05</v>
       </c>
       <c r="H87" s="66">
-        <v>25.26</v>
+        <v>25.04</v>
       </c>
       <c r="I87" s="66">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="J87" s="66">
         <v>23.30</v>
@@ -5923,13 +5923,13 @@
         </is>
       </c>
       <c r="F88" s="66">
-        <v>97.75</v>
+        <v>97.72</v>
       </c>
       <c r="H88" s="66">
-        <v>23.27</v>
-      </c>
-      <c t="n" r="I88">
-        <v>2.5</v>
+        <v>23.28</v>
+      </c>
+      <c r="I88" s="66">
+        <v>2.49</v>
       </c>
       <c r="J88" s="66">
         <v>22.75</v>
@@ -5987,14 +5987,14 @@
           <t xml:space="preserve">4'700</t>
         </is>
       </c>
-      <c r="F89" s="66">
-        <v>92.42</v>
+      <c t="n" r="F89">
+        <v>92.7</v>
       </c>
       <c r="H89" s="66">
-        <v>25.54</v>
-      </c>
-      <c t="n" r="I89">
-        <v>2.5</v>
+        <v>25.46</v>
+      </c>
+      <c r="I89" s="66">
+        <v>2.49</v>
       </c>
       <c r="J89" s="66">
         <v>23.60</v>
@@ -6053,13 +6053,13 @@
         </is>
       </c>
       <c r="F90" s="66">
-        <v>93.31</v>
+        <v>92.83</v>
       </c>
       <c r="H90" s="66">
-        <v>24.33</v>
-      </c>
-      <c t="n" r="I90">
-        <v>2.6</v>
+        <v>24.45</v>
+      </c>
+      <c r="I90" s="66">
+        <v>2.59</v>
       </c>
       <c r="J90" s="66">
         <v>22.70</v>
@@ -6116,13 +6116,13 @@
         <v>305</v>
       </c>
       <c r="F91" s="66">
-        <v>97.51</v>
-      </c>
-      <c t="n" r="H91">
-        <v>24.1</v>
-      </c>
-      <c t="n" r="I91">
-        <v>2.5</v>
+        <v>95.82</v>
+      </c>
+      <c r="H91" s="66">
+        <v>24.53</v>
+      </c>
+      <c r="I91" s="66">
+        <v>2.49</v>
       </c>
       <c r="J91" s="66">
         <v>23.50</v>
@@ -6179,13 +6179,13 @@
         <v>212</v>
       </c>
       <c r="F92" s="66">
-        <v>85.04</v>
+        <v>85.44</v>
       </c>
       <c r="H92" s="66">
-        <v>31.16</v>
+        <v>31.02</v>
       </c>
       <c r="I92" s="66">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="J92" s="66">
         <v>26.50</v>
@@ -6244,13 +6244,13 @@
         </is>
       </c>
       <c r="F93" s="66">
-        <v>97.48</v>
+        <v>97.45</v>
       </c>
       <c r="H93" s="66">
         <v>22.88</v>
       </c>
       <c r="I93" s="66">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="J93" s="66">
         <v>22.30</v>
@@ -6304,16 +6304,16 @@
         </is>
       </c>
       <c r="E94" s="65">
-        <v>76</v>
-      </c>
-      <c t="n" r="F94">
-        <v>91.1</v>
+        <v>77</v>
+      </c>
+      <c r="F94" s="66">
+        <v>92.27</v>
       </c>
       <c r="H94" s="66">
-        <v>29.64</v>
-      </c>
-      <c r="I94" s="66">
-        <v>3.01</v>
+        <v>29.26</v>
+      </c>
+      <c r="I94" s="65">
+        <v>3</v>
       </c>
       <c r="J94" s="66">
         <v>27.00</v>
@@ -6372,20 +6372,20 @@
         </is>
       </c>
       <c r="F95" s="66">
-        <v>95.74</v>
+        <v>95.63</v>
       </c>
       <c r="H95" s="66">
-        <v>24.02</v>
+        <v>24.05</v>
       </c>
       <c r="I95" s="66">
-        <v>2.47</v>
+        <v>2.46</v>
       </c>
       <c r="J95" s="66">
         <v>23.00</v>
       </c>
       <c t="inlineStr" r="K95">
         <is>
-          <t xml:space="preserve">19-02-2025</t>
+          <t xml:space="preserve">21-03-2025</t>
         </is>
       </c>
       <c r="L95" s="65">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="F96" s="66">
-        <v>97.77</v>
+        <v>97.66</v>
       </c>
       <c r="H96" s="66">
-        <v>22.91</v>
+        <v>22.94</v>
       </c>
       <c r="I96" s="66">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
       <c r="J96" s="66">
         <v>22.40</v>
@@ -6507,13 +6507,13 @@
         </is>
       </c>
       <c r="F97" s="66">
-        <v>97.95</v>
+        <v>97.58</v>
       </c>
       <c r="H97" s="66">
-        <v>22.87</v>
+        <v>22.96</v>
       </c>
       <c r="I97" s="66">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
       <c r="J97" s="66">
         <v>22.40</v>
@@ -6572,13 +6572,13 @@
         </is>
       </c>
       <c r="F98" s="66">
-        <v>87.83</v>
+        <v>88.05</v>
       </c>
       <c r="H98" s="66">
-        <v>27.33</v>
+        <v>27.26</v>
       </c>
       <c r="I98" s="66">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="J98" s="66">
         <v>24.00</v>
@@ -6637,13 +6637,13 @@
         </is>
       </c>
       <c r="F99" s="66">
-        <v>87.25</v>
+        <v>87.19</v>
       </c>
       <c r="H99" s="66">
-        <v>28.94</v>
+        <v>28.96</v>
       </c>
       <c r="I99" s="66">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="J99" s="66">
         <v>25.25</v>
@@ -6700,13 +6700,13 @@
         <v>112</v>
       </c>
       <c r="F100" s="66">
-        <v>96.64</v>
-      </c>
-      <c t="n" r="H100">
-        <v>26.9</v>
+        <v>96.22</v>
+      </c>
+      <c r="H100" s="66">
+        <v>27.02</v>
       </c>
       <c r="I100" s="66">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="J100" s="66">
         <v>26.00</v>
@@ -6770,10 +6770,10 @@
         </is>
       </c>
       <c r="F101" s="66">
-        <v>81.28</v>
+        <v>82.97</v>
       </c>
       <c r="H101" s="66">
-        <v>28.54</v>
+        <v>27.96</v>
       </c>
       <c r="I101" s="66">
         <v>3.72</v>
@@ -6835,10 +6835,10 @@
         </is>
       </c>
       <c r="F102" s="66">
-        <v>97.66</v>
+        <v>97.73</v>
       </c>
       <c r="H102" s="66">
-        <v>23.55</v>
+        <v>23.53</v>
       </c>
       <c r="I102" s="66">
         <v>1.45</v>
@@ -6903,13 +6903,13 @@
         <v>774</v>
       </c>
       <c r="F103" s="66">
-        <v>94.97</v>
-      </c>
-      <c t="n" r="H103">
-        <v>22.9</v>
+        <v>93.11</v>
+      </c>
+      <c r="H103" s="66">
+        <v>23.36</v>
       </c>
       <c r="I103" s="66">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="J103" s="66">
         <v>21.75</v>
@@ -6966,13 +6966,13 @@
         <v>300</v>
       </c>
       <c r="F104" s="66">
-        <v>97.31</v>
+        <v>96.94</v>
       </c>
       <c r="H104" s="66">
-        <v>24.92</v>
+        <v>25.02</v>
       </c>
       <c r="I104" s="66">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="J104" s="66">
         <v>24.25</v>
@@ -7031,10 +7031,10 @@
         </is>
       </c>
       <c r="F105" s="66">
-        <v>65.91</v>
-      </c>
-      <c r="H105" s="66">
-        <v>38.69</v>
+        <v>65.05</v>
+      </c>
+      <c t="n" r="H105">
+        <v>39.2</v>
       </c>
       <c r="I105" s="66">
         <v>1.44</v>
@@ -7095,14 +7095,14 @@
           <t xml:space="preserve">15'000</t>
         </is>
       </c>
-      <c r="F106" s="65">
-        <v>98</v>
-      </c>
-      <c t="n" r="H106">
-        <v>22.6</v>
+      <c r="F106" s="66">
+        <v>97.96</v>
+      </c>
+      <c r="H106" s="66">
+        <v>22.61</v>
       </c>
       <c r="I106" s="66">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
       <c r="J106" s="66">
         <v>22.15</v>
@@ -7161,13 +7161,13 @@
         </is>
       </c>
       <c r="F107" s="66">
-        <v>88.25</v>
-      </c>
-      <c r="H107" s="66">
-        <v>26.91</v>
+        <v>87.97</v>
+      </c>
+      <c r="H107" s="65">
+        <v>27</v>
       </c>
       <c r="I107" s="66">
-        <v>2.42</v>
+        <v>2.41</v>
       </c>
       <c r="J107" s="66">
         <v>23.75</v>
@@ -7232,13 +7232,13 @@
         <v>153.9</v>
       </c>
       <c r="H108" s="66">
-        <v>22.32</v>
+        <v>22.33</v>
       </c>
       <c r="I108" s="66">
-        <v>4.45</v>
+        <v>4.44</v>
       </c>
       <c r="J108" s="66">
-        <v>22.15</v>
+        <v>22.16</v>
       </c>
       <c t="inlineStr" r="K108">
         <is>
@@ -7294,13 +7294,13 @@
         </is>
       </c>
       <c r="F109" s="66">
-        <v>98.14</v>
+        <v>97.85</v>
       </c>
       <c r="H109" s="66">
-        <v>22.42</v>
-      </c>
-      <c r="I109" s="66">
-        <v>2.41</v>
+        <v>22.48</v>
+      </c>
+      <c t="n" r="I109">
+        <v>2.4</v>
       </c>
       <c r="J109" s="66">
         <v>22.00</v>
@@ -7357,13 +7357,13 @@
         <v>225</v>
       </c>
       <c r="F110" s="66">
-        <v>89.35</v>
+        <v>88.45</v>
       </c>
       <c r="H110" s="66">
-        <v>27.98</v>
+        <v>28.26</v>
       </c>
       <c r="I110" s="66">
-        <v>4.38</v>
+        <v>4.37</v>
       </c>
       <c r="J110" s="66">
         <v>25.00</v>
@@ -7420,13 +7420,13 @@
         <v>250</v>
       </c>
       <c r="F111" s="66">
-        <v>94.24</v>
+        <v>92.98</v>
       </c>
       <c r="H111" s="66">
-        <v>27.32</v>
-      </c>
-      <c r="I111" s="66">
-        <v>2.41</v>
+        <v>27.69</v>
+      </c>
+      <c t="n" r="I111">
+        <v>2.4</v>
       </c>
       <c r="J111" s="66">
         <v>25.75</v>
@@ -7488,13 +7488,13 @@
         <v>54</v>
       </c>
       <c r="F112" s="66">
-        <v>72.64</v>
+        <v>60.07</v>
       </c>
       <c r="H112" s="66">
-        <v>35.79</v>
+        <v>43.28</v>
       </c>
       <c r="I112" s="66">
-        <v>2.44</v>
+        <v>2.43</v>
       </c>
       <c r="J112" s="66">
         <v>26.00</v>
@@ -7553,13 +7553,13 @@
         </is>
       </c>
       <c r="F113" s="66">
-        <v>98.28</v>
+        <v>97.96</v>
       </c>
       <c r="H113" s="66">
-        <v>22.44</v>
+        <v>22.51</v>
       </c>
       <c r="I113" s="66">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="J113" s="66">
         <v>22.05</v>
@@ -7617,14 +7617,14 @@
           <t xml:space="preserve">7'000</t>
         </is>
       </c>
-      <c t="n" r="F114">
-        <v>98.3</v>
+      <c r="F114" s="66">
+        <v>97.27</v>
       </c>
       <c r="H114" s="66">
-        <v>22.74</v>
-      </c>
-      <c t="n" r="I114">
-        <v>2.4</v>
+        <v>22.98</v>
+      </c>
+      <c r="I114" s="66">
+        <v>2.39</v>
       </c>
       <c r="J114" s="66">
         <v>22.35</v>
@@ -7683,19 +7683,19 @@
         </is>
       </c>
       <c r="F115" s="66">
-        <v>95.71</v>
+        <v>95.85</v>
       </c>
       <c t="n" r="G115">
-        <v>223.9</v>
+        <v>230.3</v>
       </c>
       <c r="H115" s="66">
-        <v>23.15</v>
+        <v>23.13</v>
       </c>
       <c r="I115" s="66">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="J115" s="66">
-        <v>22.16</v>
+        <v>22.17</v>
       </c>
       <c t="inlineStr" r="K115">
         <is>
@@ -7757,7 +7757,7 @@
         <v>23.75</v>
       </c>
       <c r="I116" s="66">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="J116" s="66">
         <v>22.30</v>
@@ -7814,20 +7814,20 @@
         <v>470</v>
       </c>
       <c r="F117" s="66">
-        <v>91.95</v>
+        <v>92.97</v>
       </c>
       <c r="H117" s="66">
-        <v>27.19</v>
+        <v>26.89</v>
       </c>
       <c r="I117" s="66">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="J117" s="66">
         <v>25.00</v>
       </c>
       <c t="inlineStr" r="K117">
         <is>
-          <t xml:space="preserve">19-02-2025</t>
+          <t xml:space="preserve">21-03-2025</t>
         </is>
       </c>
       <c r="L117" s="65">
@@ -7878,14 +7878,14 @@
           <t xml:space="preserve">1'600</t>
         </is>
       </c>
-      <c t="n" r="F118">
-        <v>87.1</v>
+      <c r="F118" s="65">
+        <v>87</v>
       </c>
       <c r="H118" s="66">
-        <v>28.01</v>
+        <v>28.05</v>
       </c>
       <c r="I118" s="66">
-        <v>2.42</v>
+        <v>2.41</v>
       </c>
       <c r="J118" s="66">
         <v>24.40</v>
@@ -7941,14 +7941,14 @@
       <c r="E119" s="65">
         <v>500</v>
       </c>
-      <c r="F119" s="66">
-        <v>92.89</v>
+      <c t="n" r="F119">
+        <v>93.2</v>
       </c>
       <c r="H119" s="66">
-        <v>26.91</v>
+        <v>26.82</v>
       </c>
       <c r="I119" s="66">
-        <v>2.42</v>
+        <v>2.41</v>
       </c>
       <c r="J119" s="66">
         <v>25.00</v>
@@ -8071,14 +8071,14 @@
           <t xml:space="preserve">5'000</t>
         </is>
       </c>
-      <c r="F121" s="66">
-        <v>95.19</v>
+      <c t="n" r="F121">
+        <v>95.1</v>
       </c>
       <c r="H121" s="66">
-        <v>23.85</v>
+        <v>23.87</v>
       </c>
       <c r="I121" s="66">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="J121" s="66">
         <v>22.70</v>
@@ -8137,13 +8137,13 @@
         </is>
       </c>
       <c r="F122" s="66">
-        <v>95.25</v>
+        <v>94.82</v>
       </c>
       <c r="H122" s="66">
-        <v>24.04</v>
-      </c>
-      <c t="n" r="I122">
-        <v>2.4</v>
+        <v>24.15</v>
+      </c>
+      <c r="I122" s="66">
+        <v>2.39</v>
       </c>
       <c r="J122" s="66">
         <v>22.90</v>
@@ -8206,14 +8206,14 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c r="F123" s="66">
-        <v>96.87</v>
+      <c t="n" r="F123">
+        <v>96.5</v>
       </c>
       <c r="H123" s="66">
-        <v>23.12</v>
+        <v>23.21</v>
       </c>
       <c r="I123" s="66">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="J123" s="66">
         <v>22.40</v>
@@ -8276,17 +8276,17 @@
           <t xml:space="preserve">45'000</t>
         </is>
       </c>
-      <c t="n" r="F124">
-        <v>97.4</v>
+      <c r="F124" s="66">
+        <v>95.89</v>
       </c>
       <c t="n" r="G124">
-        <v>240.1</v>
+        <v>299.8</v>
       </c>
       <c r="H124" s="66">
-        <v>22.52</v>
-      </c>
-      <c t="n" r="I124">
-        <v>4.5</v>
+        <v>22.87</v>
+      </c>
+      <c r="I124" s="66">
+        <v>4.49</v>
       </c>
       <c r="J124" s="66">
         <v>21.93</v>
@@ -8345,13 +8345,13 @@
         </is>
       </c>
       <c r="F125" s="66">
-        <v>94.98</v>
+        <v>94.55</v>
       </c>
       <c r="H125" s="66">
-        <v>24.85</v>
+        <v>24.96</v>
       </c>
       <c r="I125" s="66">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="J125" s="66">
         <v>23.60</v>
@@ -8410,13 +8410,13 @@
         </is>
       </c>
       <c r="F126" s="66">
-        <v>95.61</v>
+        <v>95.58</v>
       </c>
       <c r="H126" s="66">
-        <v>23.95</v>
+        <v>23.96</v>
       </c>
       <c r="I126" s="66">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="J126" s="66">
         <v>22.90</v>
@@ -8474,14 +8474,14 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c t="n" r="F127">
-        <v>98.5</v>
+      <c r="F127" s="66">
+        <v>98.06</v>
       </c>
       <c r="H127" s="66">
-        <v>22.39</v>
+        <v>22.49</v>
       </c>
       <c r="I127" s="66">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="J127" s="66">
         <v>22.05</v>
@@ -8540,13 +8540,13 @@
         </is>
       </c>
       <c r="F128" s="66">
-        <v>95.11</v>
+        <v>94.91</v>
       </c>
       <c r="H128" s="66">
-        <v>24.39</v>
+        <v>24.44</v>
       </c>
       <c r="I128" s="66">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="J128" s="66">
         <v>23.20</v>
@@ -8603,10 +8603,10 @@
         <v>537</v>
       </c>
       <c r="F129" s="66">
-        <v>95.18</v>
+        <v>94.67</v>
       </c>
       <c r="H129" s="66">
-        <v>22.59</v>
+        <v>22.71</v>
       </c>
       <c r="I129" s="66">
         <v>2.95</v>
@@ -8668,13 +8668,13 @@
         </is>
       </c>
       <c r="F130" s="66">
-        <v>91.86</v>
+        <v>91.57</v>
       </c>
       <c r="H130" s="66">
-        <v>26.13</v>
-      </c>
-      <c t="n" r="I130">
-        <v>3.3</v>
+        <v>26.21</v>
+      </c>
+      <c r="I130" s="66">
+        <v>3.29</v>
       </c>
       <c r="J130" s="66">
         <v>24.00</v>
@@ -8733,10 +8733,10 @@
         </is>
       </c>
       <c r="F131" s="66">
-        <v>91.46</v>
-      </c>
-      <c r="H131" s="66">
-        <v>26.24</v>
+        <v>91.62</v>
+      </c>
+      <c t="n" r="H131">
+        <v>26.2</v>
       </c>
       <c r="I131" s="66">
         <v>1.81</v>
@@ -8746,7 +8746,7 @@
       </c>
       <c t="inlineStr" r="K131">
         <is>
-          <t xml:space="preserve">20-02-2025</t>
+          <t xml:space="preserve">22-03-2025</t>
         </is>
       </c>
       <c r="L131" s="65">
@@ -8798,10 +8798,10 @@
         </is>
       </c>
       <c r="F132" s="66">
-        <v>89.93</v>
+        <v>90.59</v>
       </c>
       <c r="H132" s="66">
-        <v>25.91</v>
+        <v>25.72</v>
       </c>
       <c t="n" r="I132">
         <v>2.3</v>
@@ -8811,7 +8811,7 @@
       </c>
       <c t="inlineStr" r="K132">
         <is>
-          <t xml:space="preserve">19-02-2025</t>
+          <t xml:space="preserve">21-03-2025</t>
         </is>
       </c>
       <c r="L132" s="65">
@@ -8863,13 +8863,13 @@
         </is>
       </c>
       <c r="F133" s="66">
-        <v>92.01</v>
+        <v>91.11</v>
       </c>
       <c r="H133" s="66">
-        <v>25.21</v>
+        <v>25.46</v>
       </c>
       <c r="I133" s="66">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="J133" s="66">
         <v>23.20</v>
@@ -8933,8 +8933,8 @@
       <c t="n" r="H134">
         <v>23.9</v>
       </c>
-      <c r="I134" s="66">
-        <v>1.31</v>
+      <c t="n" r="I134">
+        <v>1.3</v>
       </c>
       <c r="J134" s="66">
         <v>23.90</v>
@@ -8997,11 +8997,11 @@
           <t xml:space="preserve">5'000</t>
         </is>
       </c>
-      <c t="n" r="F135">
-        <v>95.4</v>
+      <c r="F135" s="66">
+        <v>95.52</v>
       </c>
       <c r="H135" s="66">
-        <v>24.21</v>
+        <v>24.18</v>
       </c>
       <c r="I135" s="66">
         <v>1.32</v>
@@ -9068,13 +9068,13 @@
         </is>
       </c>
       <c r="F136" s="66">
-        <v>98.19</v>
+        <v>97.84</v>
       </c>
       <c r="H136" s="66">
-        <v>22.51</v>
+        <v>22.59</v>
       </c>
       <c r="I136" s="66">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J136" s="66">
         <v>22.10</v>
@@ -9132,14 +9132,14 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c t="n" r="F137">
-        <v>97.7</v>
+      <c r="F137" s="66">
+        <v>98.19</v>
       </c>
       <c r="H137" s="66">
-        <v>22.62</v>
+        <v>22.51</v>
       </c>
       <c r="I137" s="66">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="J137" s="66">
         <v>22.10</v>
@@ -9197,14 +9197,14 @@
           <t xml:space="preserve">2'000</t>
         </is>
       </c>
-      <c r="F138" s="66">
-        <v>92.04</v>
-      </c>
-      <c r="H138" s="66">
-        <v>26.89</v>
+      <c r="F138" s="65">
+        <v>92</v>
+      </c>
+      <c t="n" r="H138">
+        <v>26.9</v>
       </c>
       <c r="I138" s="66">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="J138" s="66">
         <v>24.75</v>
@@ -9263,13 +9263,13 @@
         </is>
       </c>
       <c r="F139" s="66">
-        <v>98.17</v>
+        <v>98.16</v>
       </c>
       <c r="H139" s="66">
-        <v>22.56</v>
+        <v>22.57</v>
       </c>
       <c r="I139" s="66">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="J139" s="66">
         <v>22.15</v>
@@ -9328,13 +9328,13 @@
         </is>
       </c>
       <c r="F140" s="66">
-        <v>99.45</v>
+        <v>99.98</v>
       </c>
       <c r="H140" s="66">
-        <v>22.05</v>
+        <v>21.93</v>
       </c>
       <c r="I140" s="66">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="J140" s="66">
         <v>21.93</v>
@@ -9395,14 +9395,14 @@
       <c r="E141" s="65">
         <v>57</v>
       </c>
-      <c r="F141" s="65">
-        <v>83</v>
+      <c r="F141" s="66">
+        <v>83.45</v>
       </c>
       <c r="H141" s="66">
-        <v>30.72</v>
+        <v>30.56</v>
       </c>
       <c r="I141" s="66">
-        <v>4.28</v>
+        <v>4.27</v>
       </c>
       <c r="J141" s="66">
         <v>25.50</v>
@@ -9461,13 +9461,13 @@
         </is>
       </c>
       <c r="F142" s="66">
-        <v>99.88</v>
+        <v>99.57</v>
       </c>
       <c r="H142" s="66">
-        <v>22.18</v>
+        <v>22.25</v>
       </c>
       <c r="I142" s="66">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
       <c r="J142" s="66">
         <v>22.15</v>
@@ -9524,10 +9524,10 @@
         <v>200</v>
       </c>
       <c r="F143" s="66">
-        <v>90.95</v>
+        <v>89.68</v>
       </c>
       <c r="H143" s="66">
-        <v>27.76</v>
+        <v>28.16</v>
       </c>
       <c r="I143" s="66">
         <v>2.25</v>
@@ -9588,17 +9588,17 @@
           <t xml:space="preserve">7'000</t>
         </is>
       </c>
-      <c t="n" r="F144">
-        <v>93.9</v>
-      </c>
-      <c t="n" r="G144">
-        <v>478.4</v>
+      <c r="F144" s="66">
+        <v>93.94</v>
+      </c>
+      <c r="G144" s="65">
+        <v>479</v>
       </c>
       <c r="H144" s="66">
-        <v>23.95</v>
+        <v>23.94</v>
       </c>
       <c r="I144" s="66">
-        <v>4.38</v>
+        <v>4.37</v>
       </c>
       <c r="J144" s="66">
         <v>22.49</v>
@@ -9657,13 +9657,13 @@
         </is>
       </c>
       <c t="n" r="F145">
-        <v>95.8</v>
+        <v>95.6</v>
       </c>
       <c r="H145" s="66">
-        <v>23.23</v>
+        <v>23.27</v>
       </c>
       <c r="I145" s="66">
-        <v>3.22</v>
+        <v>3.21</v>
       </c>
       <c r="J145" s="66">
         <v>22.25</v>
@@ -9722,23 +9722,23 @@
         </is>
       </c>
       <c r="F146" s="66">
-        <v>99.72</v>
+        <v>99.49</v>
       </c>
       <c t="n" r="G146">
-        <v>93.9</v>
+        <v>104.1</v>
       </c>
       <c r="H146" s="66">
-        <v>21.93</v>
+        <v>21.95</v>
       </c>
       <c r="I146" s="66">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="J146" s="66">
-        <v>21.87</v>
+        <v>21.84</v>
       </c>
       <c t="inlineStr" r="K146">
         <is>
-          <t xml:space="preserve">21-02-2025</t>
+          <t xml:space="preserve">23-05-2025</t>
         </is>
       </c>
       <c r="L146" s="65">
@@ -9789,21 +9789,21 @@
           <t xml:space="preserve">15'000</t>
         </is>
       </c>
-      <c r="F147" s="66">
-        <v>96.99</v>
+      <c t="n" r="F147">
+        <v>97.5</v>
       </c>
       <c r="H147" s="66">
-        <v>22.89</v>
+        <v>22.77</v>
       </c>
       <c r="I147" s="66">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="J147" s="66">
         <v>22.20</v>
       </c>
       <c t="inlineStr" r="K147">
         <is>
-          <t xml:space="preserve">20-02-2025</t>
+          <t xml:space="preserve">22-05-2025</t>
         </is>
       </c>
       <c r="L147" s="65">
@@ -9854,24 +9854,24 @@
           <t xml:space="preserve">12'000</t>
         </is>
       </c>
-      <c t="n" r="F148">
-        <v>81.5</v>
+      <c r="F148" s="66">
+        <v>83.73</v>
       </c>
       <c t="n" r="G148">
-        <v>1311.1</v>
-      </c>
-      <c r="H148" s="66">
-        <v>28.49</v>
+        <v>1178.3</v>
+      </c>
+      <c t="n" r="H148">
+        <v>27.7</v>
       </c>
       <c r="I148" s="66">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="J148" s="66">
-        <v>23.22</v>
+        <v>23.19</v>
       </c>
       <c t="inlineStr" r="K148">
         <is>
-          <t xml:space="preserve">20-02-2025</t>
+          <t xml:space="preserve">22-05-2025</t>
         </is>
       </c>
       <c r="L148" s="65">
@@ -9923,20 +9923,20 @@
         </is>
       </c>
       <c r="F149" s="66">
-        <v>81.79</v>
+        <v>83.36</v>
       </c>
       <c r="H149" s="66">
-        <v>28.37</v>
-      </c>
-      <c t="n" r="I149">
-        <v>3.5</v>
+        <v>27.83</v>
+      </c>
+      <c r="I149" s="66">
+        <v>3.49</v>
       </c>
       <c r="J149" s="66">
         <v>23.20</v>
       </c>
       <c t="inlineStr" r="K149">
         <is>
-          <t xml:space="preserve">20-02-2025</t>
+          <t xml:space="preserve">22-05-2025</t>
         </is>
       </c>
       <c r="L149" s="65">
@@ -9988,13 +9988,13 @@
         </is>
       </c>
       <c r="F150" s="66">
-        <v>97.39</v>
-      </c>
-      <c t="n" r="H150">
-        <v>22.9</v>
+        <v>97.55</v>
+      </c>
+      <c r="H150" s="66">
+        <v>22.86</v>
       </c>
       <c r="I150" s="66">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="J150" s="66">
         <v>22.30</v>
@@ -10051,13 +10051,13 @@
         <v>418</v>
       </c>
       <c r="F151" s="66">
-        <v>93.06</v>
+        <v>92.36</v>
       </c>
       <c r="H151" s="66">
-        <v>27.94</v>
+        <v>28.15</v>
       </c>
       <c r="I151" s="66">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="J151" s="66">
         <v>26.00</v>
@@ -10120,14 +10120,14 @@
           <t xml:space="preserve">11'000</t>
         </is>
       </c>
-      <c t="n" r="F152">
-        <v>88.8</v>
+      <c r="F152" s="66">
+        <v>88.13</v>
       </c>
       <c r="H152" s="66">
-        <v>26.07</v>
+        <v>26.27</v>
       </c>
       <c r="I152" s="66">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="J152" s="66">
         <v>23.15</v>
@@ -10191,10 +10191,10 @@
         </is>
       </c>
       <c r="F153" s="66">
-        <v>90.34</v>
+        <v>91.15</v>
       </c>
       <c r="H153" s="66">
-        <v>25.79</v>
+        <v>25.56</v>
       </c>
       <c r="I153" s="66">
         <v>2.13</v>
@@ -10253,14 +10253,14 @@
       <c r="E154" s="65">
         <v>64</v>
       </c>
-      <c r="F154" s="66">
-        <v>90.44</v>
+      <c r="F154" s="65">
+        <v>85</v>
       </c>
       <c r="H154" s="66">
-        <v>26.54</v>
+        <v>28.24</v>
       </c>
       <c r="I154" s="66">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="J154" s="66">
         <v>24.00</v>
@@ -10318,14 +10318,14 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c t="n" r="F155">
-        <v>87.3</v>
-      </c>
-      <c r="G155" s="65">
-        <v>1466</v>
+      <c r="F155" s="66">
+        <v>88.25</v>
+      </c>
+      <c t="n" r="G155">
+        <v>1390.8</v>
       </c>
       <c r="H155" s="66">
-        <v>28.75</v>
+        <v>28.44</v>
       </c>
       <c r="I155" s="66">
         <v>2.13</v>
@@ -10386,17 +10386,17 @@
           <t xml:space="preserve">85'000</t>
         </is>
       </c>
-      <c r="F156" s="66">
-        <v>94.15</v>
-      </c>
-      <c t="n" r="G156">
-        <v>297.4</v>
+      <c t="n" r="F156">
+        <v>93.5</v>
+      </c>
+      <c r="G156" s="65">
+        <v>318</v>
       </c>
       <c r="H156" s="66">
-        <v>23.58</v>
+        <v>23.74</v>
       </c>
       <c r="I156" s="66">
-        <v>7.12</v>
+        <v>7.11</v>
       </c>
       <c r="J156" s="66">
         <v>22.20</v>
@@ -10454,20 +10454,20 @@
           <t xml:space="preserve">20'000</t>
         </is>
       </c>
-      <c r="F157" s="66">
-        <v>95.18</v>
+      <c t="n" r="F157">
+        <v>95.6</v>
       </c>
       <c t="n" r="G157">
-        <v>349.8</v>
+        <v>344.7</v>
       </c>
       <c r="H157" s="66">
-        <v>23.07</v>
+        <v>22.99</v>
       </c>
       <c r="I157" s="66">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="J157" s="66">
-        <v>21.96</v>
+        <v>21.98</v>
       </c>
       <c t="inlineStr" r="K157">
         <is>
@@ -10521,13 +10521,13 @@
         <v>450</v>
       </c>
       <c r="F158" s="66">
-        <v>97.96</v>
+        <v>97.62</v>
       </c>
       <c r="H158" s="66">
-        <v>25.52</v>
-      </c>
-      <c t="n" r="I158">
-        <v>2.1</v>
+        <v>25.61</v>
+      </c>
+      <c r="I158" s="66">
+        <v>2.09</v>
       </c>
       <c r="J158" s="66">
         <v>25.00</v>
@@ -10583,14 +10583,14 @@
       <c r="E159" s="65">
         <v>250</v>
       </c>
-      <c r="F159" s="66">
-        <v>85.25</v>
+      <c t="n" r="F159">
+        <v>85.2</v>
       </c>
       <c r="H159" s="66">
-        <v>28.15</v>
+        <v>28.17</v>
       </c>
       <c r="I159" s="66">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="J159" s="66">
         <v>24.00</v>
@@ -10649,16 +10649,16 @@
         </is>
       </c>
       <c r="F160" s="66">
-        <v>93.44</v>
+        <v>93.59</v>
       </c>
       <c t="n" r="G160">
-        <v>505.6</v>
+        <v>501.3</v>
       </c>
       <c r="H160" s="66">
-        <v>24.07</v>
-      </c>
-      <c t="n" r="I160">
-        <v>4.2</v>
+        <v>24.03</v>
+      </c>
+      <c r="I160" s="66">
+        <v>4.19</v>
       </c>
       <c r="J160" s="66">
         <v>22.49</v>
@@ -10717,13 +10717,13 @@
         </is>
       </c>
       <c r="F161" s="66">
-        <v>93.99</v>
+        <v>94.08</v>
       </c>
       <c t="n" r="G161">
-        <v>480.3</v>
-      </c>
-      <c t="n" r="H161">
-        <v>23.6</v>
+        <v>475.6</v>
+      </c>
+      <c r="H161" s="66">
+        <v>23.58</v>
       </c>
       <c r="I161" s="66">
         <v>2.59</v>
@@ -10784,11 +10784,11 @@
           <t xml:space="preserve">25'000</t>
         </is>
       </c>
-      <c r="F162" s="65">
-        <v>94</v>
+      <c t="n" r="F162">
+        <v>94.8</v>
       </c>
       <c r="H162" s="66">
-        <v>23.72</v>
+        <v>23.52</v>
       </c>
       <c r="I162" s="66">
         <v>2.59</v>
@@ -10849,21 +10849,21 @@
           <t xml:space="preserve">100'000</t>
         </is>
       </c>
-      <c r="F163" s="66">
-        <v>97.29</v>
-      </c>
-      <c r="H163" s="66">
-        <v>22.92</v>
+      <c t="n" r="F163">
+        <v>97.4</v>
+      </c>
+      <c t="n" r="H163">
+        <v>22.9</v>
       </c>
       <c r="I163" s="66">
-        <v>4.03</v>
+        <v>4.02</v>
       </c>
       <c r="J163" s="66">
         <v>22.30</v>
       </c>
       <c t="inlineStr" r="K163">
         <is>
-          <t xml:space="preserve">19-02-2025</t>
+          <t xml:space="preserve">21-03-2025</t>
         </is>
       </c>
       <c r="L163" s="65">
@@ -10913,13 +10913,13 @@
         <v>123</v>
       </c>
       <c r="F164" s="66">
-        <v>80.61</v>
-      </c>
-      <c r="H164" s="66">
-        <v>28.84</v>
+        <v>80.16</v>
+      </c>
+      <c r="H164" s="65">
+        <v>29</v>
       </c>
       <c r="I164" s="66">
-        <v>4.05</v>
+        <v>4.04</v>
       </c>
       <c r="J164" s="66">
         <v>23.25</v>
@@ -10977,11 +10977,11 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c r="F165" s="66">
-        <v>98.31</v>
+      <c t="n" r="F165">
+        <v>98.4</v>
       </c>
       <c r="H165" s="66">
-        <v>22.48</v>
+        <v>22.46</v>
       </c>
       <c r="I165" s="66">
         <v>1.55</v>
@@ -11047,14 +11047,14 @@
           <t xml:space="preserve">5'362</t>
         </is>
       </c>
-      <c t="n" r="F166">
-        <v>99.8</v>
-      </c>
-      <c r="H166" s="66">
-        <v>21.29</v>
+      <c r="F166" s="66">
+        <v>99.76</v>
+      </c>
+      <c t="n" r="H166">
+        <v>21.3</v>
       </c>
       <c r="I166" s="66">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="J166" s="66">
         <v>21.25</v>
@@ -11111,13 +11111,13 @@
         <v>425</v>
       </c>
       <c r="F167" s="66">
-        <v>93.82</v>
+        <v>94.14</v>
       </c>
       <c r="H167" s="66">
-        <v>27.71</v>
+        <v>27.62</v>
       </c>
       <c r="I167" s="66">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="J167" s="66">
         <v>26.00</v>
@@ -11176,16 +11176,16 @@
         </is>
       </c>
       <c r="F168" s="66">
-        <v>92.05</v>
+        <v>92.99</v>
       </c>
       <c t="n" r="G168">
-        <v>463.6</v>
+        <v>431.7</v>
       </c>
       <c r="H168" s="66">
-        <v>24.08</v>
-      </c>
-      <c r="I168" s="66">
-        <v>4.01</v>
+        <v>23.84</v>
+      </c>
+      <c r="I168" s="65">
+        <v>4</v>
       </c>
       <c r="J168" s="66">
         <v>22.17</v>
@@ -11244,10 +11244,10 @@
         </is>
       </c>
       <c r="F169" s="66">
-        <v>98.32</v>
+        <v>98.27</v>
       </c>
       <c r="H169" s="66">
-        <v>22.68</v>
+        <v>22.69</v>
       </c>
       <c r="I169" s="66">
         <v>1.98</v>
@@ -11308,17 +11308,17 @@
           <t xml:space="preserve">20'000</t>
         </is>
       </c>
-      <c t="n" r="F170">
-        <v>97.4</v>
-      </c>
-      <c r="G170" s="65">
-        <v>304</v>
+      <c r="F170" s="66">
+        <v>97.26</v>
+      </c>
+      <c t="n" r="G170">
+        <v>314.4</v>
       </c>
       <c r="H170" s="66">
-        <v>22.76</v>
+        <v>22.79</v>
       </c>
       <c r="I170" s="66">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="J170" s="66">
         <v>22.17</v>
@@ -11377,20 +11377,20 @@
         </is>
       </c>
       <c r="F171" s="66">
-        <v>89.23</v>
+        <v>89.11</v>
       </c>
       <c r="H171" s="66">
-        <v>26.11</v>
+        <v>26.15</v>
       </c>
       <c r="I171" s="66">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="J171" s="66">
         <v>23.30</v>
       </c>
       <c t="inlineStr" r="K171">
         <is>
-          <t xml:space="preserve">19-02-2025</t>
+          <t xml:space="preserve">21-05-2025</t>
         </is>
       </c>
       <c r="L171" s="65">
@@ -11447,19 +11447,19 @@
         </is>
       </c>
       <c r="F172" s="66">
-        <v>96.01</v>
+        <v>94.74</v>
       </c>
       <c t="n" r="G172">
-        <v>313.5</v>
+        <v>337.4</v>
       </c>
       <c r="H172" s="66">
-        <v>23.02</v>
+        <v>23.34</v>
       </c>
       <c r="I172" s="66">
-        <v>3.99</v>
+        <v>3.98</v>
       </c>
       <c r="J172" s="66">
-        <v>22.10</v>
+        <v>22.11</v>
       </c>
       <c t="inlineStr" r="K172">
         <is>
@@ -11512,14 +11512,14 @@
       <c r="E173" s="65">
         <v>500</v>
       </c>
-      <c r="F173" s="66">
-        <v>88.42</v>
+      <c r="F173" s="65">
+        <v>88</v>
       </c>
       <c r="H173" s="66">
-        <v>27.14</v>
+        <v>27.27</v>
       </c>
       <c r="I173" s="66">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J173" s="66">
         <v>24.00</v>
@@ -11583,16 +11583,16 @@
         </is>
       </c>
       <c r="F174" s="66">
-        <v>81.95</v>
+        <v>83.22</v>
       </c>
       <c t="n" r="G174">
-        <v>1285.6</v>
+        <v>1204.7</v>
       </c>
       <c r="H174" s="66">
-        <v>27.68</v>
+        <v>27.25</v>
       </c>
       <c r="I174" s="66">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="J174" s="66">
         <v>22.68</v>
@@ -11648,14 +11648,14 @@
       <c r="E175" s="65">
         <v>150</v>
       </c>
-      <c r="F175" s="66">
-        <v>92.55</v>
+      <c r="F175" s="65">
+        <v>93</v>
       </c>
       <c r="H175" s="66">
-        <v>23.77</v>
+        <v>23.66</v>
       </c>
       <c r="I175" s="66">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="J175" s="66">
         <v>22.00</v>
@@ -11714,19 +11714,19 @@
         </is>
       </c>
       <c r="F176" s="66">
-        <v>98.65</v>
-      </c>
-      <c t="n" r="G176">
-        <v>277.3</v>
-      </c>
-      <c t="n" r="H176">
-        <v>22.3</v>
+        <v>98.44</v>
+      </c>
+      <c r="G176" s="65">
+        <v>284</v>
+      </c>
+      <c r="H176" s="66">
+        <v>22.36</v>
       </c>
       <c r="I176" s="66">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J176" s="66">
-        <v>22.00</v>
+        <v>22.01</v>
       </c>
       <c t="inlineStr" r="K176">
         <is>
@@ -11779,14 +11779,14 @@
       <c r="E177" s="65">
         <v>400</v>
       </c>
-      <c r="F177" s="66">
-        <v>99.98</v>
+      <c t="n" r="F177">
+        <v>99.7</v>
       </c>
       <c r="H177" s="66">
-        <v>25.01</v>
-      </c>
-      <c r="I177" s="66">
-        <v>0.21</v>
+        <v>25.08</v>
+      </c>
+      <c t="n" r="I177">
+        <v>0.2</v>
       </c>
       <c r="J177" s="66">
         <v>25.00</v>
@@ -11848,13 +11848,13 @@
         <v>389</v>
       </c>
       <c r="F178" s="66">
-        <v>86.54</v>
+        <v>85.35</v>
       </c>
       <c r="H178" s="66">
-        <v>28.89</v>
+        <v>29.29</v>
       </c>
       <c r="I178" s="66">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="J178" s="66">
         <v>25.00</v>
@@ -11911,13 +11911,13 @@
         <v>200</v>
       </c>
       <c r="F179" s="66">
-        <v>79.94</v>
+        <v>79.93</v>
       </c>
       <c r="H179" s="66">
-        <v>30.02</v>
-      </c>
-      <c r="I179" s="66">
-        <v>3.91</v>
+        <v>30.03</v>
+      </c>
+      <c t="n" r="I179">
+        <v>3.9</v>
       </c>
       <c r="J179" s="66">
         <v>24.00</v>
@@ -11975,14 +11975,14 @@
           <t xml:space="preserve">7'000</t>
         </is>
       </c>
-      <c t="n" r="F180">
-        <v>93.5</v>
+      <c r="F180" s="66">
+        <v>93.73</v>
       </c>
       <c r="H180" s="66">
-        <v>25.13</v>
+        <v>25.07</v>
       </c>
       <c r="I180" s="66">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="J180" s="66">
         <v>23.50</v>
@@ -12041,10 +12041,10 @@
         </is>
       </c>
       <c r="F181" s="66">
-        <v>99.84</v>
+        <v>100.14</v>
       </c>
       <c r="H181" s="66">
-        <v>22.34</v>
+        <v>22.27</v>
       </c>
       <c r="I181" s="66">
         <v>1.81</v>
@@ -12054,7 +12054,7 @@
       </c>
       <c t="inlineStr" r="K181">
         <is>
-          <t xml:space="preserve">20-02-2025</t>
+          <t xml:space="preserve">22-03-2025</t>
         </is>
       </c>
       <c r="L181" s="65">
@@ -12106,13 +12106,13 @@
         </is>
       </c>
       <c r="F182" s="66">
-        <v>97.25</v>
+        <v>97.74</v>
       </c>
       <c t="n" r="G182">
-        <v>271.3</v>
+        <v>252.3</v>
       </c>
       <c r="H182" s="66">
-        <v>22.81</v>
+        <v>22.69</v>
       </c>
       <c r="I182" s="66">
         <v>2.84</v>
@@ -12174,16 +12174,16 @@
         </is>
       </c>
       <c r="F183" s="66">
-        <v>81.88</v>
-      </c>
-      <c t="n" r="G183">
-        <v>1327.2</v>
+        <v>83.44</v>
+      </c>
+      <c r="G183" s="65">
+        <v>1246</v>
       </c>
       <c r="H183" s="66">
-        <v>27.67</v>
+        <v>27.16</v>
       </c>
       <c r="I183" s="66">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="J183" s="66">
         <v>22.66</v>
@@ -12241,14 +12241,14 @@
           <t xml:space="preserve">4'000</t>
         </is>
       </c>
-      <c t="n" r="F184">
-        <v>97.4</v>
+      <c r="F184" s="66">
+        <v>96.99</v>
       </c>
       <c r="H184" s="66">
-        <v>24.13</v>
-      </c>
-      <c r="I184" s="66">
-        <v>1.81</v>
+        <v>24.23</v>
+      </c>
+      <c t="n" r="I184">
+        <v>1.8</v>
       </c>
       <c r="J184" s="66">
         <v>23.50</v>
@@ -12306,14 +12306,14 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c r="F185" s="66">
-        <v>104.86</v>
-      </c>
-      <c t="n" r="H185">
-        <v>20.5</v>
+      <c r="F185" s="65">
+        <v>103</v>
+      </c>
+      <c r="H185" s="66">
+        <v>20.87</v>
       </c>
       <c r="I185" s="66">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="J185" s="66">
         <v>21.50</v>
@@ -12381,7 +12381,7 @@
         <v>21.85</v>
       </c>
       <c r="I186" s="66">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="J186" s="66">
         <v>21.96</v>
@@ -12439,11 +12439,11 @@
           <t xml:space="preserve">12'697</t>
         </is>
       </c>
-      <c t="n" r="F187">
-        <v>95.1</v>
+      <c r="F187" s="66">
+        <v>95.58</v>
       </c>
       <c r="H187" s="66">
-        <v>22.08</v>
+        <v>21.97</v>
       </c>
       <c r="I187" s="66">
         <v>2.33</v>
@@ -12453,7 +12453,7 @@
       </c>
       <c t="inlineStr" r="K187">
         <is>
-          <t xml:space="preserve">20-02-2025</t>
+          <t xml:space="preserve">20-03-2025</t>
         </is>
       </c>
       <c r="L187" s="65">
@@ -12504,17 +12504,17 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c t="n" r="F188">
-        <v>92.8</v>
+      <c r="F188" s="65">
+        <v>91</v>
       </c>
       <c t="n" r="G188">
-        <v>420.5</v>
+        <v>502.5</v>
       </c>
       <c r="H188" s="66">
-        <v>24.26</v>
+        <v>24.74</v>
       </c>
       <c r="I188" s="66">
-        <v>3.82</v>
+        <v>3.81</v>
       </c>
       <c r="J188" s="66">
         <v>22.51</v>
@@ -12572,17 +12572,17 @@
           <t xml:space="preserve">40'000</t>
         </is>
       </c>
-      <c r="F189" s="66">
-        <v>96.22</v>
+      <c t="n" r="F189">
+        <v>95.9</v>
       </c>
       <c t="n" r="G189">
-        <v>320.3</v>
+        <v>334.5</v>
       </c>
       <c r="H189" s="66">
-        <v>22.99</v>
+        <v>23.07</v>
       </c>
       <c r="I189" s="66">
-        <v>2.82</v>
+        <v>2.81</v>
       </c>
       <c r="J189" s="66">
         <v>22.12</v>
@@ -12640,17 +12640,17 @@
           <t xml:space="preserve">3'000</t>
         </is>
       </c>
-      <c t="n" r="F190">
-        <v>93.1</v>
+      <c r="F190" s="66">
+        <v>93.45</v>
       </c>
       <c t="n" r="G190">
-        <v>796.7</v>
+        <v>777.8</v>
       </c>
       <c r="H190" s="66">
-        <v>24.94</v>
+        <v>24.85</v>
       </c>
       <c r="I190" s="66">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J190" s="66">
         <v>23.22</v>
@@ -12709,13 +12709,13 @@
         </is>
       </c>
       <c r="F191" s="66">
-        <v>95.74</v>
+        <v>94.88</v>
       </c>
       <c r="H191" s="66">
-        <v>24.35</v>
+        <v>24.57</v>
       </c>
       <c r="I191" s="66">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J191" s="66">
         <v>23.31</v>
@@ -12774,13 +12774,13 @@
         </is>
       </c>
       <c r="F192" s="66">
-        <v>97.91</v>
+        <v>97.94</v>
       </c>
       <c r="H192" s="66">
         <v>22.62</v>
       </c>
       <c r="I192" s="66">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="J192" s="66">
         <v>22.15</v>
@@ -12838,14 +12838,14 @@
           <t xml:space="preserve">8'000</t>
         </is>
       </c>
-      <c r="F193" s="65">
-        <v>99</v>
+      <c t="n" r="F193">
+        <v>99.7</v>
       </c>
       <c r="H193" s="66">
-        <v>22.37</v>
+        <v>22.22</v>
       </c>
       <c r="I193" s="66">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="J193" s="66">
         <v>22.15</v>
@@ -12904,13 +12904,13 @@
         </is>
       </c>
       <c r="F194" s="66">
-        <v>95.64</v>
+        <v>95.92</v>
       </c>
       <c r="H194" s="66">
-        <v>23.06</v>
-      </c>
-      <c r="I194" s="66">
-        <v>4.81</v>
+        <v>22.99</v>
+      </c>
+      <c t="n" r="I194">
+        <v>4.8</v>
       </c>
       <c r="J194" s="66">
         <v>22.05</v>
@@ -12966,14 +12966,14 @@
       <c r="E195" s="65">
         <v>150</v>
       </c>
-      <c t="n" r="F195">
-        <v>81.1</v>
-      </c>
-      <c r="H195" s="66">
-        <v>22.19</v>
+      <c r="F195" s="65">
+        <v>90</v>
+      </c>
+      <c r="H195" s="65">
+        <v>20</v>
       </c>
       <c r="I195" s="66">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
       <c r="J195" s="66">
         <v>18.00</v>
@@ -13036,20 +13036,20 @@
           <t xml:space="preserve">8'000</t>
         </is>
       </c>
-      <c t="n" r="F196">
-        <v>77.6</v>
+      <c r="F196" s="66">
+        <v>82.86</v>
       </c>
       <c t="n" r="G196">
-        <v>5294.8</v>
+        <v>4550.9</v>
       </c>
       <c r="H196" s="66">
-        <v>29.51</v>
+        <v>27.66</v>
       </c>
       <c r="I196" s="66">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="J196" s="66">
-        <v>22.90</v>
+        <v>22.92</v>
       </c>
       <c t="inlineStr" r="K196">
         <is>
@@ -13105,16 +13105,16 @@
         </is>
       </c>
       <c r="F197" s="66">
-        <v>88.52</v>
+        <v>89.43</v>
       </c>
       <c t="n" r="G197">
-        <v>1682.3</v>
+        <v>1489.9</v>
       </c>
       <c r="H197" s="66">
-        <v>27.84</v>
+        <v>27.55</v>
       </c>
       <c r="I197" s="66">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="J197" s="66">
         <v>24.64</v>
@@ -13172,11 +13172,11 @@
           <t xml:space="preserve">5'000</t>
         </is>
       </c>
-      <c t="n" r="F198">
-        <v>97.5</v>
+      <c r="F198" s="66">
+        <v>97.45</v>
       </c>
       <c r="H198" s="66">
-        <v>22.46</v>
+        <v>22.47</v>
       </c>
       <c r="I198" s="66">
         <v>2.24</v>
@@ -13238,10 +13238,10 @@
         </is>
       </c>
       <c r="F199" s="66">
-        <v>98.63</v>
-      </c>
-      <c r="H199" s="66">
-        <v>21.29</v>
+        <v>98.57</v>
+      </c>
+      <c t="n" r="H199">
+        <v>21.3</v>
       </c>
       <c r="I199" s="66">
         <v>1.78</v>
@@ -13303,16 +13303,16 @@
         </is>
       </c>
       <c r="F200" s="66">
-        <v>94.03</v>
+        <v>93.29</v>
       </c>
       <c t="n" r="G200">
-        <v>365.9</v>
+        <v>399.8</v>
       </c>
       <c r="H200" s="66">
-        <v>23.68</v>
+        <v>23.87</v>
       </c>
       <c r="I200" s="66">
-        <v>5.26</v>
+        <v>5.25</v>
       </c>
       <c r="J200" s="66">
         <v>22.27</v>
@@ -13370,14 +13370,14 @@
           <t xml:space="preserve">15'000</t>
         </is>
       </c>
-      <c r="F201" s="66">
-        <v>97.65</v>
+      <c t="n" r="F201">
+        <v>97.4</v>
       </c>
       <c r="H201" s="66">
-        <v>22.73</v>
+        <v>22.79</v>
       </c>
       <c r="I201" s="66">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="J201" s="66">
         <v>22.20</v>
@@ -13434,13 +13434,13 @@
         <v>225</v>
       </c>
       <c r="F202" s="66">
-        <v>93.29</v>
+        <v>91.89</v>
       </c>
       <c r="H202" s="66">
-        <v>25.73</v>
+        <v>26.12</v>
       </c>
       <c r="I202" s="66">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="J202" s="66">
         <v>24.00</v>
@@ -13499,23 +13499,23 @@
         </is>
       </c>
       <c r="F203" s="66">
-        <v>93.62</v>
+        <v>93.74</v>
       </c>
       <c t="n" r="G203">
-        <v>394.5</v>
+        <v>402.1</v>
       </c>
       <c r="H203" s="66">
-        <v>23.57</v>
+        <v>23.52</v>
       </c>
       <c r="I203" s="66">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="J203" s="66">
-        <v>22.07</v>
+        <v>22.05</v>
       </c>
       <c t="inlineStr" r="K203">
         <is>
-          <t xml:space="preserve">19-02-2025</t>
+          <t xml:space="preserve">21-05-2025</t>
         </is>
       </c>
       <c r="L203" s="65">
@@ -13567,13 +13567,13 @@
         </is>
       </c>
       <c r="F204" s="66">
-        <v>95.26</v>
+        <v>95.01</v>
       </c>
       <c r="H204" s="66">
-        <v>24.14</v>
+        <v>24.21</v>
       </c>
       <c r="I204" s="66">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="J204" s="66">
         <v>23.00</v>
@@ -13637,19 +13637,19 @@
         </is>
       </c>
       <c r="F205" s="66">
-        <v>96.76</v>
-      </c>
-      <c r="G205" s="65">
-        <v>282</v>
+        <v>96.69</v>
+      </c>
+      <c t="n" r="G205">
+        <v>295.5</v>
       </c>
       <c r="H205" s="66">
-        <v>22.79</v>
+        <v>22.82</v>
       </c>
       <c t="n" r="I205">
         <v>2.7</v>
       </c>
       <c r="J205" s="66">
-        <v>22.05</v>
+        <v>22.06</v>
       </c>
       <c t="inlineStr" r="K205">
         <is>
@@ -13704,14 +13704,14 @@
           <t xml:space="preserve">20'000</t>
         </is>
       </c>
-      <c r="F206" s="66">
-        <v>98.96</v>
+      <c t="n" r="F206">
+        <v>98.2</v>
       </c>
       <c r="H206" s="66">
-        <v>22.33</v>
+        <v>22.51</v>
       </c>
       <c r="I206" s="66">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="J206" s="66">
         <v>22.10</v>
@@ -13769,20 +13769,20 @@
           <t xml:space="preserve">11'000</t>
         </is>
       </c>
-      <c r="F207" s="66">
-        <v>90.71</v>
+      <c t="n" r="F207">
+        <v>90.8</v>
       </c>
       <c t="n" r="G207">
-        <v>788.1</v>
+        <v>781.7</v>
       </c>
       <c r="H207" s="66">
-        <v>25.36</v>
+        <v>25.34</v>
       </c>
       <c r="I207" s="66">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="J207" s="66">
-        <v>23.00</v>
+        <v>23.01</v>
       </c>
       <c t="inlineStr" r="K207">
         <is>
@@ -13843,13 +13843,13 @@
         </is>
       </c>
       <c r="F208" s="66">
-        <v>93.98</v>
+        <v>93.83</v>
       </c>
       <c t="n" r="G208">
-        <v>453.7</v>
+        <v>463.9</v>
       </c>
       <c r="H208" s="66">
-        <v>23.41</v>
+        <v>23.45</v>
       </c>
       <c r="I208" s="66">
         <v>2.68</v>
@@ -13909,13 +13909,13 @@
         <v>200</v>
       </c>
       <c r="F209" s="66">
-        <v>82.35</v>
+        <v>82.57</v>
       </c>
       <c r="H209" s="66">
-        <v>26.72</v>
+        <v>26.64</v>
       </c>
       <c r="I209" s="66">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="J209" s="66">
         <v>22.00</v>
@@ -13979,16 +13979,16 @@
         </is>
       </c>
       <c r="F210" s="66">
-        <v>92.59</v>
-      </c>
-      <c r="G210" s="65">
-        <v>874</v>
+        <v>93.11</v>
+      </c>
+      <c t="n" r="G210">
+        <v>836.1</v>
       </c>
       <c r="H210" s="66">
-        <v>24.82</v>
+        <v>24.68</v>
       </c>
       <c r="I210" s="66">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="J210" s="66">
         <v>22.98</v>
@@ -14047,13 +14047,13 @@
         </is>
       </c>
       <c r="F211" s="66">
-        <v>96.09</v>
-      </c>
-      <c t="n" r="H211">
-        <v>23.1</v>
+        <v>95.87</v>
+      </c>
+      <c r="H211" s="66">
+        <v>23.16</v>
       </c>
       <c r="I211" s="66">
-        <v>3.63</v>
+        <v>3.62</v>
       </c>
       <c r="J211" s="66">
         <v>22.20</v>
@@ -14112,16 +14112,16 @@
         </is>
       </c>
       <c r="F212" s="66">
-        <v>95.15</v>
+        <v>95.53</v>
       </c>
       <c t="n" r="G212">
-        <v>350.9</v>
+        <v>330.9</v>
       </c>
       <c r="H212" s="66">
-        <v>23.11</v>
+        <v>23.02</v>
       </c>
       <c r="I212" s="66">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="J212" s="66">
         <v>21.99</v>
@@ -14180,16 +14180,16 @@
         </is>
       </c>
       <c r="F213" s="66">
-        <v>94.37</v>
+        <v>94.16</v>
       </c>
       <c t="n" r="G213">
-        <v>385.9</v>
-      </c>
-      <c t="n" r="H213">
-        <v>23.3</v>
+        <v>403.3</v>
+      </c>
+      <c r="H213" s="66">
+        <v>23.35</v>
       </c>
       <c r="I213" s="66">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="J213" s="66">
         <v>21.99</v>
@@ -14247,17 +14247,17 @@
           <t xml:space="preserve">45'000</t>
         </is>
       </c>
-      <c r="F214" s="66">
-        <v>96.06</v>
+      <c t="n" r="F214">
+        <v>95.2</v>
       </c>
       <c t="n" r="G214">
-        <v>282.6</v>
+        <v>309.7</v>
       </c>
       <c r="H214" s="66">
-        <v>22.83</v>
+        <v>23.04</v>
       </c>
       <c r="I214" s="66">
-        <v>5.59</v>
+        <v>5.58</v>
       </c>
       <c r="J214" s="66">
         <v>21.93</v>
@@ -14320,7 +14320,7 @@
         <v>27.5</v>
       </c>
       <c r="I215" s="66">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="J215" s="66">
         <v>27.50</v>
@@ -14383,17 +14383,17 @@
           <t xml:space="preserve">655'460</t>
         </is>
       </c>
-      <c r="F216" s="66">
-        <v>93.31</v>
+      <c t="n" r="F216">
+        <v>94.2</v>
       </c>
       <c t="n" r="G216">
-        <v>110.3</v>
-      </c>
-      <c r="H216" s="66">
-        <v>22.31</v>
+        <v>97.7</v>
+      </c>
+      <c t="n" r="H216">
+        <v>22.1</v>
       </c>
       <c r="I216" s="66">
-        <v>12.49</v>
+        <v>12.48</v>
       </c>
       <c r="J216" s="66">
         <v>20.82</v>
@@ -14451,17 +14451,17 @@
           <t xml:space="preserve">15'000</t>
         </is>
       </c>
-      <c t="n" r="F217">
-        <v>82.6</v>
+      <c r="F217" s="66">
+        <v>83.94</v>
       </c>
       <c t="n" r="G217">
-        <v>1350.9</v>
+        <v>1264.3</v>
       </c>
       <c r="H217" s="66">
-        <v>27.38</v>
-      </c>
-      <c r="I217" s="66">
-        <v>2.61</v>
+        <v>26.95</v>
+      </c>
+      <c t="n" r="I217">
+        <v>2.6</v>
       </c>
       <c r="J217" s="66">
         <v>22.62</v>
@@ -14522,9 +14522,6 @@
       <c r="F218" s="66">
         <v>99.86</v>
       </c>
-      <c t="n" r="G218">
-        <v>239.5</v>
-      </c>
       <c r="H218" s="66">
         <v>22.46</v>
       </c>
@@ -14592,7 +14589,7 @@
         <v>22.04</v>
       </c>
       <c r="I219" s="66">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="J219" s="66">
         <v>22.00</v>
@@ -14650,24 +14647,24 @@
           <t xml:space="preserve">30'000</t>
         </is>
       </c>
-      <c t="n" r="F220">
-        <v>100.1</v>
+      <c r="F220" s="66">
+        <v>100.14</v>
       </c>
       <c t="n" r="G220">
-        <v>153.1</v>
+        <v>156.8</v>
       </c>
       <c r="H220" s="66">
-        <v>22.05</v>
+        <v>21.93</v>
       </c>
       <c r="I220" s="66">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="J220" s="66">
-        <v>22.07</v>
+        <v>21.96</v>
       </c>
       <c t="inlineStr" r="K220">
         <is>
-          <t xml:space="preserve">21-02-2025</t>
+          <t xml:space="preserve">24-03-2025</t>
         </is>
       </c>
       <c r="L220" s="65">
@@ -14719,7 +14716,7 @@
         </is>
       </c>
       <c r="F221" s="66">
-        <v>98.28</v>
+        <v>98.25</v>
       </c>
       <c r="H221" s="66">
         <v>21.37</v>
@@ -14783,17 +14780,17 @@
           <t xml:space="preserve">30'000</t>
         </is>
       </c>
-      <c r="F222" s="66">
-        <v>97.64</v>
+      <c t="n" r="F222">
+        <v>98.3</v>
       </c>
       <c t="n" r="G222">
-        <v>176.3</v>
-      </c>
-      <c r="H222" s="66">
-        <v>22.65</v>
+        <v>207.6</v>
+      </c>
+      <c t="n" r="H222">
+        <v>22.5</v>
       </c>
       <c r="I222" s="66">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="J222" s="66">
         <v>22.12</v>
@@ -14852,16 +14849,16 @@
         </is>
       </c>
       <c r="F223" s="66">
-        <v>94.43</v>
+        <v>94.19</v>
       </c>
       <c t="n" r="G223">
-        <v>335.1</v>
+        <v>339.9</v>
       </c>
       <c r="H223" s="66">
-        <v>23.98</v>
+        <v>24.04</v>
       </c>
       <c r="I223" s="66">
-        <v>7.52</v>
+        <v>7.51</v>
       </c>
       <c r="J223" s="66">
         <v>22.64</v>
@@ -14919,17 +14916,17 @@
           <t xml:space="preserve">30'000</t>
         </is>
       </c>
-      <c r="F224" s="66">
-        <v>97.55</v>
-      </c>
-      <c r="G224" s="65">
-        <v>295</v>
+      <c t="n" r="F224">
+        <v>96.2</v>
+      </c>
+      <c t="n" r="G224">
+        <v>349.7</v>
       </c>
       <c r="H224" s="66">
-        <v>22.53</v>
+        <v>22.85</v>
       </c>
       <c r="I224" s="66">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="J224" s="66">
         <v>21.98</v>
@@ -14988,13 +14985,13 @@
         </is>
       </c>
       <c r="F225" s="66">
-        <v>94.54</v>
+        <v>93.56</v>
       </c>
       <c t="n" r="G225">
-        <v>435.8</v>
-      </c>
-      <c t="n" r="H225">
-        <v>24.1</v>
+        <v>442.6</v>
+      </c>
+      <c r="H225" s="66">
+        <v>24.35</v>
       </c>
       <c r="I225" s="66">
         <v>3.38</v>
@@ -15056,10 +15053,10 @@
         </is>
       </c>
       <c r="F226" s="65">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H226" s="66">
-        <v>24.23</v>
+        <v>24.74</v>
       </c>
       <c r="I226" s="66">
         <v>1.38</v>
@@ -15132,7 +15129,7 @@
         <v>23.23</v>
       </c>
       <c r="I227" s="66">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="J227" s="66">
         <v>23.00</v>
@@ -15196,23 +15193,23 @@
         </is>
       </c>
       <c r="F228" s="66">
-        <v>97.84</v>
+        <v>97.79</v>
       </c>
       <c t="n" r="G228">
-        <v>214.9</v>
-      </c>
-      <c r="H228" s="66">
-        <v>22.61</v>
+        <v>217.6</v>
+      </c>
+      <c t="n" r="H228">
+        <v>22.6</v>
       </c>
       <c r="I228" s="66">
         <v>3.24</v>
       </c>
       <c r="J228" s="66">
-        <v>22.12</v>
+        <v>22.10</v>
       </c>
       <c t="inlineStr" r="K228">
         <is>
-          <t xml:space="preserve">19-02-2025</t>
+          <t xml:space="preserve">21-05-2025</t>
         </is>
       </c>
       <c r="L228" s="65">
@@ -15264,16 +15261,16 @@
         </is>
       </c>
       <c r="F229" s="66">
-        <v>99.12</v>
+        <v>99.37</v>
       </c>
       <c t="n" r="G229">
-        <v>290.5</v>
-      </c>
-      <c r="H229" s="66">
-        <v>22.36</v>
+        <v>270.6</v>
+      </c>
+      <c t="n" r="H229">
+        <v>22.3</v>
       </c>
       <c r="I229" s="66">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="J229" s="66">
         <v>22.16</v>
@@ -15332,13 +15329,13 @@
         </is>
       </c>
       <c r="F230" s="66">
-        <v>88.25</v>
-      </c>
-      <c r="H230" s="66">
-        <v>22.66</v>
-      </c>
-      <c r="I230" s="66">
-        <v>2.21</v>
+        <v>88.49</v>
+      </c>
+      <c t="n" r="H230">
+        <v>22.6</v>
+      </c>
+      <c t="n" r="I230">
+        <v>2.2</v>
       </c>
       <c r="J230" s="66">
         <v>20.00</v>
@@ -15396,20 +15393,20 @@
           <t xml:space="preserve">743'804</t>
         </is>
       </c>
-      <c t="n" r="F231">
-        <v>93.6</v>
+      <c r="F231" s="65">
+        <v>94</v>
       </c>
       <c t="n" r="G231">
-        <v>115.4</v>
+        <v>117.3</v>
       </c>
       <c r="H231" s="66">
-        <v>22.17</v>
+        <v>22.09</v>
       </c>
       <c r="I231" s="66">
-        <v>10.17</v>
+        <v>10.16</v>
       </c>
       <c r="J231" s="66">
-        <v>20.75</v>
+        <v>20.76</v>
       </c>
       <c t="inlineStr" r="K231">
         <is>
@@ -15465,16 +15462,16 @@
         </is>
       </c>
       <c r="F232" s="66">
-        <v>96.42</v>
+        <v>96.13</v>
       </c>
       <c t="n" r="G232">
-        <v>346.8</v>
-      </c>
-      <c r="H232" s="66">
-        <v>23.63</v>
+        <v>323.7</v>
+      </c>
+      <c t="n" r="H232">
+        <v>23.7</v>
       </c>
       <c r="I232" s="66">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="J232" s="66">
         <v>22.78</v>
@@ -15533,10 +15530,10 @@
         </is>
       </c>
       <c r="F233" s="66">
-        <v>96.22</v>
+        <v>95.85</v>
       </c>
       <c r="H233" s="66">
-        <v>23.18</v>
+        <v>23.27</v>
       </c>
       <c r="I233" s="66">
         <v>3.15</v>
@@ -15597,17 +15594,17 @@
           <t xml:space="preserve">40'000</t>
         </is>
       </c>
-      <c t="n" r="F234">
-        <v>95.5</v>
-      </c>
-      <c r="G234" s="65">
-        <v>338</v>
+      <c r="F234" s="66">
+        <v>95.15</v>
+      </c>
+      <c t="n" r="G234">
+        <v>356.6</v>
       </c>
       <c r="H234" s="66">
-        <v>23.08</v>
+        <v>23.16</v>
       </c>
       <c r="I234" s="66">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="J234" s="66">
         <v>22.04</v>
@@ -15666,13 +15663,13 @@
         </is>
       </c>
       <c r="F235" s="66">
-        <v>95.52</v>
+        <v>95.47</v>
       </c>
       <c r="H235" s="66">
-        <v>25.49</v>
+        <v>25.51</v>
       </c>
       <c r="I235" s="66">
-        <v>7.84</v>
+        <v>7.83</v>
       </c>
       <c r="J235" s="66">
         <v>24.35</v>
@@ -15730,11 +15727,11 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c r="F236" s="65">
-        <v>98</v>
+      <c t="n" r="F236">
+        <v>97.7</v>
       </c>
       <c r="H236" s="66">
-        <v>22.76</v>
+        <v>22.82</v>
       </c>
       <c r="I236" s="66">
         <v>3.08</v>
@@ -15799,7 +15796,7 @@
         <v>93.62</v>
       </c>
       <c t="n" r="G237">
-        <v>378.9</v>
+        <v>379.8</v>
       </c>
       <c r="H237" s="66">
         <v>23.97</v>
@@ -15863,21 +15860,21 @@
           <t xml:space="preserve">7'000</t>
         </is>
       </c>
-      <c r="F238" s="65">
-        <v>99</v>
+      <c r="F238" s="66">
+        <v>98.54</v>
       </c>
       <c r="H238" s="66">
-        <v>19.49</v>
-      </c>
-      <c r="I238" s="65">
-        <v>0</v>
+        <v>22.63</v>
+      </c>
+      <c r="I238" s="66">
+        <v>1.99</v>
       </c>
       <c r="J238" s="66">
-        <v>19.30</v>
+        <v>22.30</v>
       </c>
       <c t="inlineStr" r="K238">
         <is>
-          <t xml:space="preserve">19-02-2025</t>
+          <t xml:space="preserve">20-08-2025</t>
         </is>
       </c>
       <c r="L238" s="65">
@@ -15891,11 +15888,6 @@
       <c t="n" r="N238">
         <v>1.3</v>
       </c>
-      <c t="inlineStr" r="O238">
-        <is>
-          <t xml:space="preserve">К: 19-02-2025</t>
-        </is>
-      </c>
       <c t="inlineStr" r="P238">
         <is>
           <t xml:space="preserve">17-02-2027</t>
@@ -15934,13 +15926,13 @@
         </is>
       </c>
       <c r="F239" s="66">
-        <v>99.95</v>
+        <v>99.76</v>
       </c>
       <c r="H239" s="66">
-        <v>22.31</v>
+        <v>22.35</v>
       </c>
       <c r="I239" s="66">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="J239" s="66">
         <v>22.30</v>
@@ -16004,16 +15996,16 @@
         </is>
       </c>
       <c r="F240" s="66">
-        <v>99.95</v>
+        <v>99.94</v>
       </c>
       <c t="n" r="G240">
-        <v>113.7</v>
+        <v>120.3</v>
       </c>
       <c r="H240" s="66">
         <v>22.08</v>
       </c>
       <c r="I240" s="66">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="J240" s="66">
         <v>22.07</v>
@@ -16072,16 +16064,16 @@
         </is>
       </c>
       <c r="F241" s="66">
-        <v>97.37</v>
+        <v>97.24</v>
       </c>
       <c t="n" r="G241">
-        <v>31.5</v>
-      </c>
-      <c t="n" r="H241">
-        <v>21.4</v>
+        <v>36.8</v>
+      </c>
+      <c r="H241" s="66">
+        <v>21.43</v>
       </c>
       <c r="I241" s="66">
-        <v>9.52</v>
+        <v>9.51</v>
       </c>
       <c r="J241" s="66">
         <v>20.84</v>
@@ -16140,16 +16132,16 @@
         </is>
       </c>
       <c r="F242" s="66">
-        <v>98.53</v>
+        <v>98.98</v>
       </c>
       <c r="H242" s="66">
-        <v>24.06</v>
+        <v>23.96</v>
       </c>
       <c r="I242" s="66">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="J242" s="66">
-        <v>23.71</v>
+        <v>23.72</v>
       </c>
       <c t="inlineStr" r="K242">
         <is>
@@ -16210,19 +16202,19 @@
         </is>
       </c>
       <c r="F243" s="66">
-        <v>97.67</v>
-      </c>
-      <c t="n" r="G243">
-        <v>27.3</v>
+        <v>97.57</v>
+      </c>
+      <c r="G243" s="65">
+        <v>30</v>
       </c>
       <c r="H243" s="66">
-        <v>21.25</v>
+        <v>21.28</v>
       </c>
       <c r="I243" s="66">
-        <v>8.42</v>
+        <v>8.41</v>
       </c>
       <c r="J243" s="66">
-        <v>20.75</v>
+        <v>20.76</v>
       </c>
       <c t="inlineStr" r="K243">
         <is>
@@ -16277,17 +16269,17 @@
           <t xml:space="preserve">500'000</t>
         </is>
       </c>
-      <c t="n" r="F244">
-        <v>96.6</v>
+      <c r="F244" s="65">
+        <v>97</v>
       </c>
       <c t="n" r="G244">
-        <v>71.9</v>
+        <v>64.9</v>
       </c>
       <c r="H244" s="66">
-        <v>21.57</v>
+        <v>21.48</v>
       </c>
       <c r="I244" s="66">
-        <v>5.78</v>
+        <v>5.77</v>
       </c>
       <c r="J244" s="66">
         <v>20.84</v>
@@ -16346,13 +16338,13 @@
         </is>
       </c>
       <c r="F245" s="66">
-        <v>100.17</v>
-      </c>
-      <c r="H245" s="66">
-        <v>22.16</v>
-      </c>
-      <c r="I245" s="66">
-        <v>0.41</v>
+        <v>100.01</v>
+      </c>
+      <c t="n" r="H245">
+        <v>22.2</v>
+      </c>
+      <c t="n" r="I245">
+        <v>0.4</v>
       </c>
       <c r="J245" s="66">
         <v>22.20</v>
@@ -16409,13 +16401,13 @@
         <v>150</v>
       </c>
       <c r="F246" s="66">
-        <v>108.81</v>
+        <v>106.69</v>
       </c>
       <c r="H246" s="66">
-        <v>27.57</v>
+        <v>28.12</v>
       </c>
       <c r="I246" s="66">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J246" s="66">
         <v>30.00</v>
@@ -16474,10 +16466,10 @@
         </is>
       </c>
       <c r="F247" s="66">
-        <v>100.64</v>
+        <v>98.98</v>
       </c>
       <c r="H247" s="66">
-        <v>24.15</v>
+        <v>24.55</v>
       </c>
       <c r="I247" s="66">
         <v>1.28</v>
@@ -16536,14 +16528,14 @@
       <c r="E248" s="65">
         <v>150</v>
       </c>
-      <c r="F248" s="66">
-        <v>100.05</v>
+      <c t="n" r="F248">
+        <v>99.7</v>
       </c>
       <c r="H248" s="66">
-        <v>24.99</v>
+        <v>25.08</v>
       </c>
       <c r="I248" s="66">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="J248" s="66">
         <v>25.00</v>
@@ -16600,10 +16592,10 @@
         <v>132</v>
       </c>
       <c r="F249" s="66">
-        <v>100.44</v>
+        <v>100.05</v>
       </c>
       <c r="H249" s="66">
-        <v>25.89</v>
+        <v>25.99</v>
       </c>
       <c r="I249" s="66">
         <v>0.16</v>
@@ -16665,20 +16657,20 @@
         </is>
       </c>
       <c r="F250" s="66">
-        <v>100.01</v>
+        <v>99.74</v>
       </c>
       <c r="H250" s="66">
-        <v>22.95</v>
+        <v>23.01</v>
       </c>
       <c r="I250" s="66">
-        <v>0.01</v>
+        <v>0.99</v>
       </c>
       <c r="J250" s="66">
         <v>22.95</v>
       </c>
       <c t="inlineStr" r="K250">
         <is>
-          <t xml:space="preserve">20-02-2025</t>
+          <t xml:space="preserve">21-08-2025</t>
         </is>
       </c>
       <c r="L250" s="65">
@@ -16692,11 +16684,6 @@
       <c r="N250" s="66">
         <v>1.95</v>
       </c>
-      <c t="inlineStr" r="O250">
-        <is>
-          <t xml:space="preserve">П: 20-02-2025</t>
-        </is>
-      </c>
       <c t="inlineStr" r="P250">
         <is>
           <t xml:space="preserve">19-02-2026</t>
@@ -16741,7 +16728,7 @@
         <v>32.57</v>
       </c>
       <c r="I251" s="66">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="J251" s="66">
         <v>24.75</v>
@@ -16798,13 +16785,13 @@
         <v>124</v>
       </c>
       <c r="F252" s="66">
-        <v>88.65</v>
+        <v>90.12</v>
       </c>
       <c r="H252" s="66">
-        <v>17.77</v>
+        <v>17.48</v>
       </c>
       <c r="I252" s="66">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="J252" s="66">
         <v>15.75</v>
@@ -16866,10 +16853,10 @@
         <v>350</v>
       </c>
       <c r="F253" s="66">
-        <v>100.52</v>
+        <v>100.17</v>
       </c>
       <c r="H253" s="66">
-        <v>27.36</v>
+        <v>27.45</v>
       </c>
       <c r="I253" s="66">
         <v>0.02</v>
@@ -16936,16 +16923,16 @@
         </is>
       </c>
       <c r="F254" s="66">
-        <v>97.63</v>
+        <v>97.17</v>
       </c>
       <c t="n" r="G254">
-        <v>487.9</v>
+        <v>610.2</v>
       </c>
       <c r="H254" s="66">
-        <v>23.57</v>
-      </c>
-      <c r="I254" s="66">
-        <v>0.81</v>
+        <v>23.68</v>
+      </c>
+      <c t="n" r="I254">
+        <v>0.8</v>
       </c>
       <c r="J254" s="66">
         <v>23.01</v>
@@ -17004,16 +16991,16 @@
         </is>
       </c>
       <c r="F255" s="66">
-        <v>96.85</v>
+        <v>97.03</v>
       </c>
       <c t="n" r="G255">
-        <v>293.9</v>
+        <v>271.6</v>
       </c>
       <c r="H255" s="66">
-        <v>23.06</v>
+        <v>23.01</v>
       </c>
       <c r="I255" s="66">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="J255" s="66">
         <v>22.33</v>
@@ -17065,13 +17052,13 @@
         <v>200</v>
       </c>
       <c r="F256" s="66">
-        <v>80.62</v>
-      </c>
-      <c r="H256" s="66">
-        <v>16.13</v>
+        <v>81.25</v>
+      </c>
+      <c r="H256" s="65">
+        <v>16</v>
       </c>
       <c r="I256" s="66">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="J256" s="66">
         <v>13.00</v>
@@ -17129,14 +17116,14 @@
           <t xml:space="preserve">29'000</t>
         </is>
       </c>
-      <c r="F257" s="65">
-        <v>74</v>
+      <c t="n" r="F257">
+        <v>74.5</v>
       </c>
       <c r="H257" s="66">
-        <v>30.74</v>
-      </c>
-      <c r="I257" s="66">
-        <v>2.11</v>
+        <v>30.54</v>
+      </c>
+      <c t="n" r="I257">
+        <v>2.1</v>
       </c>
       <c r="J257" s="66">
         <v>22.75</v>
@@ -17195,10 +17182,10 @@
         </is>
       </c>
       <c r="F258" s="66">
-        <v>93.34</v>
+        <v>93.76</v>
       </c>
       <c r="H258" s="66">
-        <v>25.18</v>
+        <v>25.06</v>
       </c>
       <c r="I258" s="66">
         <v>1.01</v>
@@ -17264,14 +17251,14 @@
           <t xml:space="preserve">7'000</t>
         </is>
       </c>
-      <c r="F259" s="65">
-        <v>90</v>
+      <c r="F259" s="66">
+        <v>88.83</v>
       </c>
       <c r="H259" s="66">
-        <v>25.72</v>
+        <v>26.06</v>
       </c>
       <c r="I259" s="66">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="J259" s="66">
         <v>23.15</v>
@@ -17341,7 +17328,7 @@
         <v>33</v>
       </c>
       <c r="I260" s="66">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="J260" s="66">
         <v>24.75</v>
@@ -17399,11 +17386,11 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c r="F261" s="66">
-        <v>93.21</v>
+      <c r="F261" s="65">
+        <v>92</v>
       </c>
       <c r="H261" s="66">
-        <v>24.78</v>
+        <v>25.11</v>
       </c>
       <c r="I261" s="66">
         <v>3.56</v>
@@ -17469,17 +17456,17 @@
           <t xml:space="preserve">294'545</t>
         </is>
       </c>
-      <c t="n" r="F262">
-        <v>98.7</v>
+      <c r="F262" s="66">
+        <v>98.66</v>
       </c>
       <c t="n" r="G262">
-        <v>24.7</v>
+        <v>32.6</v>
       </c>
       <c r="H262" s="66">
-        <v>21.01</v>
+        <v>21.02</v>
       </c>
       <c r="I262" s="66">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="J262" s="66">
         <v>20.74</v>
@@ -17538,16 +17525,16 @@
         </is>
       </c>
       <c r="F263" s="66">
-        <v>97.49</v>
+        <v>97.61</v>
       </c>
       <c t="n" r="G263">
-        <v>38.4</v>
+        <v>41.9</v>
       </c>
       <c r="H263" s="66">
-        <v>21.38</v>
+        <v>21.35</v>
       </c>
       <c r="I263" s="66">
-        <v>6.77</v>
+        <v>6.76</v>
       </c>
       <c r="J263" s="66">
         <v>20.84</v>
@@ -17605,20 +17592,20 @@
           <t xml:space="preserve">430'195</t>
         </is>
       </c>
-      <c t="n" r="F264">
-        <v>98.2</v>
-      </c>
-      <c t="n" r="G264">
-        <v>31.3</v>
+      <c r="F264" s="66">
+        <v>98.12</v>
+      </c>
+      <c r="G264" s="65">
+        <v>34</v>
       </c>
       <c r="H264" s="66">
-        <v>21.14</v>
+        <v>21.17</v>
       </c>
       <c r="I264" s="66">
         <v>4.41</v>
       </c>
       <c r="J264" s="66">
-        <v>20.76</v>
+        <v>20.77</v>
       </c>
       <c t="inlineStr" r="K264">
         <is>
@@ -17674,16 +17661,16 @@
         </is>
       </c>
       <c r="F265" s="66">
-        <v>97.38</v>
+        <v>97.23</v>
       </c>
       <c t="n" r="G265">
-        <v>38.1</v>
-      </c>
-      <c t="n" r="H265">
-        <v>21.4</v>
+        <v>42.2</v>
+      </c>
+      <c r="H265" s="66">
+        <v>21.43</v>
       </c>
       <c r="I265" s="66">
-        <v>7.52</v>
+        <v>7.51</v>
       </c>
       <c r="J265" s="66">
         <v>20.84</v>
@@ -17742,19 +17729,19 @@
         </is>
       </c>
       <c r="F266" s="66">
-        <v>98.56</v>
-      </c>
-      <c t="n" r="G266">
-        <v>23.5</v>
+        <v>98.54</v>
+      </c>
+      <c r="G266" s="65">
+        <v>26</v>
       </c>
       <c r="H266" s="66">
-        <v>21.06</v>
+        <v>21.08</v>
       </c>
       <c r="I266" s="66">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="J266" s="66">
-        <v>20.76</v>
+        <v>20.77</v>
       </c>
       <c t="inlineStr" r="K266">
         <is>
@@ -17813,7 +17800,7 @@
         <v>99.2</v>
       </c>
       <c t="n" r="G267">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="H267" s="66">
         <v>20.91</v>
@@ -17878,13 +17865,13 @@
         </is>
       </c>
       <c r="F268" s="66">
-        <v>91.89</v>
+        <v>92.95</v>
       </c>
       <c r="H268" s="66">
-        <v>25.85</v>
+        <v>25.55</v>
       </c>
       <c r="I268" s="66">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="J268" s="66">
         <v>23.75</v>
@@ -17947,17 +17934,17 @@
           <t xml:space="preserve">450'000</t>
         </is>
       </c>
-      <c t="n" r="F269">
-        <v>99.9</v>
+      <c r="F269" s="66">
+        <v>99.79</v>
       </c>
       <c t="n" r="G269">
-        <v>-44.1</v>
+        <v>-32.8</v>
       </c>
       <c r="H269" s="66">
-        <v>20.76</v>
-      </c>
-      <c t="n" r="I269">
-        <v>1.1</v>
+        <v>20.78</v>
+      </c>
+      <c r="I269" s="66">
+        <v>1.09</v>
       </c>
       <c r="J269" s="66">
         <v>20.74</v>
@@ -18016,13 +18003,13 @@
         </is>
       </c>
       <c r="F270" s="66">
-        <v>96.56</v>
+        <v>97.02</v>
       </c>
       <c t="n" r="G270">
-        <v>76.2</v>
+        <v>71.6</v>
       </c>
       <c r="H270" s="66">
-        <v>21.48</v>
+        <v>21.38</v>
       </c>
       <c r="I270" s="66">
         <v>5.58</v>
@@ -18085,7 +18072,7 @@
         <v>23.45</v>
       </c>
       <c r="I271" s="66">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="J271" s="66">
         <v>23.45</v>
@@ -18142,13 +18129,13 @@
         <v>400</v>
       </c>
       <c r="F272" s="66">
-        <v>101.85</v>
+        <v>101.67</v>
       </c>
       <c r="H272" s="66">
-        <v>26.51</v>
+        <v>26.56</v>
       </c>
       <c r="I272" s="66">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="J272" s="66">
         <v>27.00</v>
@@ -18206,14 +18193,14 @@
           <t xml:space="preserve">20'000</t>
         </is>
       </c>
-      <c r="F273" s="66">
-        <v>99.79</v>
+      <c t="n" r="F273">
+        <v>99.8</v>
       </c>
       <c r="H273" s="66">
         <v>20.24</v>
       </c>
       <c r="I273" s="66">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="J273" s="66">
         <v>20.20</v>
@@ -18270,13 +18257,13 @@
         <v>220</v>
       </c>
       <c r="F274" s="66">
-        <v>94.02</v>
+        <v>96.35</v>
       </c>
       <c r="H274" s="66">
-        <v>27.65</v>
+        <v>26.98</v>
       </c>
       <c r="I274" s="66">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="J274" s="66">
         <v>26.00</v>
@@ -18338,13 +18325,13 @@
         <v>300</v>
       </c>
       <c r="F275" s="66">
-        <v>101.32</v>
+        <v>101.19</v>
       </c>
       <c r="H275" s="66">
-        <v>26.89</v>
+        <v>26.93</v>
       </c>
       <c r="I275" s="66">
-        <v>3.93</v>
+        <v>3.92</v>
       </c>
       <c r="J275" s="66">
         <v>27.25</v>
@@ -18403,10 +18390,10 @@
         </is>
       </c>
       <c r="F276" s="66">
-        <v>92.92</v>
+        <v>91.97</v>
       </c>
       <c r="H276" s="66">
-        <v>25.29</v>
+        <v>25.55</v>
       </c>
       <c r="I276" s="66">
         <v>3.59</v>
@@ -18472,14 +18459,14 @@
           <t xml:space="preserve">7'000</t>
         </is>
       </c>
-      <c r="F277" s="66">
-        <v>97.66</v>
+      <c t="n" r="F277">
+        <v>100.4</v>
       </c>
       <c r="H277" s="66">
-        <v>19.97</v>
-      </c>
-      <c t="n" r="I277">
-        <v>3.1</v>
+        <v>19.42</v>
+      </c>
+      <c r="I277" s="66">
+        <v>3.09</v>
       </c>
       <c r="J277" s="66">
         <v>19.50</v>
@@ -18542,7 +18529,7 @@
         <v>22.88</v>
       </c>
       <c r="I278" s="66">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="J278" s="66">
         <v>24.00</v>
@@ -18606,13 +18593,13 @@
         </is>
       </c>
       <c r="F279" s="66">
-        <v>95.31</v>
+        <v>95.11</v>
       </c>
       <c r="H279" s="66">
-        <v>23.61</v>
+        <v>23.66</v>
       </c>
       <c r="I279" s="66">
-        <v>7.54</v>
+        <v>7.53</v>
       </c>
       <c r="J279" s="66">
         <v>22.50</v>
@@ -18668,14 +18655,14 @@
       <c r="E280" s="65">
         <v>690</v>
       </c>
-      <c t="n" r="F280">
-        <v>99.5</v>
-      </c>
-      <c t="n" r="H280">
-        <v>20.6</v>
+      <c r="F280" s="66">
+        <v>99.79</v>
+      </c>
+      <c r="H280" s="66">
+        <v>20.54</v>
       </c>
       <c r="I280" s="66">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J280" s="66">
         <v>20.50</v>
@@ -18739,13 +18726,13 @@
         </is>
       </c>
       <c r="F281" s="66">
-        <v>88.99</v>
+        <v>88.95</v>
       </c>
       <c r="H281" s="66">
-        <v>26.07</v>
+        <v>26.08</v>
       </c>
       <c r="I281" s="66">
-        <v>2.44</v>
+        <v>2.43</v>
       </c>
       <c r="J281" s="66">
         <v>23.20</v>
@@ -18815,7 +18802,7 @@
         <v>20.95</v>
       </c>
       <c r="I282" s="66">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="J282" s="66">
         <v>22.00</v>
@@ -18874,13 +18861,13 @@
         </is>
       </c>
       <c t="n" r="F283">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="H283" s="66">
-        <v>17.19</v>
+        <v>17.18</v>
       </c>
       <c r="I283" s="66">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="J283" s="66">
         <v>17.45</v>
@@ -18939,7 +18926,7 @@
         </is>
       </c>
       <c r="F284" s="66">
-        <v>102.96</v>
+        <v>102.95</v>
       </c>
       <c r="H284" s="66">
         <v>17.56</v>
@@ -19003,11 +18990,11 @@
           <t xml:space="preserve">190'287</t>
         </is>
       </c>
-      <c r="F285" s="66">
-        <v>103.88</v>
+      <c t="n" r="F285">
+        <v>103.8</v>
       </c>
       <c r="H285" s="66">
-        <v>18.15</v>
+        <v>18.16</v>
       </c>
       <c r="I285" s="66">
         <v>7.21</v>
@@ -19069,13 +19056,13 @@
         </is>
       </c>
       <c r="F286" s="66">
-        <v>104.19</v>
+        <v>104.24</v>
       </c>
       <c r="H286" s="66">
-        <v>19.12</v>
-      </c>
-      <c t="n" r="I286">
-        <v>9.8</v>
+        <v>19.11</v>
+      </c>
+      <c r="I286" s="66">
+        <v>9.79</v>
       </c>
       <c r="J286" s="66">
         <v>19.92</v>

--- a/Карта рынка.xlsx
+++ b/Карта рынка.xlsx
@@ -403,11 +403,11 @@
           <t xml:space="preserve">2'100</t>
         </is>
       </c>
-      <c r="F4" s="65">
-        <v>99</v>
-      </c>
-      <c r="H4" s="66">
-        <v>27.27</v>
+      <c t="n" r="F4">
+        <v>98.9</v>
+      </c>
+      <c t="n" r="H4">
+        <v>27.3</v>
       </c>
       <c r="I4" s="66">
         <v>1.95</v>
@@ -473,11 +473,11 @@
           <t xml:space="preserve">1'000</t>
         </is>
       </c>
-      <c r="F5" s="65">
-        <v>101</v>
-      </c>
-      <c r="H5" s="66">
-        <v>22.57</v>
+      <c t="n" r="F5">
+        <v>100.9</v>
+      </c>
+      <c t="n" r="H5">
+        <v>22.6</v>
       </c>
       <c r="I5" s="66">
         <v>3.31</v>
@@ -536,11 +536,11 @@
       <c r="E6" s="65">
         <v>700</v>
       </c>
-      <c r="F6" s="66">
-        <v>95.86</v>
+      <c t="n" r="F6">
+        <v>95.9</v>
       </c>
       <c r="H6" s="66">
-        <v>27.64</v>
+        <v>27.63</v>
       </c>
       <c r="I6" s="66">
         <v>1.96</v>
@@ -608,7 +608,7 @@
         <v>22.98</v>
       </c>
       <c r="I7" s="66">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="J7" s="66">
         <v>23.00</v>
@@ -671,11 +671,11 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c t="n" r="F8">
-        <v>100.7</v>
+      <c r="F8" s="66">
+        <v>100.74</v>
       </c>
       <c r="H8" s="66">
-        <v>24.23</v>
+        <v>24.22</v>
       </c>
       <c r="I8" s="66">
         <v>1.89</v>
@@ -685,7 +685,7 @@
       </c>
       <c t="inlineStr" r="K8">
         <is>
-          <t xml:space="preserve">06-03-2025</t>
+          <t xml:space="preserve">05-04-2025</t>
         </is>
       </c>
       <c r="L8" s="65">
@@ -734,11 +734,11 @@
       <c r="E9" s="65">
         <v>400</v>
       </c>
-      <c t="n" r="F9">
-        <v>100.4</v>
+      <c r="F9" s="66">
+        <v>100.61</v>
       </c>
       <c r="H9" s="66">
-        <v>26.89</v>
+        <v>26.84</v>
       </c>
       <c r="I9" s="66">
         <v>1.88</v>
@@ -863,8 +863,8 @@
       <c r="H11" s="66">
         <v>23.76</v>
       </c>
-      <c t="n" r="I11">
-        <v>2.9</v>
+      <c r="I11" s="66">
+        <v>2.89</v>
       </c>
       <c r="J11" s="66">
         <v>23.50</v>
@@ -923,13 +923,13 @@
         </is>
       </c>
       <c r="F12" s="66">
-        <v>102.61</v>
+        <v>102.71</v>
       </c>
       <c r="H12" s="66">
-        <v>24.36</v>
+        <v>24.34</v>
       </c>
       <c r="I12" s="66">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="J12" s="66">
         <v>25.00</v>
@@ -985,11 +985,11 @@
       <c r="E13" s="65">
         <v>677</v>
       </c>
-      <c t="n" r="F13">
-        <v>101.8</v>
+      <c r="F13" s="66">
+        <v>101.92</v>
       </c>
       <c r="H13" s="66">
-        <v>22.74</v>
+        <v>22.71</v>
       </c>
       <c r="I13" s="66">
         <v>1.81</v>
@@ -1050,11 +1050,11 @@
           <t xml:space="preserve">5'000</t>
         </is>
       </c>
-      <c r="F14" s="65">
-        <v>101</v>
+      <c t="n" r="F14">
+        <v>100.1</v>
       </c>
       <c r="H14" s="66">
-        <v>22.77</v>
+        <v>22.98</v>
       </c>
       <c r="I14" s="66">
         <v>0.32</v>
@@ -1259,10 +1259,10 @@
         <v>600</v>
       </c>
       <c r="F17" s="66">
-        <v>101.77</v>
+        <v>101.62</v>
       </c>
       <c r="H17" s="66">
-        <v>27.02</v>
+        <v>27.06</v>
       </c>
       <c r="I17" s="66">
         <v>1.78</v>
@@ -1321,11 +1321,11 @@
       <c r="E18" s="65">
         <v>100</v>
       </c>
-      <c t="n" r="F18">
-        <v>100.6</v>
+      <c r="F18" s="66">
+        <v>100.48</v>
       </c>
       <c r="H18" s="66">
-        <v>27.83</v>
+        <v>27.87</v>
       </c>
       <c r="I18" s="66">
         <v>1.78</v>
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="F20" s="66">
-        <v>101.38</v>
+        <v>101.25</v>
       </c>
       <c r="H20" s="66">
-        <v>23.18</v>
+        <v>23.21</v>
       </c>
       <c r="I20" s="66">
         <v>1.28</v>
@@ -1520,10 +1520,10 @@
         <v>500</v>
       </c>
       <c r="F21" s="66">
-        <v>97.57</v>
+        <v>97.36</v>
       </c>
       <c r="H21" s="66">
-        <v>25.62</v>
+        <v>25.68</v>
       </c>
       <c t="n" r="I21">
         <v>0.8</v>
@@ -1589,8 +1589,8 @@
           <t xml:space="preserve">15'000</t>
         </is>
       </c>
-      <c t="n" r="F22">
-        <v>102.3</v>
+      <c r="F22" s="66">
+        <v>102.29</v>
       </c>
       <c r="H22" s="66">
         <v>23.36</v>
@@ -1654,11 +1654,11 @@
           <t xml:space="preserve">1'200</t>
         </is>
       </c>
-      <c r="F23" s="65">
-        <v>103</v>
+      <c t="n" r="F23">
+        <v>104.9</v>
       </c>
       <c r="H23" s="66">
-        <v>26.21</v>
+        <v>25.74</v>
       </c>
       <c r="I23" s="66">
         <v>1.78</v>
@@ -1729,7 +1729,7 @@
         <v>22.75</v>
       </c>
       <c r="I24" s="66">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="J24" s="66">
         <v>22.82</v>
@@ -1787,14 +1787,14 @@
           <t xml:space="preserve">1'000</t>
         </is>
       </c>
-      <c r="F25" s="66">
-        <v>100.92</v>
+      <c t="n" r="F25">
+        <v>100.2</v>
       </c>
       <c r="H25" s="66">
-        <v>26.75</v>
+        <v>26.95</v>
       </c>
       <c r="I25" s="66">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="J25" s="66">
         <v>27.00</v>
@@ -1857,11 +1857,11 @@
           <t xml:space="preserve">5'000</t>
         </is>
       </c>
-      <c r="F26" s="66">
-        <v>100.24</v>
+      <c t="n" r="F26">
+        <v>100.2</v>
       </c>
       <c r="H26" s="66">
-        <v>24.94</v>
+        <v>24.95</v>
       </c>
       <c r="I26" s="66">
         <v>0.78</v>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="F27" s="66">
-        <v>101.34</v>
+        <v>101.33</v>
       </c>
       <c r="H27" s="66">
         <v>23.44</v>
@@ -1990,14 +1990,14 @@
       <c r="E28" s="65">
         <v>150</v>
       </c>
-      <c r="F28" s="66">
-        <v>103.84</v>
+      <c r="F28" s="65">
+        <v>104</v>
       </c>
       <c r="H28" s="66">
-        <v>26.48</v>
+        <v>26.44</v>
       </c>
       <c r="I28" s="66">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="J28" s="66">
         <v>27.50</v>
@@ -2055,14 +2055,14 @@
           <t xml:space="preserve">100'000</t>
         </is>
       </c>
-      <c r="F29" s="66">
-        <v>100.12</v>
-      </c>
-      <c t="n" r="G29">
-        <v>215.2</v>
+      <c t="n" r="F29">
+        <v>100.1</v>
+      </c>
+      <c r="G29" s="65">
+        <v>216</v>
       </c>
       <c r="H29" s="66">
-        <v>22.87</v>
+        <v>22.88</v>
       </c>
       <c r="I29" s="66">
         <v>1.76</v>
@@ -2188,11 +2188,11 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c t="n" r="F31">
-        <v>103.1</v>
+      <c r="F31" s="66">
+        <v>103.04</v>
       </c>
       <c r="H31" s="66">
-        <v>24.73</v>
+        <v>24.75</v>
       </c>
       <c r="I31" s="66">
         <v>2.73</v>
@@ -2253,8 +2253,8 @@
           <t xml:space="preserve">2'000</t>
         </is>
       </c>
-      <c r="F32" s="65">
-        <v>104</v>
+      <c r="F32" s="66">
+        <v>103.98</v>
       </c>
       <c r="H32" s="65">
         <v>25</v>
@@ -2384,10 +2384,10 @@
         </is>
       </c>
       <c r="F34" s="66">
-        <v>101.55</v>
-      </c>
-      <c r="H34" s="66">
-        <v>23.88</v>
+        <v>101.45</v>
+      </c>
+      <c t="n" r="H34">
+        <v>23.9</v>
       </c>
       <c r="I34" s="66">
         <v>2.39</v>
@@ -2448,14 +2448,14 @@
           <t xml:space="preserve">4'000</t>
         </is>
       </c>
-      <c t="n" r="F35">
-        <v>102.1</v>
+      <c r="F35" s="66">
+        <v>102.16</v>
       </c>
       <c r="H35" s="66">
-        <v>24.49</v>
+        <v>24.47</v>
       </c>
       <c r="I35" s="66">
-        <v>2.22</v>
+        <v>2.21</v>
       </c>
       <c r="J35" s="66">
         <v>25.00</v>
@@ -2513,11 +2513,11 @@
           <t xml:space="preserve">1'000'000</t>
         </is>
       </c>
-      <c r="F36" s="65">
-        <v>97</v>
+      <c r="F36" s="66">
+        <v>96.89</v>
       </c>
       <c r="H36" s="66">
-        <v>21.99</v>
+        <v>22.01</v>
       </c>
       <c r="I36" s="66">
         <v>13.51</v>
@@ -2579,13 +2579,13 @@
         </is>
       </c>
       <c r="F37" s="66">
-        <v>102.12</v>
-      </c>
-      <c r="H37" s="66">
-        <v>24.48</v>
-      </c>
-      <c r="I37" s="66">
-        <v>2.71</v>
+        <v>102.05</v>
+      </c>
+      <c t="n" r="H37">
+        <v>24.5</v>
+      </c>
+      <c t="n" r="I37">
+        <v>2.7</v>
       </c>
       <c r="J37" s="66">
         <v>25.00</v>
@@ -2644,10 +2644,10 @@
         </is>
       </c>
       <c r="F38" s="66">
-        <v>102.27</v>
+        <v>102.37</v>
       </c>
       <c r="H38" s="66">
-        <v>22.59</v>
+        <v>22.57</v>
       </c>
       <c r="I38" s="66">
         <v>1.72</v>
@@ -2707,13 +2707,13 @@
         <v>700</v>
       </c>
       <c r="F39" s="66">
-        <v>101.06</v>
+        <v>101.05</v>
       </c>
       <c r="H39" s="66">
         <v>26.72</v>
       </c>
       <c r="I39" s="66">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="J39" s="66">
         <v>27.00</v>
@@ -2770,13 +2770,13 @@
         <v>23</v>
       </c>
       <c r="F40" s="66">
-        <v>100.22</v>
+        <v>100.24</v>
       </c>
       <c r="H40" s="66">
-        <v>28.94</v>
+        <v>28.93</v>
       </c>
       <c r="I40" s="66">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="J40" s="66">
         <v>29.00</v>
@@ -2907,17 +2907,17 @@
           <t xml:space="preserve">8'000</t>
         </is>
       </c>
-      <c r="F42" s="66">
-        <v>100.19</v>
+      <c t="n" r="F42">
+        <v>100.2</v>
       </c>
       <c t="n" r="G42">
-        <v>-80.9</v>
+        <v>-68.1</v>
       </c>
       <c t="n" r="H42">
         <v>20.8</v>
       </c>
       <c r="I42" s="66">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="J42" s="66">
         <v>20.84</v>
@@ -3052,7 +3052,7 @@
         <v>25.92</v>
       </c>
       <c r="I44" s="66">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="J44" s="66">
         <v>26.00</v>
@@ -3110,11 +3110,11 @@
           <t xml:space="preserve">1'000</t>
         </is>
       </c>
-      <c r="F45" s="66">
-        <v>100.34</v>
+      <c t="n" r="F45">
+        <v>100.3</v>
       </c>
       <c r="H45" s="66">
-        <v>25.41</v>
+        <v>25.42</v>
       </c>
       <c r="I45" s="66">
         <v>1.67</v>
@@ -3175,8 +3175,8 @@
           <t xml:space="preserve">40'000</t>
         </is>
       </c>
-      <c t="n" r="F46">
-        <v>100.5</v>
+      <c r="F46" s="66">
+        <v>100.48</v>
       </c>
       <c r="H46" s="66">
         <v>22.89</v>
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="F47" s="66">
-        <v>100.45</v>
+        <v>100.77</v>
       </c>
       <c r="H47" s="66">
-        <v>23.89</v>
+        <v>23.82</v>
       </c>
       <c r="I47" s="66">
         <v>2.68</v>
@@ -3304,10 +3304,10 @@
         <v>185</v>
       </c>
       <c r="F48" s="66">
-        <v>98.26</v>
+        <v>98.28</v>
       </c>
       <c r="H48" s="66">
-        <v>25.19</v>
+        <v>25.18</v>
       </c>
       <c r="I48" s="66">
         <v>2.73</v>
@@ -3368,11 +3368,11 @@
           <t xml:space="preserve">23'000</t>
         </is>
       </c>
-      <c t="n" r="F49">
-        <v>99.1</v>
-      </c>
-      <c t="n" r="H49">
-        <v>22.4</v>
+      <c r="F49" s="66">
+        <v>99.33</v>
+      </c>
+      <c r="H49" s="66">
+        <v>22.35</v>
       </c>
       <c r="I49" s="66">
         <v>1.63</v>
@@ -3434,10 +3434,10 @@
         </is>
       </c>
       <c r="F50" s="66">
-        <v>98.11</v>
+        <v>97.84</v>
       </c>
       <c r="H50" s="66">
-        <v>23.19</v>
+        <v>23.25</v>
       </c>
       <c r="I50" s="66">
         <v>2.61</v>
@@ -3562,10 +3562,10 @@
         </is>
       </c>
       <c r="F52" s="66">
-        <v>99.84</v>
+        <v>99.75</v>
       </c>
       <c r="H52" s="66">
-        <v>22.34</v>
+        <v>22.36</v>
       </c>
       <c r="I52" s="66">
         <v>1.13</v>
@@ -3627,10 +3627,10 @@
         </is>
       </c>
       <c r="F53" s="66">
-        <v>92.74</v>
+        <v>92.78</v>
       </c>
       <c r="H53" s="66">
-        <v>26.42</v>
+        <v>26.41</v>
       </c>
       <c t="n" r="I53">
         <v>2.6</v>
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="F54" s="66">
-        <v>98.05</v>
+        <v>98.07</v>
       </c>
       <c t="n" r="H54">
         <v>23.2</v>
@@ -3756,11 +3756,11 @@
           <t xml:space="preserve">21'916</t>
         </is>
       </c>
-      <c r="F55" s="66">
-        <v>97.29</v>
+      <c t="n" r="F55">
+        <v>97.4</v>
       </c>
       <c r="H55" s="66">
-        <v>23.64</v>
+        <v>23.61</v>
       </c>
       <c t="n" r="I55">
         <v>2.6</v>
@@ -3890,10 +3890,10 @@
         </is>
       </c>
       <c t="n" r="F57">
-        <v>97.9</v>
+        <v>98.1</v>
       </c>
       <c r="H57" s="66">
-        <v>22.73</v>
+        <v>22.68</v>
       </c>
       <c r="I57" s="66">
         <v>2.59</v>
@@ -4019,11 +4019,11 @@
           <t xml:space="preserve">100'000</t>
         </is>
       </c>
-      <c r="F59" s="66">
-        <v>97.32</v>
+      <c t="n" r="F59">
+        <v>97.2</v>
       </c>
       <c r="H59" s="66">
-        <v>22.71</v>
+        <v>22.74</v>
       </c>
       <c r="I59" s="66">
         <v>3.58</v>
@@ -4090,10 +4090,10 @@
         </is>
       </c>
       <c r="F60" s="66">
-        <v>92.18</v>
+        <v>92.19</v>
       </c>
       <c r="H60" s="66">
-        <v>26.04</v>
+        <v>26.03</v>
       </c>
       <c r="I60" s="66">
         <v>1.59</v>
@@ -4155,7 +4155,7 @@
         </is>
       </c>
       <c r="F61" s="66">
-        <v>99.86</v>
+        <v>99.88</v>
       </c>
       <c r="H61" s="66">
         <v>22.53</v>
@@ -4218,10 +4218,10 @@
         <v>82</v>
       </c>
       <c r="F62" s="66">
-        <v>96.14</v>
-      </c>
-      <c t="n" r="H62">
-        <v>24.7</v>
+        <v>96.27</v>
+      </c>
+      <c r="H62" s="66">
+        <v>24.67</v>
       </c>
       <c r="I62" s="66">
         <v>2.61</v>
@@ -4280,11 +4280,11 @@
       <c r="E63" s="65">
         <v>300</v>
       </c>
-      <c r="F63" s="66">
-        <v>99.73</v>
+      <c t="n" r="F63">
+        <v>99.7</v>
       </c>
       <c r="H63" s="66">
-        <v>26.07</v>
+        <v>26.08</v>
       </c>
       <c r="I63" s="66">
         <v>2.58</v>
@@ -4345,11 +4345,11 @@
           <t xml:space="preserve">11'000</t>
         </is>
       </c>
-      <c r="F64" s="66">
-        <v>98.18</v>
+      <c t="n" r="F64">
+        <v>97.9</v>
       </c>
       <c r="H64" s="66">
-        <v>22.71</v>
+        <v>22.78</v>
       </c>
       <c r="I64" s="66">
         <v>2.11</v>
@@ -4411,10 +4411,10 @@
         </is>
       </c>
       <c r="F65" s="66">
-        <v>87.88</v>
+        <v>87.57</v>
       </c>
       <c r="H65" s="66">
-        <v>27.31</v>
+        <v>27.41</v>
       </c>
       <c r="I65" s="66">
         <v>2.57</v>
@@ -4475,11 +4475,11 @@
           <t xml:space="preserve">25'000</t>
         </is>
       </c>
-      <c r="F66" s="66">
-        <v>99.46</v>
+      <c t="n" r="F66">
+        <v>99.5</v>
       </c>
       <c r="H66" s="66">
-        <v>22.26</v>
+        <v>22.25</v>
       </c>
       <c r="I66" s="66">
         <v>1.09</v>
@@ -4539,10 +4539,10 @@
         <v>290</v>
       </c>
       <c r="F67" s="66">
-        <v>99.96</v>
+        <v>99.85</v>
       </c>
       <c r="H67" s="66">
-        <v>24.76</v>
+        <v>24.79</v>
       </c>
       <c r="I67" s="66">
         <v>2.56</v>
@@ -4604,13 +4604,13 @@
         </is>
       </c>
       <c r="F68" s="66">
-        <v>99.99</v>
-      </c>
-      <c r="H68" s="66">
-        <v>22.14</v>
+        <v>99.73</v>
+      </c>
+      <c t="n" r="H68">
+        <v>22.2</v>
       </c>
       <c r="I68" s="66">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="J68" s="66">
         <v>22.14</v>
@@ -4666,14 +4666,14 @@
       <c r="E69" s="65">
         <v>112</v>
       </c>
-      <c r="F69" s="66">
-        <v>79.54</v>
+      <c t="n" r="F69">
+        <v>79.5</v>
       </c>
       <c r="H69" s="66">
-        <v>33.95</v>
+        <v>33.96</v>
       </c>
       <c r="I69" s="66">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="J69" s="66">
         <v>27.00</v>
@@ -4731,14 +4731,14 @@
           <t xml:space="preserve">3'000</t>
         </is>
       </c>
-      <c t="n" r="F70">
-        <v>110.5</v>
+      <c r="F70" s="66">
+        <v>110.49</v>
       </c>
       <c r="H70" s="66">
         <v>20.36</v>
       </c>
       <c r="I70" s="66">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="J70" s="66">
         <v>22.50</v>
@@ -4797,13 +4797,13 @@
         </is>
       </c>
       <c r="F71" s="66">
-        <v>92.68</v>
+        <v>92.09</v>
       </c>
       <c r="H71" s="66">
-        <v>26.97</v>
+        <v>27.15</v>
       </c>
       <c r="I71" s="66">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="J71" s="66">
         <v>25.00</v>
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="F72" s="66">
-        <v>95.74</v>
+        <v>95.75</v>
       </c>
       <c t="n" r="H72">
         <v>23.5</v>
@@ -4931,14 +4931,14 @@
           <t xml:space="preserve">5'000</t>
         </is>
       </c>
-      <c r="F73" s="66">
-        <v>95.97</v>
+      <c r="F73" s="65">
+        <v>96</v>
       </c>
       <c r="H73" s="66">
-        <v>24.75</v>
+        <v>24.74</v>
       </c>
       <c r="I73" s="66">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="J73" s="66">
         <v>23.75</v>
@@ -5005,20 +5005,20 @@
         <v>99.49</v>
       </c>
       <c t="n" r="G74">
-        <v>183.5</v>
+        <v>183.6</v>
       </c>
       <c t="n" r="H74">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="I74" s="66">
         <v>3.65</v>
       </c>
       <c r="J74" s="66">
-        <v>21.99</v>
+        <v>22.09</v>
       </c>
       <c t="inlineStr" r="K74">
         <is>
-          <t xml:space="preserve">06-03-2025</t>
+          <t xml:space="preserve">06-04-2025</t>
         </is>
       </c>
       <c r="L74" s="65">
@@ -5069,14 +5069,14 @@
           <t xml:space="preserve">1'500</t>
         </is>
       </c>
-      <c t="n" r="F75">
-        <v>98.6</v>
+      <c r="F75" s="66">
+        <v>98.82</v>
       </c>
       <c r="H75" s="66">
-        <v>23.83</v>
+        <v>23.78</v>
       </c>
       <c r="I75" s="66">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
       <c r="J75" s="66">
         <v>23.50</v>
@@ -5203,10 +5203,10 @@
         </is>
       </c>
       <c r="F77" s="66">
-        <v>84.03</v>
+        <v>84.33</v>
       </c>
       <c r="H77" s="66">
-        <v>28.86</v>
+        <v>28.76</v>
       </c>
       <c r="I77" s="66">
         <v>2.55</v>
@@ -5265,14 +5265,14 @@
       <c r="E78" s="65">
         <v>500</v>
       </c>
-      <c r="F78" s="65">
-        <v>92</v>
+      <c r="F78" s="66">
+        <v>92.21</v>
       </c>
       <c r="H78" s="66">
-        <v>26.09</v>
+        <v>26.03</v>
       </c>
       <c r="I78" s="66">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="J78" s="66">
         <v>24.00</v>
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="F79" s="66">
-        <v>98.97</v>
+        <v>98.98</v>
       </c>
       <c r="H79" s="66">
         <v>22.53</v>
@@ -5395,11 +5395,11 @@
           <t xml:space="preserve">45'000</t>
         </is>
       </c>
-      <c t="n" r="F80">
-        <v>97.9</v>
+      <c r="F80" s="66">
+        <v>97.93</v>
       </c>
       <c r="H80" s="66">
-        <v>22.68</v>
+        <v>22.67</v>
       </c>
       <c t="n" r="I80">
         <v>3.5</v>
@@ -5461,13 +5461,13 @@
         </is>
       </c>
       <c r="F81" s="66">
-        <v>92.31</v>
+        <v>92.44</v>
       </c>
       <c r="H81" s="66">
-        <v>25.24</v>
+        <v>25.21</v>
       </c>
       <c r="I81" s="66">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
       <c r="J81" s="66">
         <v>23.30</v>
@@ -5595,14 +5595,14 @@
           <t xml:space="preserve">7'500</t>
         </is>
       </c>
-      <c r="F83" s="66">
-        <v>99.38</v>
+      <c t="n" r="F83">
+        <v>99.4</v>
       </c>
       <c r="H83" s="66">
-        <v>22.34</v>
-      </c>
-      <c r="I83" s="65">
-        <v>3</v>
+        <v>22.33</v>
+      </c>
+      <c r="I83" s="66">
+        <v>2.99</v>
       </c>
       <c r="J83" s="66">
         <v>22.20</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="E85" s="65">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="F85" s="66">
         <v>99.95</v>
@@ -5735,7 +5735,7 @@
         <v>21.01</v>
       </c>
       <c r="I85" s="66">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="J85" s="66">
         <v>21.00</v>
@@ -5794,10 +5794,10 @@
         </is>
       </c>
       <c r="F86" s="66">
-        <v>99.41</v>
+        <v>99.33</v>
       </c>
       <c r="H86" s="66">
-        <v>22.23</v>
+        <v>22.25</v>
       </c>
       <c r="I86" s="66">
         <v>1.51</v>
@@ -5858,11 +5858,11 @@
           <t xml:space="preserve">8'000</t>
         </is>
       </c>
-      <c r="F87" s="66">
-        <v>95.07</v>
+      <c r="F87" s="65">
+        <v>95</v>
       </c>
       <c r="H87" s="66">
-        <v>23.67</v>
+        <v>23.68</v>
       </c>
       <c r="I87" s="66">
         <v>2.53</v>
@@ -5922,13 +5922,13 @@
         <v>200</v>
       </c>
       <c r="F88" s="66">
-        <v>97.29</v>
+        <v>97.76</v>
       </c>
       <c r="H88" s="66">
-        <v>25.95</v>
+        <v>25.83</v>
       </c>
       <c r="I88" s="66">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="J88" s="66">
         <v>25.25</v>
@@ -5992,13 +5992,13 @@
         </is>
       </c>
       <c r="F89" s="66">
-        <v>99.99</v>
+        <v>98.95</v>
       </c>
       <c r="H89" s="66">
-        <v>21.23</v>
+        <v>21.46</v>
       </c>
       <c r="I89" s="66">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="J89" s="66">
         <v>21.23</v>
@@ -6057,10 +6057,10 @@
         </is>
       </c>
       <c r="F90" s="66">
-        <v>95.95</v>
+        <v>95.51</v>
       </c>
       <c r="H90" s="66">
-        <v>24.23</v>
+        <v>24.34</v>
       </c>
       <c r="I90" s="65">
         <v>2</v>
@@ -6121,11 +6121,11 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c t="n" r="F91">
-        <v>95.5</v>
+      <c r="F91" s="66">
+        <v>95.31</v>
       </c>
       <c r="H91" s="66">
-        <v>24.61</v>
+        <v>24.66</v>
       </c>
       <c r="I91" s="66">
         <v>4.47</v>
@@ -6186,14 +6186,14 @@
           <t xml:space="preserve">15'000</t>
         </is>
       </c>
-      <c r="F92" s="66">
-        <v>99.04</v>
+      <c t="n" r="F92">
+        <v>99.2</v>
       </c>
       <c r="H92" s="66">
-        <v>22.42</v>
+        <v>22.38</v>
       </c>
       <c r="I92" s="66">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="J92" s="66">
         <v>22.20</v>
@@ -6251,11 +6251,11 @@
           <t xml:space="preserve">4'000</t>
         </is>
       </c>
-      <c r="F93" s="66">
-        <v>92.63</v>
+      <c t="n" r="F93">
+        <v>92.7</v>
       </c>
       <c r="H93" s="66">
-        <v>25.37</v>
+        <v>25.35</v>
       </c>
       <c r="I93" s="66">
         <v>2.48</v>
@@ -6316,11 +6316,11 @@
           <t xml:space="preserve">7'500</t>
         </is>
       </c>
-      <c t="n" r="F94">
-        <v>92.1</v>
-      </c>
-      <c t="n" r="H94">
-        <v>25.3</v>
+      <c r="F94" s="66">
+        <v>92.16</v>
+      </c>
+      <c r="H94" s="66">
+        <v>25.28</v>
       </c>
       <c r="I94" s="66">
         <v>2.47</v>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="F95" s="66">
-        <v>97.77</v>
+        <v>97.73</v>
       </c>
       <c r="H95" s="66">
-        <v>23.27</v>
+        <v>23.28</v>
       </c>
       <c r="I95" s="66">
         <v>2.46</v>
@@ -6447,13 +6447,13 @@
         </is>
       </c>
       <c r="F96" s="66">
-        <v>92.86</v>
+        <v>93.42</v>
       </c>
       <c r="H96" s="66">
-        <v>25.41</v>
+        <v>25.26</v>
       </c>
       <c r="I96" s="66">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
       <c r="J96" s="66">
         <v>23.60</v>
@@ -6512,13 +6512,13 @@
         </is>
       </c>
       <c r="F97" s="66">
-        <v>93.79</v>
-      </c>
-      <c t="n" r="H97">
-        <v>24.2</v>
+        <v>94.04</v>
+      </c>
+      <c r="H97" s="66">
+        <v>24.14</v>
       </c>
       <c r="I97" s="66">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="J97" s="66">
         <v>22.70</v>
@@ -6574,11 +6574,11 @@
       <c r="E98" s="65">
         <v>305</v>
       </c>
-      <c r="F98" s="66">
-        <v>97.49</v>
+      <c r="F98" s="65">
+        <v>98</v>
       </c>
       <c r="H98" s="66">
-        <v>24.11</v>
+        <v>23.98</v>
       </c>
       <c r="I98" s="66">
         <v>2.45</v>
@@ -6638,13 +6638,13 @@
         <v>212</v>
       </c>
       <c r="F99" s="66">
-        <v>85.59</v>
+        <v>85.68</v>
       </c>
       <c r="H99" s="66">
-        <v>30.96</v>
+        <v>30.93</v>
       </c>
       <c r="I99" s="66">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="J99" s="66">
         <v>26.50</v>
@@ -6703,10 +6703,10 @@
         </is>
       </c>
       <c r="F100" s="66">
-        <v>97.55</v>
+        <v>97.69</v>
       </c>
       <c r="H100" s="66">
-        <v>22.86</v>
+        <v>22.83</v>
       </c>
       <c r="I100" s="66">
         <v>2.93</v>
@@ -6765,11 +6765,11 @@
       <c r="E101" s="65">
         <v>79</v>
       </c>
-      <c r="F101" s="66">
-        <v>94.22</v>
+      <c t="n" r="F101">
+        <v>94.6</v>
       </c>
       <c r="H101" s="66">
-        <v>28.66</v>
+        <v>28.54</v>
       </c>
       <c r="I101" s="66">
         <v>2.97</v>
@@ -6830,14 +6830,14 @@
           <t xml:space="preserve">6'000</t>
         </is>
       </c>
-      <c r="F102" s="66">
-        <v>95.25</v>
+      <c t="n" r="F102">
+        <v>95.4</v>
       </c>
       <c r="H102" s="66">
-        <v>24.15</v>
+        <v>24.11</v>
       </c>
       <c r="I102" s="66">
-        <v>2.43</v>
+        <v>2.42</v>
       </c>
       <c r="J102" s="66">
         <v>23.00</v>
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="F103" s="66">
-        <v>97.14</v>
+        <v>97.13</v>
       </c>
       <c r="H103" s="66">
         <v>23.06</v>
@@ -6966,7 +6966,7 @@
         </is>
       </c>
       <c r="F104" s="66">
-        <v>97.48</v>
+        <v>97.47</v>
       </c>
       <c r="H104" s="66">
         <v>22.98</v>
@@ -7031,10 +7031,10 @@
         </is>
       </c>
       <c r="F105" s="66">
-        <v>88.17</v>
+        <v>88.37</v>
       </c>
       <c r="H105" s="66">
-        <v>27.22</v>
+        <v>27.16</v>
       </c>
       <c r="I105" s="66">
         <v>2.49</v>
@@ -7096,10 +7096,10 @@
         </is>
       </c>
       <c r="F106" s="66">
-        <v>86.09</v>
+        <v>86.11</v>
       </c>
       <c r="H106" s="66">
-        <v>29.33</v>
+        <v>29.32</v>
       </c>
       <c r="I106" s="66">
         <v>1.42</v>
@@ -7158,11 +7158,11 @@
       <c r="E107" s="65">
         <v>112</v>
       </c>
-      <c r="F107" s="66">
-        <v>97.36</v>
+      <c t="n" r="F107">
+        <v>97.9</v>
       </c>
       <c r="H107" s="66">
-        <v>26.71</v>
+        <v>26.56</v>
       </c>
       <c r="I107" s="66">
         <v>0.43</v>
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="F108" s="66">
-        <v>83.25</v>
+        <v>83.47</v>
       </c>
       <c r="H108" s="66">
-        <v>27.87</v>
+        <v>27.79</v>
       </c>
       <c r="I108" s="66">
         <v>3.68</v>
@@ -7293,11 +7293,11 @@
           <t xml:space="preserve">1'050</t>
         </is>
       </c>
-      <c t="n" r="F109">
-        <v>96.5</v>
+      <c r="F109" s="66">
+        <v>97.12</v>
       </c>
       <c r="H109" s="66">
-        <v>23.83</v>
+        <v>23.68</v>
       </c>
       <c r="I109" s="66">
         <v>1.41</v>
@@ -7362,10 +7362,10 @@
         <v>780</v>
       </c>
       <c r="F110" s="66">
-        <v>93.76</v>
-      </c>
-      <c t="n" r="H110">
-        <v>23.2</v>
+        <v>93.89</v>
+      </c>
+      <c r="H110" s="66">
+        <v>23.17</v>
       </c>
       <c r="I110" s="66">
         <v>2.93</v>
@@ -7425,13 +7425,13 @@
         <v>300</v>
       </c>
       <c r="F111" s="66">
-        <v>96.47</v>
+        <v>96.52</v>
       </c>
       <c r="H111" s="66">
-        <v>25.14</v>
+        <v>25.12</v>
       </c>
       <c r="I111" s="66">
-        <v>2.49</v>
+        <v>2.48</v>
       </c>
       <c r="J111" s="66">
         <v>24.25</v>
@@ -7489,11 +7489,11 @@
           <t xml:space="preserve">1'500</t>
         </is>
       </c>
-      <c r="F112" s="66">
-        <v>57.24</v>
+      <c t="n" r="F112">
+        <v>57.1</v>
       </c>
       <c r="H112" s="66">
-        <v>44.55</v>
+        <v>44.66</v>
       </c>
       <c t="n" r="I112">
         <v>1.4</v>
@@ -7554,14 +7554,14 @@
           <t xml:space="preserve">15'000</t>
         </is>
       </c>
-      <c r="F113" s="66">
-        <v>97.69</v>
+      <c t="n" r="F113">
+        <v>97.7</v>
       </c>
       <c r="H113" s="66">
         <v>22.67</v>
       </c>
       <c r="I113" s="66">
-        <v>2.42</v>
+        <v>2.41</v>
       </c>
       <c r="J113" s="66">
         <v>22.15</v>
@@ -7620,10 +7620,10 @@
         </is>
       </c>
       <c r="F114" s="66">
-        <v>87.16</v>
+        <v>86.96</v>
       </c>
       <c r="H114" s="66">
-        <v>27.25</v>
+        <v>27.31</v>
       </c>
       <c r="I114" s="66">
         <v>2.38</v>
@@ -7693,8 +7693,8 @@
       <c r="H115" s="66">
         <v>22.36</v>
       </c>
-      <c r="I115" s="66">
-        <v>4.41</v>
+      <c t="n" r="I115">
+        <v>4.4</v>
       </c>
       <c r="J115" s="66">
         <v>22.19</v>
@@ -7752,8 +7752,8 @@
           <t xml:space="preserve">65'000</t>
         </is>
       </c>
-      <c r="F116" s="65">
-        <v>98</v>
+      <c r="F116" s="66">
+        <v>97.98</v>
       </c>
       <c r="H116" s="66">
         <v>22.45</v>
@@ -7816,7 +7816,7 @@
         <v>221</v>
       </c>
       <c r="F117" s="66">
-        <v>87.73</v>
+        <v>87.72</v>
       </c>
       <c t="n" r="H117">
         <v>28.5</v>
@@ -7879,13 +7879,13 @@
         <v>250</v>
       </c>
       <c r="F118" s="66">
-        <v>91.94</v>
+        <v>90.51</v>
       </c>
       <c r="H118" s="66">
-        <v>28.01</v>
+        <v>28.45</v>
       </c>
       <c r="I118" s="66">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="J118" s="66">
         <v>25.75</v>
@@ -7947,13 +7947,13 @@
         <v>54</v>
       </c>
       <c r="F119" s="65">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H119" s="66">
-        <v>44.83</v>
-      </c>
-      <c t="n" r="I119">
-        <v>2.4</v>
+        <v>43.33</v>
+      </c>
+      <c r="I119" s="66">
+        <v>2.39</v>
       </c>
       <c r="J119" s="66">
         <v>26.00</v>
@@ -8012,13 +8012,13 @@
         </is>
       </c>
       <c t="n" r="F120">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="H120" s="66">
-        <v>22.41</v>
-      </c>
-      <c t="n" r="I120">
-        <v>1.4</v>
+        <v>22.39</v>
+      </c>
+      <c r="I120" s="66">
+        <v>1.39</v>
       </c>
       <c r="J120" s="66">
         <v>22.05</v>
@@ -8077,10 +8077,10 @@
         </is>
       </c>
       <c r="F121" s="66">
-        <v>97.23</v>
-      </c>
-      <c r="H121" s="66">
-        <v>22.99</v>
+        <v>97.18</v>
+      </c>
+      <c r="H121" s="65">
+        <v>23</v>
       </c>
       <c r="I121" s="66">
         <v>2.36</v>
@@ -8142,13 +8142,13 @@
         </is>
       </c>
       <c r="F122" s="66">
-        <v>95.15</v>
+        <v>95.32</v>
       </c>
       <c t="n" r="G122">
-        <v>249.6</v>
-      </c>
-      <c r="H122" s="66">
-        <v>23.34</v>
+        <v>248.5</v>
+      </c>
+      <c t="n" r="H122">
+        <v>23.3</v>
       </c>
       <c r="I122" s="66">
         <v>3.38</v>
@@ -8209,11 +8209,11 @@
           <t xml:space="preserve">17'000</t>
         </is>
       </c>
-      <c r="F123" s="66">
-        <v>93.97</v>
+      <c t="n" r="F123">
+        <v>93.8</v>
       </c>
       <c r="H123" s="66">
-        <v>23.73</v>
+        <v>23.77</v>
       </c>
       <c r="I123" s="66">
         <v>3.38</v>
@@ -8273,10 +8273,10 @@
         <v>470</v>
       </c>
       <c r="F124" s="66">
-        <v>91.73</v>
-      </c>
-      <c r="H124" s="66">
-        <v>27.25</v>
+        <v>91.25</v>
+      </c>
+      <c t="n" r="H124">
+        <v>27.4</v>
       </c>
       <c r="I124" s="66">
         <v>2.84</v>
@@ -8338,13 +8338,13 @@
         </is>
       </c>
       <c r="F125" s="66">
-        <v>87.69</v>
+        <v>87.63</v>
       </c>
       <c r="H125" s="66">
-        <v>27.83</v>
+        <v>27.84</v>
       </c>
       <c r="I125" s="66">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="J125" s="66">
         <v>24.40</v>
@@ -8407,7 +8407,7 @@
         <v>27.12</v>
       </c>
       <c r="I126" s="66">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="J126" s="66">
         <v>25.00</v>
@@ -8466,10 +8466,10 @@
         </is>
       </c>
       <c r="F127" s="66">
-        <v>99.96</v>
+        <v>99.92</v>
       </c>
       <c r="H127" s="66">
-        <v>22.01</v>
+        <v>22.02</v>
       </c>
       <c r="I127" s="66">
         <v>1.35</v>
@@ -8531,10 +8531,10 @@
         </is>
       </c>
       <c r="F128" s="66">
-        <v>94.55</v>
+        <v>94.68</v>
       </c>
       <c r="H128" s="66">
-        <v>24.01</v>
+        <v>23.98</v>
       </c>
       <c r="I128" s="66">
         <v>2.33</v>
@@ -8596,10 +8596,10 @@
         </is>
       </c>
       <c r="F129" s="66">
-        <v>94.54</v>
+        <v>94.85</v>
       </c>
       <c r="H129" s="66">
-        <v>24.22</v>
+        <v>24.14</v>
       </c>
       <c r="I129" s="66">
         <v>2.36</v>
@@ -8666,13 +8666,13 @@
         </is>
       </c>
       <c r="F130" s="66">
-        <v>97.33</v>
+        <v>97.25</v>
       </c>
       <c r="H130" s="66">
-        <v>23.01</v>
-      </c>
-      <c t="n" r="I130">
-        <v>2.3</v>
+        <v>23.03</v>
+      </c>
+      <c r="I130" s="66">
+        <v>2.29</v>
       </c>
       <c r="J130" s="66">
         <v>22.40</v>
@@ -8735,17 +8735,17 @@
           <t xml:space="preserve">45'000</t>
         </is>
       </c>
-      <c r="F131" s="65">
-        <v>97</v>
+      <c r="F131" s="66">
+        <v>97.34</v>
       </c>
       <c t="n" r="G131">
-        <v>268.7</v>
+        <v>255.3</v>
       </c>
       <c r="H131" s="66">
-        <v>22.61</v>
+        <v>22.53</v>
       </c>
       <c r="I131" s="66">
-        <v>4.46</v>
+        <v>4.45</v>
       </c>
       <c r="J131" s="66">
         <v>21.93</v>
@@ -8804,7 +8804,7 @@
         </is>
       </c>
       <c r="F132" s="66">
-        <v>94.43</v>
+        <v>94.42</v>
       </c>
       <c r="H132" s="66">
         <v>24.99</v>
@@ -8869,10 +8869,10 @@
         </is>
       </c>
       <c r="F133" s="66">
-        <v>95.66</v>
+        <v>95.98</v>
       </c>
       <c r="H133" s="66">
-        <v>23.94</v>
+        <v>23.86</v>
       </c>
       <c t="n" r="I133">
         <v>2.3</v>
@@ -8882,7 +8882,7 @@
       </c>
       <c t="inlineStr" r="K133">
         <is>
-          <t xml:space="preserve">06-03-2025</t>
+          <t xml:space="preserve">05-04-2025</t>
         </is>
       </c>
       <c r="L133" s="65">
@@ -8934,13 +8934,13 @@
         </is>
       </c>
       <c r="F134" s="66">
-        <v>98.35</v>
+        <v>98.62</v>
       </c>
       <c r="H134" s="66">
-        <v>22.42</v>
+        <v>22.36</v>
       </c>
       <c r="I134" s="66">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="J134" s="66">
         <v>22.05</v>
@@ -8999,10 +8999,10 @@
         </is>
       </c>
       <c r="F135" s="66">
-        <v>94.59</v>
+        <v>94.83</v>
       </c>
       <c r="H135" s="66">
-        <v>24.53</v>
+        <v>24.46</v>
       </c>
       <c r="I135" s="66">
         <v>2.28</v>
@@ -9062,10 +9062,10 @@
         <v>537</v>
       </c>
       <c r="F136" s="66">
-        <v>94.96</v>
+        <v>94.93</v>
       </c>
       <c r="H136" s="66">
-        <v>22.64</v>
+        <v>22.65</v>
       </c>
       <c r="I136" s="66">
         <v>2.91</v>
@@ -9127,10 +9127,10 @@
         </is>
       </c>
       <c r="F137" s="66">
-        <v>91.94</v>
-      </c>
-      <c t="n" r="H137">
-        <v>26.1</v>
+        <v>91.91</v>
+      </c>
+      <c r="H137" s="66">
+        <v>26.11</v>
       </c>
       <c r="I137" s="66">
         <v>3.26</v>
@@ -9192,10 +9192,10 @@
         </is>
       </c>
       <c r="F138" s="66">
-        <v>90.67</v>
+        <v>91.02</v>
       </c>
       <c r="H138" s="66">
-        <v>26.47</v>
+        <v>26.37</v>
       </c>
       <c r="I138" s="66">
         <v>1.77</v>
@@ -9256,11 +9256,11 @@
           <t xml:space="preserve">6'000</t>
         </is>
       </c>
-      <c t="n" r="F139">
-        <v>90.3</v>
-      </c>
-      <c t="n" r="H139">
-        <v>25.8</v>
+      <c r="F139" s="66">
+        <v>90.09</v>
+      </c>
+      <c r="H139" s="66">
+        <v>25.86</v>
       </c>
       <c r="I139" s="66">
         <v>2.26</v>
@@ -9322,13 +9322,13 @@
         </is>
       </c>
       <c r="F140" s="66">
-        <v>92.25</v>
+        <v>92.22</v>
       </c>
       <c r="H140" s="66">
-        <v>25.15</v>
+        <v>25.16</v>
       </c>
       <c r="I140" s="66">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="J140" s="66">
         <v>23.20</v>
@@ -9457,10 +9457,10 @@
         </is>
       </c>
       <c r="F142" s="66">
-        <v>95.33</v>
+        <v>95.73</v>
       </c>
       <c r="H142" s="66">
-        <v>24.23</v>
+        <v>24.13</v>
       </c>
       <c r="I142" s="66">
         <v>1.28</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="F143" s="66">
-        <v>98.21</v>
+        <v>98.22</v>
       </c>
       <c t="n" r="H143">
         <v>22.5</v>
@@ -9591,14 +9591,14 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c t="n" r="F144">
-        <v>97.8</v>
-      </c>
-      <c t="n" r="H144">
-        <v>22.6</v>
+      <c r="F144" s="66">
+        <v>98.11</v>
+      </c>
+      <c r="H144" s="66">
+        <v>22.53</v>
       </c>
       <c r="I144" s="66">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J144" s="66">
         <v>22.10</v>
@@ -9656,11 +9656,11 @@
           <t xml:space="preserve">2'000</t>
         </is>
       </c>
-      <c r="F145" s="66">
-        <v>93.56</v>
+      <c t="n" r="F145">
+        <v>93.7</v>
       </c>
       <c r="H145" s="66">
-        <v>26.45</v>
+        <v>26.41</v>
       </c>
       <c r="I145" s="66">
         <v>1.25</v>
@@ -9722,13 +9722,13 @@
         </is>
       </c>
       <c r="F146" s="66">
-        <v>98.37</v>
+        <v>98.95</v>
       </c>
       <c r="H146" s="66">
-        <v>22.52</v>
+        <v>22.39</v>
       </c>
       <c r="I146" s="66">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="J146" s="66">
         <v>22.15</v>
@@ -9787,10 +9787,10 @@
         </is>
       </c>
       <c r="F147" s="66">
-        <v>98.42</v>
+        <v>98.49</v>
       </c>
       <c r="H147" s="66">
-        <v>22.28</v>
+        <v>22.27</v>
       </c>
       <c r="I147" s="66">
         <v>2.25</v>
@@ -9854,11 +9854,11 @@
       <c r="E148" s="65">
         <v>58</v>
       </c>
-      <c r="F148" s="66">
-        <v>85.46</v>
-      </c>
-      <c r="H148" s="66">
-        <v>29.84</v>
+      <c r="F148" s="65">
+        <v>85</v>
+      </c>
+      <c r="H148" s="65">
+        <v>30</v>
       </c>
       <c r="I148" s="66">
         <v>4.24</v>
@@ -9868,7 +9868,7 @@
       </c>
       <c t="inlineStr" r="K148">
         <is>
-          <t xml:space="preserve">06-03-2025</t>
+          <t xml:space="preserve">05-06-2025</t>
         </is>
       </c>
       <c r="L148" s="65">
@@ -9925,15 +9925,15 @@
       <c r="H149" s="66">
         <v>22.09</v>
       </c>
-      <c t="n" r="I149">
-        <v>2.5</v>
+      <c r="I149" s="66">
+        <v>2.49</v>
       </c>
       <c r="J149" s="66">
         <v>22.15</v>
       </c>
       <c t="inlineStr" r="K149">
         <is>
-          <t xml:space="preserve">06-03-2025</t>
+          <t xml:space="preserve">05-06-2025</t>
         </is>
       </c>
       <c r="L149" s="65">
@@ -9982,11 +9982,11 @@
       <c r="E150" s="65">
         <v>200</v>
       </c>
-      <c r="F150" s="66">
-        <v>91.65</v>
+      <c t="n" r="F150">
+        <v>91.6</v>
       </c>
       <c r="H150" s="66">
-        <v>27.55</v>
+        <v>27.57</v>
       </c>
       <c r="I150" s="66">
         <v>2.21</v>
@@ -10048,23 +10048,23 @@
         </is>
       </c>
       <c r="F151" s="66">
-        <v>94.96</v>
+        <v>94.97</v>
       </c>
       <c t="n" r="G151">
-        <v>463.4</v>
+        <v>441.1</v>
       </c>
       <c r="H151" s="66">
-        <v>23.68</v>
+        <v>23.79</v>
       </c>
       <c r="I151" s="66">
         <v>4.33</v>
       </c>
       <c r="J151" s="66">
-        <v>22.49</v>
+        <v>22.59</v>
       </c>
       <c t="inlineStr" r="K151">
         <is>
-          <t xml:space="preserve">06-03-2025</t>
+          <t xml:space="preserve">06-04-2025</t>
         </is>
       </c>
       <c r="L151" s="65">
@@ -10116,13 +10116,13 @@
         </is>
       </c>
       <c r="F152" s="66">
-        <v>95.55</v>
+        <v>95.59</v>
       </c>
       <c r="H152" s="66">
-        <v>23.29</v>
+        <v>23.28</v>
       </c>
       <c r="I152" s="66">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="J152" s="66">
         <v>22.25</v>
@@ -10181,13 +10181,13 @@
         </is>
       </c>
       <c r="F153" s="66">
-        <v>99.48</v>
+        <v>97.91</v>
       </c>
       <c t="n" r="G153">
-        <v>103.2</v>
+        <v>176.2</v>
       </c>
       <c r="H153" s="66">
-        <v>21.95</v>
+        <v>22.31</v>
       </c>
       <c r="I153" s="66">
         <v>3.21</v>
@@ -10249,10 +10249,10 @@
         </is>
       </c>
       <c r="F154" s="66">
-        <v>97.42</v>
+        <v>97.44</v>
       </c>
       <c r="H154" s="66">
-        <v>22.79</v>
+        <v>22.78</v>
       </c>
       <c r="I154" s="66">
         <v>2.21</v>
@@ -10314,16 +10314,16 @@
         </is>
       </c>
       <c r="F155" s="66">
-        <v>84.79</v>
+        <v>84.55</v>
       </c>
       <c t="n" r="G155">
-        <v>1133.7</v>
+        <v>1132.7</v>
       </c>
       <c r="H155" s="66">
-        <v>27.41</v>
-      </c>
-      <c r="I155" s="66">
-        <v>3.21</v>
+        <v>27.49</v>
+      </c>
+      <c t="n" r="I155">
+        <v>3.2</v>
       </c>
       <c r="J155" s="66">
         <v>23.24</v>
@@ -10447,13 +10447,13 @@
         </is>
       </c>
       <c r="F157" s="66">
-        <v>97.58</v>
+        <v>97.59</v>
       </c>
       <c r="H157" s="66">
         <v>22.85</v>
       </c>
       <c r="I157" s="66">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="J157" s="66">
         <v>22.30</v>
@@ -10516,7 +10516,7 @@
         <v>28.57</v>
       </c>
       <c r="I158" s="66">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="J158" s="66">
         <v>26.00</v>
@@ -10579,11 +10579,11 @@
           <t xml:space="preserve">11'000</t>
         </is>
       </c>
-      <c t="n" r="F159">
-        <v>87.4</v>
+      <c r="F159" s="66">
+        <v>87.42</v>
       </c>
       <c r="H159" s="66">
-        <v>26.49</v>
+        <v>26.48</v>
       </c>
       <c r="I159" s="66">
         <v>2.65</v>
@@ -10650,10 +10650,10 @@
         </is>
       </c>
       <c r="F160" s="66">
-        <v>90.29</v>
+        <v>90.73</v>
       </c>
       <c r="H160" s="66">
-        <v>25.81</v>
+        <v>25.68</v>
       </c>
       <c r="I160" s="66">
         <v>2.09</v>
@@ -10713,13 +10713,13 @@
         <v>64</v>
       </c>
       <c r="F161" s="66">
-        <v>87.23</v>
+        <v>87.11</v>
       </c>
       <c r="H161" s="66">
-        <v>27.51</v>
+        <v>27.55</v>
       </c>
       <c r="I161" s="66">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="J161" s="66">
         <v>24.00</v>
@@ -10778,13 +10778,13 @@
         </is>
       </c>
       <c r="F162" s="66">
-        <v>88.57</v>
+        <v>89.34</v>
       </c>
       <c t="n" r="G162">
         <v>1373.4</v>
       </c>
       <c r="H162" s="66">
-        <v>28.34</v>
+        <v>28.09</v>
       </c>
       <c r="I162" s="66">
         <v>2.09</v>
@@ -10845,14 +10845,14 @@
           <t xml:space="preserve">85'000</t>
         </is>
       </c>
-      <c r="F163" s="66">
-        <v>93.23</v>
+      <c r="F163" s="65">
+        <v>94</v>
       </c>
       <c t="n" r="G163">
-        <v>290.9</v>
+        <v>303.9</v>
       </c>
       <c r="H163" s="66">
-        <v>23.81</v>
+        <v>23.62</v>
       </c>
       <c r="I163" s="66">
         <v>7.07</v>
@@ -10914,16 +10914,16 @@
         </is>
       </c>
       <c r="F164" s="66">
-        <v>94.45</v>
+        <v>94.47</v>
       </c>
       <c t="n" r="G164">
-        <v>388.1</v>
+        <v>389.5</v>
       </c>
       <c r="H164" s="66">
-        <v>23.42</v>
+        <v>23.41</v>
       </c>
       <c r="I164" s="66">
-        <v>4.03</v>
+        <v>4.02</v>
       </c>
       <c r="J164" s="66">
         <v>22.12</v>
@@ -10979,11 +10979,11 @@
       <c r="E165" s="65">
         <v>450</v>
       </c>
-      <c r="F165" s="66">
-        <v>96.99</v>
+      <c r="F165" s="65">
+        <v>97</v>
       </c>
       <c r="H165" s="66">
-        <v>25.78</v>
+        <v>25.77</v>
       </c>
       <c r="I165" s="66">
         <v>2.05</v>
@@ -11042,11 +11042,11 @@
       <c r="E166" s="65">
         <v>250</v>
       </c>
-      <c r="F166" s="66">
-        <v>85.55</v>
-      </c>
-      <c r="H166" s="66">
-        <v>28.05</v>
+      <c t="n" r="F166">
+        <v>85.4</v>
+      </c>
+      <c t="n" r="H166">
+        <v>28.1</v>
       </c>
       <c r="I166" s="66">
         <v>2.02</v>
@@ -11108,13 +11108,13 @@
         </is>
       </c>
       <c r="F167" s="66">
-        <v>93.43</v>
+        <v>93.64</v>
       </c>
       <c t="n" r="G167">
-        <v>502.2</v>
-      </c>
-      <c r="H167" s="66">
-        <v>24.16</v>
+        <v>503.8</v>
+      </c>
+      <c t="n" r="H167">
+        <v>24.1</v>
       </c>
       <c r="I167" s="66">
         <v>4.16</v>
@@ -11176,13 +11176,13 @@
         </is>
       </c>
       <c r="F168" s="66">
-        <v>94.82</v>
+        <v>94.55</v>
       </c>
       <c t="n" r="G168">
-        <v>434.6</v>
+        <v>443.9</v>
       </c>
       <c r="H168" s="66">
-        <v>23.39</v>
+        <v>23.46</v>
       </c>
       <c r="I168" s="66">
         <v>2.55</v>
@@ -11243,11 +11243,11 @@
           <t xml:space="preserve">25'000</t>
         </is>
       </c>
-      <c r="F169" s="66">
-        <v>95.46</v>
+      <c t="n" r="F169">
+        <v>95.2</v>
       </c>
       <c r="H169" s="66">
-        <v>23.36</v>
+        <v>23.42</v>
       </c>
       <c r="I169" s="66">
         <v>2.55</v>
@@ -11309,10 +11309,10 @@
         </is>
       </c>
       <c r="F170" s="66">
-        <v>97.89</v>
+        <v>97.96</v>
       </c>
       <c r="H170" s="66">
-        <v>22.78</v>
+        <v>22.76</v>
       </c>
       <c r="I170" s="66">
         <v>3.99</v>
@@ -11372,10 +11372,10 @@
         <v>124</v>
       </c>
       <c r="F171" s="66">
-        <v>80.46</v>
-      </c>
-      <c t="n" r="H171">
-        <v>28.9</v>
+        <v>80.23</v>
+      </c>
+      <c r="H171" s="66">
+        <v>28.98</v>
       </c>
       <c r="I171" s="66">
         <v>4.01</v>
@@ -11436,8 +11436,8 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c r="F172" s="66">
-        <v>98.88</v>
+      <c t="n" r="F172">
+        <v>98.9</v>
       </c>
       <c r="H172" s="66">
         <v>22.35</v>
@@ -11507,10 +11507,10 @@
         </is>
       </c>
       <c r="F173" s="66">
-        <v>99.85</v>
+        <v>99.92</v>
       </c>
       <c r="H173" s="66">
-        <v>21.28</v>
+        <v>21.27</v>
       </c>
       <c r="I173" s="66">
         <v>1.99</v>
@@ -11570,10 +11570,10 @@
         <v>400</v>
       </c>
       <c r="F174" s="66">
-        <v>95.62</v>
+        <v>95.67</v>
       </c>
       <c r="H174" s="66">
-        <v>26.15</v>
+        <v>26.13</v>
       </c>
       <c r="I174" s="66">
         <v>2.48</v>
@@ -11634,14 +11634,14 @@
           <t xml:space="preserve">15'000</t>
         </is>
       </c>
-      <c r="F175" s="66">
-        <v>95.55</v>
+      <c r="F175" s="65">
+        <v>96</v>
       </c>
       <c t="n" r="G175">
-        <v>298.7</v>
+        <v>287.1</v>
       </c>
       <c r="H175" s="66">
-        <v>23.17</v>
+        <v>23.06</v>
       </c>
       <c r="I175" s="66">
         <v>3.97</v>
@@ -11703,7 +11703,7 @@
         </is>
       </c>
       <c r="F176" s="66">
-        <v>98.76</v>
+        <v>98.74</v>
       </c>
       <c r="H176" s="66">
         <v>22.58</v>
@@ -11768,16 +11768,16 @@
         </is>
       </c>
       <c t="n" r="F177">
-        <v>98.4</v>
-      </c>
-      <c t="n" r="G177">
-        <v>267.2</v>
-      </c>
-      <c t="n" r="H177">
-        <v>22.5</v>
+        <v>98.2</v>
+      </c>
+      <c r="G177" s="65">
+        <v>246</v>
+      </c>
+      <c r="H177" s="66">
+        <v>22.55</v>
       </c>
       <c r="I177" s="66">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="J177" s="66">
         <v>22.14</v>
@@ -11836,13 +11836,13 @@
         </is>
       </c>
       <c r="F178" s="66">
-        <v>87.63</v>
+        <v>87.65</v>
       </c>
       <c r="H178" s="66">
-        <v>26.59</v>
-      </c>
-      <c r="I178" s="66">
-        <v>2.21</v>
+        <v>26.58</v>
+      </c>
+      <c t="n" r="I178">
+        <v>2.2</v>
       </c>
       <c r="J178" s="66">
         <v>23.30</v>
@@ -11906,16 +11906,16 @@
         </is>
       </c>
       <c r="F179" s="66">
-        <v>94.89</v>
+        <v>95.03</v>
       </c>
       <c t="n" r="G179">
-        <v>325.5</v>
-      </c>
-      <c r="H179" s="66">
-        <v>23.33</v>
+        <v>325.2</v>
+      </c>
+      <c t="n" r="H179">
+        <v>23.3</v>
       </c>
       <c r="I179" s="66">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
       <c r="J179" s="66">
         <v>22.14</v>
@@ -11972,13 +11972,13 @@
         <v>500</v>
       </c>
       <c r="F180" s="66">
-        <v>89.38</v>
+        <v>88.42</v>
       </c>
       <c r="H180" s="66">
-        <v>26.85</v>
-      </c>
-      <c r="I180" s="66">
-        <v>1.91</v>
+        <v>27.14</v>
+      </c>
+      <c t="n" r="I180">
+        <v>1.9</v>
       </c>
       <c r="J180" s="66">
         <v>24.00</v>
@@ -12042,16 +12042,16 @@
         </is>
       </c>
       <c r="F181" s="66">
-        <v>84.52</v>
+        <v>84.55</v>
       </c>
       <c t="n" r="G181">
-        <v>1106.6</v>
+        <v>1115.1</v>
       </c>
       <c r="H181" s="66">
-        <v>26.88</v>
+        <v>26.87</v>
       </c>
       <c r="I181" s="66">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="J181" s="66">
         <v>22.72</v>
@@ -12107,11 +12107,11 @@
       <c r="E182" s="65">
         <v>150</v>
       </c>
-      <c t="n" r="F182">
-        <v>92.8</v>
+      <c r="F182" s="66">
+        <v>92.64</v>
       </c>
       <c r="H182" s="66">
-        <v>23.71</v>
+        <v>23.75</v>
       </c>
       <c t="n" r="I182">
         <v>1.9</v>
@@ -12172,11 +12172,11 @@
           <t xml:space="preserve">42'000</t>
         </is>
       </c>
-      <c r="F183" s="66">
-        <v>98.63</v>
+      <c t="n" r="F183">
+        <v>98.6</v>
       </c>
       <c t="n" r="G183">
-        <v>282.7</v>
+        <v>271.7</v>
       </c>
       <c r="H183" s="66">
         <v>22.32</v>
@@ -12239,10 +12239,10 @@
         <v>400</v>
       </c>
       <c r="F184" s="66">
-        <v>99.01</v>
+        <v>99.03</v>
       </c>
       <c r="H184" s="66">
-        <v>25.25</v>
+        <v>25.24</v>
       </c>
       <c r="I184" s="66">
         <v>0.17</v>
@@ -12434,14 +12434,14 @@
           <t xml:space="preserve">7'000</t>
         </is>
       </c>
-      <c r="F187" s="66">
-        <v>93.42</v>
+      <c t="n" r="F187">
+        <v>93.9</v>
       </c>
       <c r="H187" s="66">
-        <v>25.16</v>
-      </c>
-      <c r="I187" s="66">
-        <v>1.81</v>
+        <v>25.03</v>
+      </c>
+      <c t="n" r="I187">
+        <v>1.8</v>
       </c>
       <c r="J187" s="66">
         <v>23.50</v>
@@ -12500,10 +12500,10 @@
         </is>
       </c>
       <c r="F188" s="66">
-        <v>99.93</v>
+        <v>100.11</v>
       </c>
       <c r="H188" s="66">
-        <v>22.32</v>
+        <v>22.28</v>
       </c>
       <c r="I188" s="66">
         <v>1.77</v>
@@ -12565,13 +12565,13 @@
         </is>
       </c>
       <c r="F189" s="66">
-        <v>97.58</v>
+        <v>97.33</v>
       </c>
       <c t="n" r="G189">
-        <v>272.1</v>
+        <v>265.5</v>
       </c>
       <c r="H189" s="66">
-        <v>22.73</v>
+        <v>22.79</v>
       </c>
       <c t="n" r="I189">
         <v>2.8</v>
@@ -12633,16 +12633,16 @@
         </is>
       </c>
       <c r="F190" s="66">
-        <v>84.86</v>
+        <v>84.71</v>
       </c>
       <c t="n" r="G190">
-        <v>1126.9</v>
-      </c>
-      <c t="n" r="H190">
-        <v>26.7</v>
-      </c>
-      <c t="n" r="I190">
-        <v>2.8</v>
+        <v>1130.2</v>
+      </c>
+      <c r="H190" s="66">
+        <v>26.75</v>
+      </c>
+      <c r="I190" s="66">
+        <v>2.79</v>
       </c>
       <c r="J190" s="66">
         <v>22.66</v>
@@ -12701,10 +12701,10 @@
         </is>
       </c>
       <c r="F191" s="66">
-        <v>95.36</v>
+        <v>95.66</v>
       </c>
       <c r="H191" s="66">
-        <v>24.64</v>
+        <v>24.57</v>
       </c>
       <c r="I191" s="66">
         <v>1.76</v>
@@ -12833,14 +12833,14 @@
       <c r="F193" s="66">
         <v>100.39</v>
       </c>
-      <c t="n" r="G193">
-        <v>65.9</v>
+      <c r="G193" s="65">
+        <v>66</v>
       </c>
       <c r="H193" s="66">
         <v>21.87</v>
       </c>
       <c r="I193" s="66">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="J193" s="66">
         <v>21.96</v>
@@ -12898,11 +12898,11 @@
           <t xml:space="preserve">12'697</t>
         </is>
       </c>
-      <c t="n" r="F194">
-        <v>95.5</v>
+      <c r="F194" s="66">
+        <v>95.24</v>
       </c>
       <c r="H194" s="66">
-        <v>21.99</v>
+        <v>22.05</v>
       </c>
       <c r="I194" s="66">
         <v>2.29</v>
@@ -12963,14 +12963,14 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c t="n" r="F195">
-        <v>90.9</v>
+      <c r="F195" s="66">
+        <v>91.54</v>
       </c>
       <c t="n" r="G195">
-        <v>521.3</v>
+        <v>488.7</v>
       </c>
       <c r="H195" s="66">
-        <v>24.79</v>
+        <v>24.61</v>
       </c>
       <c r="I195" s="66">
         <v>3.78</v>
@@ -13032,13 +13032,13 @@
         </is>
       </c>
       <c r="F196" s="66">
-        <v>95.49</v>
+        <v>95.73</v>
       </c>
       <c t="n" r="G196">
-        <v>370.4</v>
+        <v>361.1</v>
       </c>
       <c r="H196" s="66">
-        <v>23.16</v>
+        <v>23.11</v>
       </c>
       <c r="I196" s="66">
         <v>2.78</v>
@@ -13100,13 +13100,13 @@
         </is>
       </c>
       <c r="F197" s="66">
-        <v>94.59</v>
+        <v>94.56</v>
       </c>
       <c t="n" r="G197">
-        <v>695.2</v>
+        <v>694.4</v>
       </c>
       <c r="H197" s="66">
-        <v>24.55</v>
+        <v>24.56</v>
       </c>
       <c r="I197" s="66">
         <v>1.78</v>
@@ -13168,10 +13168,10 @@
         </is>
       </c>
       <c r="F198" s="66">
-        <v>95.34</v>
+        <v>95.07</v>
       </c>
       <c r="H198" s="66">
-        <v>24.45</v>
+        <v>24.52</v>
       </c>
       <c r="I198" s="66">
         <v>1.78</v>
@@ -13233,10 +13233,10 @@
         </is>
       </c>
       <c r="F199" s="66">
-        <v>97.87</v>
+        <v>97.93</v>
       </c>
       <c r="H199" s="66">
-        <v>22.63</v>
+        <v>22.62</v>
       </c>
       <c r="I199" s="66">
         <v>2.73</v>
@@ -13298,10 +13298,10 @@
         </is>
       </c>
       <c r="F200" s="66">
-        <v>99.99</v>
+        <v>99.87</v>
       </c>
       <c r="H200" s="66">
-        <v>22.15</v>
+        <v>22.18</v>
       </c>
       <c r="I200" s="66">
         <v>1.73</v>
@@ -13362,11 +13362,11 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c r="F201" s="66">
-        <v>96.08</v>
+      <c t="n" r="F201">
+        <v>96.2</v>
       </c>
       <c r="H201" s="66">
-        <v>22.95</v>
+        <v>22.92</v>
       </c>
       <c r="I201" s="66">
         <v>4.77</v>
@@ -13376,7 +13376,7 @@
       </c>
       <c t="inlineStr" r="K201">
         <is>
-          <t xml:space="preserve">06-03-2025</t>
+          <t xml:space="preserve">05-04-2025</t>
         </is>
       </c>
       <c r="L201" s="65">
@@ -13432,7 +13432,7 @@
         <v>21.17</v>
       </c>
       <c r="I202" s="66">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="J202" s="66">
         <v>18.00</v>
@@ -13495,17 +13495,17 @@
           <t xml:space="preserve">8'000</t>
         </is>
       </c>
-      <c r="F203" s="65">
-        <v>66</v>
+      <c r="F203" s="66">
+        <v>80.33</v>
       </c>
       <c t="n" r="G203">
-        <v>8879.6</v>
+        <v>7191.4</v>
       </c>
       <c r="H203" s="66">
-        <v>35.02</v>
+        <v>28.77</v>
       </c>
       <c r="I203" s="66">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="J203" s="66">
         <v>23.11</v>
@@ -13564,16 +13564,16 @@
         </is>
       </c>
       <c r="F204" s="66">
-        <v>90.18</v>
+        <v>90.05</v>
       </c>
       <c t="n" r="G204">
-        <v>1644.5</v>
+        <v>1518.7</v>
       </c>
       <c r="H204" s="66">
-        <v>27.28</v>
-      </c>
-      <c t="n" r="I204">
-        <v>1.5</v>
+        <v>27.32</v>
+      </c>
+      <c r="I204" s="66">
+        <v>1.49</v>
       </c>
       <c r="J204" s="66">
         <v>24.60</v>
@@ -13632,10 +13632,10 @@
         </is>
       </c>
       <c r="F205" s="66">
-        <v>97.59</v>
+        <v>97.71</v>
       </c>
       <c r="H205" s="66">
-        <v>22.44</v>
+        <v>22.41</v>
       </c>
       <c t="n" r="I205">
         <v>2.2</v>
@@ -13697,10 +13697,10 @@
         </is>
       </c>
       <c r="F206" s="66">
-        <v>98.56</v>
+        <v>98.48</v>
       </c>
       <c r="H206" s="66">
-        <v>21.31</v>
+        <v>21.32</v>
       </c>
       <c r="I206" s="66">
         <v>1.74</v>
@@ -13761,11 +13761,11 @@
           <t xml:space="preserve">40'000</t>
         </is>
       </c>
-      <c t="n" r="F207">
-        <v>93.2</v>
-      </c>
-      <c r="G207" s="65">
-        <v>375</v>
+      <c r="F207" s="66">
+        <v>93.21</v>
+      </c>
+      <c t="n" r="G207">
+        <v>376.7</v>
       </c>
       <c r="H207" s="66">
         <v>23.87</v>
@@ -13829,11 +13829,11 @@
           <t xml:space="preserve">15'000</t>
         </is>
       </c>
-      <c r="F208" s="65">
-        <v>97</v>
+      <c r="F208" s="66">
+        <v>97.01</v>
       </c>
       <c r="H208" s="66">
-        <v>22.89</v>
+        <v>22.88</v>
       </c>
       <c r="I208" s="66">
         <v>2.72</v>
@@ -13892,11 +13892,11 @@
       <c r="E209" s="65">
         <v>225</v>
       </c>
-      <c r="F209" s="66">
-        <v>91.76</v>
-      </c>
-      <c r="H209" s="66">
-        <v>26.16</v>
+      <c t="n" r="F209">
+        <v>91.6</v>
+      </c>
+      <c t="n" r="H209">
+        <v>26.2</v>
       </c>
       <c r="I209" s="66">
         <v>3.65</v>
@@ -13958,13 +13958,13 @@
         </is>
       </c>
       <c r="F210" s="66">
-        <v>93.26</v>
+        <v>93.22</v>
       </c>
       <c t="n" r="G210">
-        <v>420.4</v>
-      </c>
-      <c r="H210" s="66">
-        <v>23.69</v>
+        <v>421.1</v>
+      </c>
+      <c t="n" r="H210">
+        <v>23.7</v>
       </c>
       <c t="n" r="I210">
         <v>3.7</v>
@@ -14026,10 +14026,10 @@
         </is>
       </c>
       <c r="F211" s="66">
-        <v>95.33</v>
+        <v>95.69</v>
       </c>
       <c r="H211" s="66">
-        <v>24.13</v>
+        <v>24.04</v>
       </c>
       <c r="I211" s="66">
         <v>1.69</v>
@@ -14095,14 +14095,14 @@
           <t xml:space="preserve">34'000</t>
         </is>
       </c>
-      <c t="n" r="F212">
-        <v>96.9</v>
+      <c r="F212" s="66">
+        <v>96.99</v>
       </c>
       <c t="n" r="G212">
-        <v>287.5</v>
+        <v>278.6</v>
       </c>
       <c r="H212" s="66">
-        <v>22.81</v>
+        <v>22.79</v>
       </c>
       <c r="I212" s="66">
         <v>2.66</v>
@@ -14164,10 +14164,10 @@
         </is>
       </c>
       <c r="F213" s="66">
-        <v>99.17</v>
+        <v>98.95</v>
       </c>
       <c r="H213" s="66">
-        <v>22.28</v>
+        <v>22.33</v>
       </c>
       <c r="I213" s="66">
         <v>1.62</v>
@@ -14229,16 +14229,16 @@
         </is>
       </c>
       <c r="F214" s="66">
-        <v>90.45</v>
+        <v>90.42</v>
       </c>
       <c t="n" r="G214">
-        <v>795.5</v>
+        <v>815.5</v>
       </c>
       <c r="H214" s="66">
-        <v>25.47</v>
+        <v>25.48</v>
       </c>
       <c r="I214" s="66">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="J214" s="66">
         <v>23.04</v>
@@ -14301,14 +14301,14 @@
           <t xml:space="preserve">25'000</t>
         </is>
       </c>
-      <c r="F215" s="66">
-        <v>93.74</v>
+      <c t="n" r="F215">
+        <v>93.8</v>
       </c>
       <c t="n" r="G215">
-        <v>464.1</v>
-      </c>
-      <c r="H215" s="66">
-        <v>23.51</v>
+        <v>467.9</v>
+      </c>
+      <c t="n" r="H215">
+        <v>23.5</v>
       </c>
       <c r="I215" s="66">
         <v>2.64</v>
@@ -14367,11 +14367,11 @@
       <c r="E216" s="65">
         <v>200</v>
       </c>
-      <c r="F216" s="66">
-        <v>82.23</v>
+      <c t="n" r="F216">
+        <v>83.5</v>
       </c>
       <c r="H216" s="66">
-        <v>26.75</v>
+        <v>26.35</v>
       </c>
       <c r="I216" s="66">
         <v>0.13</v>
@@ -14438,13 +14438,13 @@
         </is>
       </c>
       <c r="F217" s="66">
-        <v>92.55</v>
+        <v>93.18</v>
       </c>
       <c t="n" r="G217">
-        <v>792.7</v>
+        <v>832.2</v>
       </c>
       <c r="H217" s="66">
-        <v>24.83</v>
+        <v>24.66</v>
       </c>
       <c r="I217" s="66">
         <v>1.63</v>
@@ -14506,13 +14506,13 @@
         </is>
       </c>
       <c r="F218" s="66">
-        <v>96.38</v>
+        <v>96.37</v>
       </c>
       <c r="H218" s="66">
-        <v>23.03</v>
+        <v>23.04</v>
       </c>
       <c r="I218" s="66">
-        <v>3.59</v>
+        <v>3.58</v>
       </c>
       <c r="J218" s="66">
         <v>22.20</v>
@@ -14571,13 +14571,13 @@
         </is>
       </c>
       <c r="F219" s="66">
-        <v>94.99</v>
-      </c>
-      <c r="G219" s="65">
-        <v>369</v>
+        <v>95.14</v>
+      </c>
+      <c t="n" r="G219">
+        <v>356.7</v>
       </c>
       <c r="H219" s="66">
-        <v>23.15</v>
+        <v>23.11</v>
       </c>
       <c r="I219" s="66">
         <v>3.08</v>
@@ -14639,13 +14639,13 @@
         </is>
       </c>
       <c r="F220" s="66">
-        <v>94.65</v>
+        <v>94.61</v>
       </c>
       <c t="n" r="G220">
-        <v>400.4</v>
+        <v>389.7</v>
       </c>
       <c r="H220" s="66">
-        <v>23.23</v>
+        <v>23.24</v>
       </c>
       <c r="I220" s="66">
         <v>3.08</v>
@@ -14707,13 +14707,13 @@
         </is>
       </c>
       <c r="F221" s="66">
-        <v>95.54</v>
+        <v>95.53</v>
       </c>
       <c t="n" r="G221">
-        <v>323.6</v>
+        <v>315.8</v>
       </c>
       <c r="H221" s="66">
-        <v>22.95</v>
+        <v>22.96</v>
       </c>
       <c r="I221" s="66">
         <v>5.55</v>
@@ -14773,10 +14773,10 @@
         <v>102</v>
       </c>
       <c r="F222" s="66">
-        <v>99.75</v>
-      </c>
-      <c r="H222" s="66">
-        <v>27.57</v>
+        <v>99.65</v>
+      </c>
+      <c t="n" r="H222">
+        <v>27.6</v>
       </c>
       <c r="I222" s="66">
         <v>0.64</v>
@@ -14843,16 +14843,16 @@
         </is>
       </c>
       <c r="F223" s="66">
-        <v>94.35</v>
-      </c>
-      <c t="n" r="G223">
-        <v>91.4</v>
+        <v>94.33</v>
+      </c>
+      <c r="G223" s="65">
+        <v>91</v>
       </c>
       <c r="H223" s="66">
         <v>22.08</v>
       </c>
       <c r="I223" s="66">
-        <v>12.45</v>
+        <v>12.44</v>
       </c>
       <c r="J223" s="66">
         <v>20.83</v>
@@ -14910,17 +14910,17 @@
           <t xml:space="preserve">15'000</t>
         </is>
       </c>
-      <c r="F224" s="66">
-        <v>85.61</v>
+      <c t="n" r="F224">
+        <v>85.8</v>
       </c>
       <c t="n" r="G224">
-        <v>1133.4</v>
+        <v>1142.1</v>
       </c>
       <c r="H224" s="66">
-        <v>26.42</v>
+        <v>26.36</v>
       </c>
       <c r="I224" s="66">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="J224" s="66">
         <v>22.62</v>
@@ -15109,17 +15109,17 @@
           <t xml:space="preserve">30'000</t>
         </is>
       </c>
-      <c r="F227" s="66">
-        <v>100.02</v>
+      <c t="n" r="F227">
+        <v>99.9</v>
       </c>
       <c t="n" r="G227">
-        <v>162.2</v>
+        <v>162.6</v>
       </c>
       <c r="H227" s="66">
-        <v>21.96</v>
+        <v>21.98</v>
       </c>
       <c r="I227" s="66">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="J227" s="66">
         <v>21.96</v>
@@ -15178,10 +15178,10 @@
         </is>
       </c>
       <c r="F228" s="66">
-        <v>98.41</v>
+        <v>98.18</v>
       </c>
       <c r="H228" s="66">
-        <v>21.34</v>
+        <v>21.39</v>
       </c>
       <c r="I228" s="66">
         <v>1.49</v>
@@ -15243,16 +15243,16 @@
         </is>
       </c>
       <c r="F229" s="66">
-        <v>97.85</v>
+        <v>98.64</v>
       </c>
       <c t="n" r="G229">
-        <v>231.3</v>
+        <v>221.8</v>
       </c>
       <c r="H229" s="66">
-        <v>22.61</v>
+        <v>22.42</v>
       </c>
       <c r="I229" s="66">
-        <v>2.48</v>
+        <v>2.47</v>
       </c>
       <c r="J229" s="66">
         <v>22.12</v>
@@ -15314,7 +15314,7 @@
         <v>94.5</v>
       </c>
       <c t="n" r="G230">
-        <v>317.2</v>
+        <v>333.6</v>
       </c>
       <c r="H230" s="66">
         <v>23.92</v>
@@ -15382,13 +15382,13 @@
         <v>96.9</v>
       </c>
       <c t="n" r="G231">
-        <v>328.9</v>
+        <v>315.3</v>
       </c>
       <c r="H231" s="66">
         <v>22.72</v>
       </c>
       <c r="I231" s="66">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="J231" s="66">
         <v>22.02</v>
@@ -15446,14 +15446,14 @@
           <t xml:space="preserve">6'000</t>
         </is>
       </c>
-      <c r="F232" s="65">
-        <v>94</v>
-      </c>
-      <c t="n" r="G232">
-        <v>422.9</v>
-      </c>
-      <c r="H232" s="66">
-        <v>24.26</v>
+      <c r="F232" s="66">
+        <v>93.81</v>
+      </c>
+      <c r="G232" s="65">
+        <v>432</v>
+      </c>
+      <c t="n" r="H232">
+        <v>24.3</v>
       </c>
       <c r="I232" s="66">
         <v>3.34</v>
@@ -15655,10 +15655,10 @@
         </is>
       </c>
       <c r="F235" s="66">
-        <v>97.27</v>
+        <v>97.26</v>
       </c>
       <c t="n" r="G235">
-        <v>248.3</v>
+        <v>248.7</v>
       </c>
       <c r="H235" s="66">
         <v>22.76</v>
@@ -15722,17 +15722,17 @@
           <t xml:space="preserve">25'000</t>
         </is>
       </c>
-      <c r="F236" s="66">
-        <v>99.46</v>
+      <c t="n" r="F236">
+        <v>99.5</v>
       </c>
       <c t="n" r="G236">
-        <v>251.3</v>
+        <v>249.7</v>
       </c>
       <c r="H236" s="66">
-        <v>22.49</v>
+        <v>22.48</v>
       </c>
       <c r="I236" s="66">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="J236" s="66">
         <v>22.37</v>
@@ -15791,10 +15791,10 @@
         </is>
       </c>
       <c r="F237" s="66">
-        <v>88.98</v>
+        <v>89.06</v>
       </c>
       <c r="H237" s="66">
-        <v>22.48</v>
+        <v>22.46</v>
       </c>
       <c r="I237" s="66">
         <v>2.17</v>
@@ -15856,16 +15856,16 @@
         </is>
       </c>
       <c r="F238" s="66">
-        <v>94.77</v>
+        <v>94.69</v>
       </c>
       <c t="n" r="G238">
-        <v>89.4</v>
+        <v>90.8</v>
       </c>
       <c r="H238" s="66">
-        <v>21.94</v>
+        <v>21.96</v>
       </c>
       <c r="I238" s="66">
-        <v>10.13</v>
+        <v>10.12</v>
       </c>
       <c r="J238" s="66">
         <v>20.79</v>
@@ -15992,10 +15992,10 @@
         </is>
       </c>
       <c r="F240" s="66">
-        <v>96.52</v>
-      </c>
-      <c t="n" r="H240">
-        <v>23.1</v>
+        <v>96.51</v>
+      </c>
+      <c r="H240" s="66">
+        <v>23.11</v>
       </c>
       <c r="I240" s="66">
         <v>3.11</v>
@@ -16056,17 +16056,17 @@
           <t xml:space="preserve">40'000</t>
         </is>
       </c>
-      <c r="F241" s="66">
-        <v>94.85</v>
+      <c r="F241" s="65">
+        <v>95</v>
       </c>
       <c t="n" r="G241">
-        <v>368.7</v>
-      </c>
-      <c r="H241" s="66">
-        <v>23.24</v>
+        <v>367.8</v>
+      </c>
+      <c t="n" r="H241">
+        <v>23.2</v>
       </c>
       <c r="I241" s="66">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="J241" s="66">
         <v>22.04</v>
@@ -16124,8 +16124,8 @@
           <t xml:space="preserve">2'978</t>
         </is>
       </c>
-      <c t="n" r="F242">
-        <v>95.3</v>
+      <c r="F242" s="66">
+        <v>95.29</v>
       </c>
       <c r="H242" s="66">
         <v>25.55</v>
@@ -16189,11 +16189,11 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c t="n" r="F243">
-        <v>97.3</v>
+      <c r="F243" s="66">
+        <v>97.42</v>
       </c>
       <c r="H243" s="66">
-        <v>22.92</v>
+        <v>22.89</v>
       </c>
       <c r="I243" s="66">
         <v>3.04</v>
@@ -16255,13 +16255,13 @@
         </is>
       </c>
       <c r="F244" s="66">
-        <v>94.43</v>
+        <v>94.24</v>
       </c>
       <c t="n" r="G244">
-        <v>350.8</v>
+        <v>358.9</v>
       </c>
       <c r="H244" s="66">
-        <v>23.76</v>
+        <v>23.81</v>
       </c>
       <c r="I244" s="66">
         <v>5.54</v>
@@ -16329,7 +16329,7 @@
         <v>22.69</v>
       </c>
       <c r="I245" s="66">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="J245" s="66">
         <v>22.30</v>
@@ -16388,10 +16388,10 @@
         </is>
       </c>
       <c r="F246" s="66">
-        <v>99.27</v>
+        <v>98.01</v>
       </c>
       <c r="H246" s="66">
-        <v>22.46</v>
+        <v>22.75</v>
       </c>
       <c r="I246" s="66">
         <v>2.95</v>
@@ -16461,7 +16461,7 @@
         <v>99.52</v>
       </c>
       <c t="n" r="G247">
-        <v>126.6</v>
+        <v>137.3</v>
       </c>
       <c r="H247" s="66">
         <v>22.18</v>
@@ -16526,13 +16526,13 @@
         </is>
       </c>
       <c r="F248" s="66">
-        <v>97.37</v>
+        <v>97.64</v>
       </c>
       <c t="n" r="G248">
-        <v>21.8</v>
-      </c>
-      <c r="H248" s="66">
-        <v>21.36</v>
+        <v>25.9</v>
+      </c>
+      <c t="n" r="H248">
+        <v>21.3</v>
       </c>
       <c r="I248" s="66">
         <v>9.47</v>
@@ -16664,13 +16664,13 @@
         </is>
       </c>
       <c r="F250" s="66">
-        <v>97.59</v>
+        <v>97.58</v>
       </c>
       <c t="n" r="G250">
-        <v>29.4</v>
-      </c>
-      <c t="n" r="H250">
-        <v>21.3</v>
+        <v>28.4</v>
+      </c>
+      <c r="H250" s="66">
+        <v>21.31</v>
       </c>
       <c r="I250" s="66">
         <v>8.38</v>
@@ -16735,7 +16735,7 @@
         <v>97.14</v>
       </c>
       <c t="n" r="G251">
-        <v>63.4</v>
+        <v>61.7</v>
       </c>
       <c r="H251" s="66">
         <v>21.41</v>
@@ -16799,11 +16799,11 @@
           <t xml:space="preserve">7'000</t>
         </is>
       </c>
-      <c r="F252" s="66">
-        <v>100.06</v>
+      <c t="n" r="F252">
+        <v>100.1</v>
       </c>
       <c r="H252" s="66">
-        <v>22.19</v>
+        <v>22.18</v>
       </c>
       <c r="I252" s="66">
         <v>0.37</v>
@@ -16863,10 +16863,10 @@
         <v>150</v>
       </c>
       <c r="F253" s="66">
-        <v>104.96</v>
+        <v>106.08</v>
       </c>
       <c r="H253" s="66">
-        <v>28.58</v>
+        <v>28.28</v>
       </c>
       <c r="I253" s="66">
         <v>1.82</v>
@@ -16990,11 +16990,11 @@
       <c r="E255" s="65">
         <v>150</v>
       </c>
-      <c r="F255" s="66">
-        <v>99.98</v>
-      </c>
-      <c r="H255" s="66">
-        <v>25.01</v>
+      <c r="F255" s="65">
+        <v>100</v>
+      </c>
+      <c r="H255" s="65">
+        <v>25</v>
       </c>
       <c r="I255" s="66">
         <v>0.19</v>
@@ -17247,10 +17247,10 @@
         <v>124</v>
       </c>
       <c r="F259" s="66">
-        <v>90.96</v>
+        <v>90.62</v>
       </c>
       <c r="H259" s="66">
-        <v>17.32</v>
+        <v>17.38</v>
       </c>
       <c r="I259" s="66">
         <v>0.07</v>
@@ -17315,13 +17315,13 @@
         <v>350</v>
       </c>
       <c r="F260" s="66">
-        <v>100.18</v>
+        <v>100.24</v>
       </c>
       <c r="H260" s="66">
-        <v>27.45</v>
+        <v>27.43</v>
       </c>
       <c r="I260" s="66">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="J260" s="66">
         <v>27.50</v>
@@ -17385,13 +17385,13 @@
         </is>
       </c>
       <c r="F261" s="66">
-        <v>97.91</v>
-      </c>
-      <c t="n" r="G261">
-        <v>514.9</v>
-      </c>
-      <c t="n" r="H261">
-        <v>23.5</v>
+        <v>97.65</v>
+      </c>
+      <c r="G261" s="65">
+        <v>497</v>
+      </c>
+      <c r="H261" s="66">
+        <v>23.56</v>
       </c>
       <c r="I261" s="66">
         <v>0.77</v>
@@ -17452,14 +17452,14 @@
           <t xml:space="preserve">50'000</t>
         </is>
       </c>
-      <c t="n" r="F262">
-        <v>96.7</v>
-      </c>
-      <c t="n" r="G262">
-        <v>274.1</v>
+      <c r="F262" s="66">
+        <v>96.75</v>
+      </c>
+      <c r="G262" s="65">
+        <v>285</v>
       </c>
       <c r="H262" s="66">
-        <v>23.09</v>
+        <v>23.08</v>
       </c>
       <c r="I262" s="66">
         <v>3.62</v>
@@ -17514,10 +17514,10 @@
         <v>200</v>
       </c>
       <c r="F263" s="66">
-        <v>80.28</v>
+        <v>81.87</v>
       </c>
       <c r="H263" s="66">
-        <v>16.19</v>
+        <v>15.88</v>
       </c>
       <c r="I263" s="66">
         <v>0.59</v>
@@ -17585,7 +17585,7 @@
         <v>28.89</v>
       </c>
       <c r="I264" s="66">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="J264" s="66">
         <v>22.75</v>
@@ -17713,11 +17713,11 @@
           <t xml:space="preserve">7'000</t>
         </is>
       </c>
-      <c t="n" r="F266">
-        <v>88.3</v>
+      <c r="F266" s="66">
+        <v>89.51</v>
       </c>
       <c r="H266" s="66">
-        <v>26.22</v>
+        <v>25.86</v>
       </c>
       <c r="I266" s="66">
         <v>3.01</v>
@@ -17789,8 +17789,8 @@
       <c r="H267" s="66">
         <v>33.45</v>
       </c>
-      <c r="I267" s="66">
-        <v>1.71</v>
+      <c t="n" r="I267">
+        <v>1.7</v>
       </c>
       <c r="J267" s="66">
         <v>24.75</v>
@@ -17849,10 +17849,10 @@
         </is>
       </c>
       <c r="F268" s="66">
-        <v>90.81</v>
+        <v>90.99</v>
       </c>
       <c r="H268" s="66">
-        <v>25.44</v>
+        <v>25.39</v>
       </c>
       <c r="I268" s="66">
         <v>3.52</v>
@@ -17918,14 +17918,14 @@
           <t xml:space="preserve">294'545</t>
         </is>
       </c>
-      <c r="F269" s="66">
-        <v>98.41</v>
+      <c t="n" r="F269">
+        <v>98.6</v>
       </c>
       <c t="n" r="G269">
-        <v>39.8</v>
+        <v>42.8</v>
       </c>
       <c r="H269" s="66">
-        <v>21.08</v>
+        <v>21.03</v>
       </c>
       <c r="I269" s="66">
         <v>2.55</v>
@@ -17986,14 +17986,14 @@
           <t xml:space="preserve">427'747</t>
         </is>
       </c>
-      <c r="F270" s="66">
-        <v>97.39</v>
-      </c>
-      <c t="n" r="G270">
-        <v>37.1</v>
+      <c t="n" r="F270">
+        <v>97.6</v>
+      </c>
+      <c r="G270" s="65">
+        <v>37</v>
       </c>
       <c r="H270" s="66">
-        <v>21.36</v>
+        <v>21.31</v>
       </c>
       <c r="I270" s="66">
         <v>6.73</v>
@@ -18055,13 +18055,13 @@
         </is>
       </c>
       <c r="F271" s="66">
-        <v>98.05</v>
+        <v>98.03</v>
       </c>
       <c t="n" r="G271">
-        <v>35.6</v>
+        <v>36.1</v>
       </c>
       <c r="H271" s="66">
-        <v>21.22</v>
+        <v>21.23</v>
       </c>
       <c r="I271" s="66">
         <v>4.37</v>
@@ -18123,13 +18123,13 @@
         </is>
       </c>
       <c r="F272" s="66">
-        <v>97.35</v>
+        <v>97.19</v>
       </c>
       <c t="n" r="G272">
-        <v>42.9</v>
-      </c>
-      <c r="H272" s="66">
-        <v>21.37</v>
+        <v>44.5</v>
+      </c>
+      <c t="n" r="H272">
+        <v>21.4</v>
       </c>
       <c r="I272" s="66">
         <v>7.48</v>
@@ -18191,13 +18191,13 @@
         </is>
       </c>
       <c r="F273" s="66">
-        <v>98.46</v>
+        <v>98.31</v>
       </c>
       <c t="n" r="G273">
-        <v>39.7</v>
+        <v>32.8</v>
       </c>
       <c r="H273" s="66">
-        <v>21.14</v>
+        <v>21.17</v>
       </c>
       <c r="I273" s="66">
         <v>3.62</v>
@@ -18262,7 +18262,7 @@
         <v>99.3</v>
       </c>
       <c t="n" r="G274">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H274" s="66">
         <v>20.89</v>
@@ -18327,13 +18327,13 @@
         </is>
       </c>
       <c r="F275" s="66">
-        <v>94.41</v>
+        <v>94.44</v>
       </c>
       <c r="H275" s="66">
-        <v>25.16</v>
+        <v>25.15</v>
       </c>
       <c r="I275" s="66">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="J275" s="66">
         <v>23.75</v>
@@ -18400,7 +18400,7 @@
         <v>99.82</v>
       </c>
       <c t="n" r="G276">
-        <v>-35.8</v>
+        <v>-35.9</v>
       </c>
       <c r="H276" s="66">
         <v>20.78</v>
@@ -18464,11 +18464,11 @@
           <t xml:space="preserve">427'467</t>
         </is>
       </c>
-      <c t="n" r="F277">
-        <v>97.1</v>
+      <c r="F277" s="66">
+        <v>97.08</v>
       </c>
       <c t="n" r="G277">
-        <v>64.9</v>
+        <v>59.1</v>
       </c>
       <c r="H277" s="66">
         <v>21.36</v>
@@ -18590,14 +18590,14 @@
       <c r="E279" s="65">
         <v>400</v>
       </c>
-      <c r="F279" s="66">
-        <v>100.89</v>
+      <c t="n" r="F279">
+        <v>100.9</v>
       </c>
       <c r="H279" s="66">
         <v>26.76</v>
       </c>
       <c r="I279" s="66">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="J279" s="66">
         <v>27.00</v>
@@ -18656,7 +18656,7 @@
         </is>
       </c>
       <c r="F280" s="66">
-        <v>99.73</v>
+        <v>99.77</v>
       </c>
       <c r="H280" s="66">
         <v>20.25</v>
@@ -18786,11 +18786,11 @@
       <c r="E282" s="65">
         <v>300</v>
       </c>
-      <c t="n" r="F282">
-        <v>101.7</v>
-      </c>
-      <c r="H282" s="66">
-        <v>26.79</v>
+      <c r="F282" s="66">
+        <v>101.68</v>
+      </c>
+      <c t="n" r="H282">
+        <v>26.8</v>
       </c>
       <c r="I282" s="66">
         <v>3.88</v>
@@ -18851,11 +18851,11 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c t="n" r="F283">
-        <v>90.6</v>
+      <c r="F283" s="66">
+        <v>90.82</v>
       </c>
       <c r="H283" s="66">
-        <v>25.94</v>
+        <v>25.88</v>
       </c>
       <c r="I283" s="66">
         <v>3.55</v>
@@ -18922,10 +18922,10 @@
         </is>
       </c>
       <c r="F284" s="66">
-        <v>100.85</v>
+        <v>102.55</v>
       </c>
       <c r="H284" s="66">
-        <v>19.34</v>
+        <v>19.02</v>
       </c>
       <c r="I284" s="66">
         <v>3.05</v>
@@ -18991,7 +18991,7 @@
         <v>22.88</v>
       </c>
       <c r="I285" s="66">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
       <c r="J285" s="66">
         <v>24.00</v>
@@ -19054,11 +19054,11 @@
           <t xml:space="preserve">12'476</t>
         </is>
       </c>
-      <c r="F286" s="66">
-        <v>95.07</v>
+      <c t="n" r="F286">
+        <v>95.9</v>
       </c>
       <c r="H286" s="66">
-        <v>23.67</v>
+        <v>23.46</v>
       </c>
       <c t="n" r="I286">
         <v>7.5</v>
@@ -19187,11 +19187,11 @@
           <t xml:space="preserve">10'000</t>
         </is>
       </c>
-      <c t="n" r="F288">
-        <v>87.2</v>
+      <c r="F288" s="66">
+        <v>87.42</v>
       </c>
       <c r="H288" s="66">
-        <v>26.61</v>
+        <v>26.54</v>
       </c>
       <c t="n" r="I288">
         <v>2.4</v>
@@ -19258,7 +19258,7 @@
         </is>
       </c>
       <c r="F289" s="66">
-        <v>102.23</v>
+        <v>102.25</v>
       </c>
       <c r="H289" s="66">
         <v>20.93</v>
@@ -19323,10 +19323,10 @@
         </is>
       </c>
       <c r="F290" s="66">
-        <v>102.85</v>
+        <v>103.15</v>
       </c>
       <c r="H290" s="66">
-        <v>17.58</v>
+        <v>17.53</v>
       </c>
       <c r="I290" s="66">
         <v>4.58</v>
@@ -19387,11 +19387,11 @@
           <t xml:space="preserve">190'287</t>
         </is>
       </c>
-      <c t="n" r="F291">
-        <v>103.9</v>
+      <c r="F291" s="66">
+        <v>103.84</v>
       </c>
       <c r="H291" s="66">
-        <v>18.14</v>
+        <v>18.15</v>
       </c>
       <c r="I291" s="66">
         <v>7.17</v>
@@ -19453,7 +19453,7 @@
         </is>
       </c>
       <c r="F292" s="66">
-        <v>104.38</v>
+        <v>104.39</v>
       </c>
       <c r="H292" s="66">
         <v>19.08</v>
